--- a/me/4.Exercises.xlsx
+++ b/me/4.Exercises.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07F52B6-1824-4BB0-A79C-46C6265277C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC3DDAC-3E37-4546-926A-C58927CCC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banner" sheetId="1" r:id="rId1"/>
+    <sheet name="Menu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="191">
   <si>
     <t>構成</t>
   </si>
@@ -351,6 +352,397 @@
   </si>
   <si>
     <t>Để phần nội dung content nằm bên trong nổi được lên trên lớp phủ</t>
+  </si>
+  <si>
+    <t>2.Menu</t>
+  </si>
+  <si>
+    <t>flexbox\4.Exercises\2.Menu\index.html</t>
+  </si>
+  <si>
+    <t>    &lt;title&gt;Flexbox Exercise - Menu&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;link</t>
+  </si>
+  <si>
+    <t>      rel="stylesheet"</t>
+  </si>
+  <si>
+    <t>      crossorigin="anonymous"</t>
+  </si>
+  <si>
+    <t>    /&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;div class="wrapper"&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;nav&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;a href="#" class="logo"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;ul class="menu"&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;li class="active"&gt;&lt;a href="#"&gt;Home&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;li&gt;&lt;a href="#"&gt;Portfolio&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;li&gt;&lt;a href="#"&gt;Blog&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;li&gt;&lt;a href="#"&gt;About&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;li&gt;&lt;a href="#"&gt;Contact&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;/nav&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>flexbox\4.Exercises\2.Menu\css\style.css</t>
+  </si>
+  <si>
+    <t>    background-color: #b7b7b7;</t>
+  </si>
+  <si>
+    <t>    color: #787878;</t>
+  </si>
+  <si>
+    <t>a {</t>
+  </si>
+  <si>
+    <t>    text-decoration: none;</t>
+  </si>
+  <si>
+    <t>.wrapper {</t>
+  </si>
+  <si>
+    <t>    max-width: 1200px;</t>
+  </si>
+  <si>
+    <t>    margin: auto;</t>
+  </si>
+  <si>
+    <t>nav {</t>
+  </si>
+  <si>
+    <t>    background-color: #fff;</t>
+  </si>
+  <si>
+    <t>    margin-top: 10px;</t>
+  </si>
+  <si>
+    <t>    justify-content: space-between;</t>
+  </si>
+  <si>
+    <t>    padding: 15px 25px;</t>
+  </si>
+  <si>
+    <t>.logo {</t>
+  </si>
+  <si>
+    <t>    font-size: 30px;</t>
+  </si>
+  <si>
+    <t>    color: inherit;</t>
+  </si>
+  <si>
+    <t>    font-weight: bold;</t>
+  </si>
+  <si>
+    <t>.btn-toggle-menu {</t>
+  </si>
+  <si>
+    <t>    font-size: 25px;</t>
+  </si>
+  <si>
+    <t>    display: none;</t>
+  </si>
+  <si>
+    <t>#toggle-menu {</t>
+  </si>
+  <si>
+    <t>.menu {</t>
+  </si>
+  <si>
+    <t>    list-style: none;</t>
+  </si>
+  <si>
+    <t>.menu li {</t>
+  </si>
+  <si>
+    <t>    margin-left: 10px;</t>
+  </si>
+  <si>
+    <t>.menu li a {</t>
+  </si>
+  <si>
+    <t>    display: block;</t>
+  </si>
+  <si>
+    <t>    padding: 8px 15px;</t>
+  </si>
+  <si>
+    <t>    border-radius: 15px;</t>
+  </si>
+  <si>
+    <t>.menu li.active a {</t>
+  </si>
+  <si>
+    <t>    background-color: #0f0f0f;</t>
+  </si>
+  <si>
+    <t>.menu li a:hover {</t>
+  </si>
+  <si>
+    <t>@media screen and (max-width: 768px) {</t>
+  </si>
+  <si>
+    <t>    nav {</t>
+  </si>
+  <si>
+    <t>        flex-wrap: wrap;</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>    .menu {</t>
+  </si>
+  <si>
+    <t>        display: none;</t>
+  </si>
+  <si>
+    <t>    .menu li {</t>
+  </si>
+  <si>
+    <t>        margin-left: 0;</t>
+  </si>
+  <si>
+    <t>        margin-bottom: 5px;</t>
+  </si>
+  <si>
+    <t>    .btn-toggle-menu {</t>
+  </si>
+  <si>
+    <t>        display: unset;</t>
+  </si>
+  <si>
+    <t>        display: block;</t>
+  </si>
+  <si>
+    <t>        width: 100%;</t>
+  </si>
+  <si>
+    <t>Kế thừa từ color của body</t>
+  </si>
+  <si>
+    <t>Giãn cách nhau, các phần tử flex item ở đầu(a.logo) và cuối(ul.menu) sẽ nằm về 2 bên sát lề trái và phải của flex container(nav)</t>
+  </si>
+  <si>
+    <t>Để cho các menu li bên trong(flex item) sẽ nằm trên 1 dòng</t>
+  </si>
+  <si>
+    <t>Căn giữa theo đường nằm ngang làm trục</t>
+  </si>
+  <si>
+    <t>Khi hover vào thì có transition nhìn sẽ mượt hơn</t>
+  </si>
+  <si>
+    <r>
+      <t>        &lt;input type="checkbox" id="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toggle-menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        &lt;label for="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toggle-menu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" class="btn-toggle-menu"</t>
+    </r>
+  </si>
+  <si>
+    <t>Đối với màn hình nhỏ &lt;768px thì khi checkbox được checked thì menu sẽ được hiện và ngược lại checkbox ko được checked thì menu sẽ ẩn đi</t>
+  </si>
+  <si>
+    <t>      href="https://cdnjs.cloudflare.com/ajax/libs/font-awesome/6.1.2/css/all.min.css"</t>
+  </si>
+  <si>
+    <t>      integrity="sha512-1sCRPdkRXhBV2PBLUdRb4tMg1w2YPf37qatUFeS7zlBy7jJI8Lf4VHwWfZZfpXtYSLy85pkm9GaYVYMfw5BC1A=="</t>
+  </si>
+  <si>
+    <t>      referrerpolicy="no-referrer"</t>
+  </si>
+  <si>
+    <t>font awesome cdn</t>
+  </si>
+  <si>
+    <t>font awesome</t>
+  </si>
+  <si>
+    <r>
+      <t>          &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;i class="fa-solid fa-bars"&gt;&lt;/i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/label&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Ở màn hình desktop nên ẩn icon bars này đi</t>
+  </si>
+  <si>
+    <t>Ẩn checkbox đi</t>
+  </si>
+  <si>
+    <t>Khi click vào label này thì input checkbox sẽ được checked. Do đó giá trị value của for phải là "toggle-menu", chính là id của input checkbox</t>
+  </si>
+  <si>
+    <t>Đối với màn hình nhỏ hơn 768px thì menu phải được ẩn đi</t>
+  </si>
+  <si>
+    <t>Cho nút icon bars hiện lên</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    #toggle-menu:checked </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.menu {</t>
+    </r>
+  </si>
+  <si>
+    <t>CSS element+element Selector</t>
+  </si>
+  <si>
+    <t>The element+element selector is used to select an element that is directly after another specific element</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/cssref/sel_element_pluss.asp</t>
+  </si>
+  <si>
+    <t>menu nằm ngay sau checkbox, khi checkbox được checked thì menu sẽ được hiện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đối với màn hình nhỏ hơn 768px thì menu được hiện lên nhưng vì menu cũng nằm trong nav nên nó cũng </t>
+  </si>
+  <si>
+    <t>đóng vai trò là flex item, để cho menu có thể xuống dòng được thì phải set giá trị flex-wrap: wrap</t>
+  </si>
+  <si>
+    <t>màn hình desktop</t>
+  </si>
+  <si>
+    <t>màn hình nhỏ hơn 768px</t>
+  </si>
+  <si>
+    <t>Click icon bars</t>
+  </si>
+  <si>
+    <t>menu được hiện</t>
   </si>
 </sst>
 </file>
@@ -387,7 +779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -475,11 +867,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -495,6 +967,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,6 +1653,1412 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8766362C-200E-0556-42FB-CC7592CCD42B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2038350" y="2238375"/>
+          <a:ext cx="333375" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5B64D2-9394-B56F-FFD2-7F84978876B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2209800" y="2066925"/>
+          <a:ext cx="504825" cy="5429250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C512D0-04DE-083B-D17B-98FF2AA06F47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1485900" y="12934950"/>
+          <a:ext cx="133350" cy="4467225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB74507-11BC-0E96-B038-F1042B77BAE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1676400" y="23031450"/>
+          <a:ext cx="4410075" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B41D5CA-AB2E-782C-DACE-AF1151129280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="981075" y="7962900"/>
+          <a:ext cx="1619250" cy="11372850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F876D95-8DEC-365D-B901-2B79891E826F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="7362825"/>
+          <a:ext cx="361950" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF617F4-8FF6-C538-CE25-77F53C697BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2543175" y="7991475"/>
+          <a:ext cx="6276975" cy="20850225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBF15A2-4975-A700-9E79-B1D714EDBFF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17487900" y="3295651"/>
+          <a:ext cx="10467975" cy="4977464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>541883</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>94458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44ACD916-B718-9B20-D6C5-26FF4C5B3B79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17478375" y="8429625"/>
+          <a:ext cx="8333333" cy="6333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE98153-1DC7-54C6-CD85-09DA2118269C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220075" y="5181600"/>
+          <a:ext cx="16697325" cy="5762625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>446723</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>180349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114BF9FF-80AC-E63F-D45B-3AA157A0FADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17487900" y="15744825"/>
+          <a:ext cx="7619048" cy="5009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>65225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529C3B58-F642-757E-462E-607245933D21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17526001" y="21050251"/>
+          <a:ext cx="10610850" cy="5684974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>391510</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B998562-ACB5-6339-E52C-8E1B04F51F3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17497425" y="27117676"/>
+          <a:ext cx="10602310" cy="5324474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>294123</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>123134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74BB10F-5C21-1FA4-1A65-AEBAE743982C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17564100" y="32699325"/>
+          <a:ext cx="9219048" cy="5523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41713A9F-80FA-6713-3D4F-3F7C1AC7B793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="7581900"/>
+          <a:ext cx="19888200" cy="27308175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FADD1E3-1985-4F9A-7F74-B8408F844315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="7572375"/>
+          <a:ext cx="3419475" cy="11134725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227A7ACF-465A-4816-C1D6-A87834602006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="942975" y="8143875"/>
+          <a:ext cx="704850" cy="18221325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5534660C-BD81-47D5-5C84-CCF508D1EB92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="18840450"/>
+          <a:ext cx="76200" cy="9420225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>130684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD150085-D2CC-79B2-0AA5-16650A074F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17468850" y="39338250"/>
+          <a:ext cx="10601325" cy="5378959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC5BE17-89D5-85E5-D767-641498A1911B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18059400" y="41814750"/>
+          <a:ext cx="895350" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Straight Arrow Connector 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C9E53F-862F-AA08-F2FF-3C3CB2467D0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19145250" y="42348150"/>
+          <a:ext cx="3771900" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Straight Arrow Connector 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708B469F-3549-2030-7742-66FBC3B6B517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1724025" y="25908000"/>
+          <a:ext cx="4371975" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>153422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25E1B2F-E1FB-225F-7C86-4C30EF8BB14D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="30756226"/>
+          <a:ext cx="11449050" cy="2353696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36B67A0-75D9-624D-3D54-2379F1209634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="28917900"/>
+          <a:ext cx="15135225" cy="9791700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>589658</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>171037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64D2E8B-5726-6C69-9956-20DF90160694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="34204275"/>
+          <a:ext cx="7133333" cy="3304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Straight Arrow Connector 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C9F6D5-83FB-778F-A99B-E3153DF2800A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="34051875"/>
+          <a:ext cx="5648325" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Arrow: Down 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F12535A-0C27-51DB-96C0-2F3C17FFDC88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848099" y="37576125"/>
+          <a:ext cx="257175" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>484888</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>142349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9D5DD9-878D-461A-05F7-CC1DDCA04E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="38042850"/>
+          <a:ext cx="7095238" cy="4209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1435,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:AF168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4619,4 +6511,7359 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E71A3BF-81E2-4498-88FA-4FD1745FF8EE}">
+  <dimension ref="A4:AT236"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10"/>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="AC17" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="5"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="3"/>
+    </row>
+    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="5"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="5"/>
+    </row>
+    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="5"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="5"/>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="5"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="5"/>
+    </row>
+    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="5"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="5"/>
+    </row>
+    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="5"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="5"/>
+    </row>
+    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="5"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="5"/>
+    </row>
+    <row r="25" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="5"/>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="5"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="5"/>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="5"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="5"/>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="5"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="5"/>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="5"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="5"/>
+    </row>
+    <row r="30" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="5"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="5"/>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="10"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="5"/>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="5"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="5"/>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="5"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="5"/>
+    </row>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="5"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="5"/>
+    </row>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="5"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="5"/>
+    </row>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="5"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="5"/>
+    </row>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="5"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="5"/>
+    </row>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="5"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="12"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="5"/>
+    </row>
+    <row r="39" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="5"/>
+      <c r="N39" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="5"/>
+    </row>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="5"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="5"/>
+    </row>
+    <row r="41" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="5"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AS41" s="12"/>
+      <c r="AT41" s="5"/>
+    </row>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="5"/>
+      <c r="N42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="5"/>
+    </row>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="5"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="5"/>
+    </row>
+    <row r="44" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="5"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="5"/>
+    </row>
+    <row r="45" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="5"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="5"/>
+    </row>
+    <row r="46" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="5"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="5"/>
+    </row>
+    <row r="47" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="5"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="12"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12"/>
+      <c r="AS47" s="12"/>
+      <c r="AT47" s="5"/>
+    </row>
+    <row r="48" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="5"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="12"/>
+      <c r="AO48" s="12"/>
+      <c r="AP48" s="12"/>
+      <c r="AQ48" s="12"/>
+      <c r="AR48" s="12"/>
+      <c r="AS48" s="12"/>
+      <c r="AT48" s="5"/>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="5"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="5"/>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="5"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="5"/>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="5"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12"/>
+      <c r="AN51" s="12"/>
+      <c r="AO51" s="12"/>
+      <c r="AP51" s="12"/>
+      <c r="AQ51" s="12"/>
+      <c r="AR51" s="12"/>
+      <c r="AS51" s="12"/>
+      <c r="AT51" s="5"/>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="5"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+      <c r="AT52" s="5"/>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="10"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="5"/>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="5"/>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="5"/>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12"/>
+      <c r="AS56" s="12"/>
+      <c r="AT56" s="5"/>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AS57" s="12"/>
+      <c r="AT57" s="5"/>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="5"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="12"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
+      <c r="AO58" s="12"/>
+      <c r="AP58" s="12"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="12"/>
+      <c r="AS58" s="12"/>
+      <c r="AT58" s="5"/>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="5"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="12"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+      <c r="AM59" s="12"/>
+      <c r="AN59" s="12"/>
+      <c r="AO59" s="12"/>
+      <c r="AP59" s="12"/>
+      <c r="AQ59" s="12"/>
+      <c r="AR59" s="12"/>
+      <c r="AS59" s="12"/>
+      <c r="AT59" s="5"/>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="5"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="12"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+      <c r="AM60" s="12"/>
+      <c r="AN60" s="12"/>
+      <c r="AO60" s="12"/>
+      <c r="AP60" s="12"/>
+      <c r="AQ60" s="12"/>
+      <c r="AR60" s="12"/>
+      <c r="AS60" s="12"/>
+      <c r="AT60" s="5"/>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="5"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="12"/>
+      <c r="AO61" s="12"/>
+      <c r="AP61" s="12"/>
+      <c r="AQ61" s="12"/>
+      <c r="AR61" s="12"/>
+      <c r="AS61" s="12"/>
+      <c r="AT61" s="5"/>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="5"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12"/>
+      <c r="AS62" s="12"/>
+      <c r="AT62" s="5"/>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="5"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="5"/>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="5"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="12"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="5"/>
+    </row>
+    <row r="65" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="5"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="12"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="12"/>
+      <c r="AN65" s="12"/>
+      <c r="AO65" s="12"/>
+      <c r="AP65" s="12"/>
+      <c r="AQ65" s="12"/>
+      <c r="AR65" s="12"/>
+      <c r="AS65" s="12"/>
+      <c r="AT65" s="5"/>
+    </row>
+    <row r="66" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="5"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="12"/>
+      <c r="AN66" s="12"/>
+      <c r="AO66" s="12"/>
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12"/>
+      <c r="AR66" s="12"/>
+      <c r="AS66" s="12"/>
+      <c r="AT66" s="5"/>
+    </row>
+    <row r="67" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="5"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
+      <c r="AN67" s="12"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="12"/>
+      <c r="AT67" s="5"/>
+    </row>
+    <row r="68" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="5"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
+      <c r="AN68" s="12"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+      <c r="AS68" s="12"/>
+      <c r="AT68" s="5"/>
+    </row>
+    <row r="69" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="5"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="5"/>
+    </row>
+    <row r="70" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="5"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="12"/>
+      <c r="AO70" s="12"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="12"/>
+      <c r="AS70" s="12"/>
+      <c r="AT70" s="5"/>
+    </row>
+    <row r="71" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="5"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
+      <c r="AN71" s="12"/>
+      <c r="AO71" s="12"/>
+      <c r="AP71" s="12"/>
+      <c r="AQ71" s="12"/>
+      <c r="AR71" s="12"/>
+      <c r="AS71" s="12"/>
+      <c r="AT71" s="5"/>
+    </row>
+    <row r="72" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="5"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
+      <c r="AN72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
+      <c r="AT72" s="5"/>
+    </row>
+    <row r="73" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="5"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="12"/>
+      <c r="AN73" s="12"/>
+      <c r="AO73" s="12"/>
+      <c r="AP73" s="12"/>
+      <c r="AQ73" s="12"/>
+      <c r="AR73" s="12"/>
+      <c r="AS73" s="12"/>
+      <c r="AT73" s="5"/>
+    </row>
+    <row r="74" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="5"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
+      <c r="AN74" s="12"/>
+      <c r="AO74" s="12"/>
+      <c r="AP74" s="12"/>
+      <c r="AQ74" s="12"/>
+      <c r="AR74" s="12"/>
+      <c r="AS74" s="12"/>
+      <c r="AT74" s="5"/>
+    </row>
+    <row r="75" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="5"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="12"/>
+      <c r="AE75" s="12"/>
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+      <c r="AM75" s="12"/>
+      <c r="AN75" s="12"/>
+      <c r="AO75" s="12"/>
+      <c r="AP75" s="12"/>
+      <c r="AQ75" s="12"/>
+      <c r="AR75" s="12"/>
+      <c r="AS75" s="12"/>
+      <c r="AT75" s="5"/>
+    </row>
+    <row r="76" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="5"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="12"/>
+      <c r="AE76" s="12"/>
+      <c r="AF76" s="12"/>
+      <c r="AG76" s="12"/>
+      <c r="AH76" s="12"/>
+      <c r="AI76" s="12"/>
+      <c r="AJ76" s="12"/>
+      <c r="AK76" s="12"/>
+      <c r="AL76" s="12"/>
+      <c r="AM76" s="12"/>
+      <c r="AN76" s="12"/>
+      <c r="AO76" s="12"/>
+      <c r="AP76" s="12"/>
+      <c r="AQ76" s="12"/>
+      <c r="AR76" s="12"/>
+      <c r="AS76" s="12"/>
+      <c r="AT76" s="5"/>
+    </row>
+    <row r="77" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="5"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="12"/>
+      <c r="AE77" s="12"/>
+      <c r="AF77" s="12"/>
+      <c r="AG77" s="12"/>
+      <c r="AH77" s="12"/>
+      <c r="AI77" s="12"/>
+      <c r="AJ77" s="12"/>
+      <c r="AK77" s="12"/>
+      <c r="AL77" s="12"/>
+      <c r="AM77" s="12"/>
+      <c r="AN77" s="12"/>
+      <c r="AO77" s="12"/>
+      <c r="AP77" s="12"/>
+      <c r="AQ77" s="12"/>
+      <c r="AR77" s="12"/>
+      <c r="AS77" s="12"/>
+      <c r="AT77" s="5"/>
+    </row>
+    <row r="78" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="5"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="12"/>
+      <c r="AE78" s="12"/>
+      <c r="AF78" s="12"/>
+      <c r="AG78" s="12"/>
+      <c r="AH78" s="12"/>
+      <c r="AI78" s="12"/>
+      <c r="AJ78" s="12"/>
+      <c r="AK78" s="12"/>
+      <c r="AL78" s="12"/>
+      <c r="AM78" s="12"/>
+      <c r="AN78" s="12"/>
+      <c r="AO78" s="12"/>
+      <c r="AP78" s="12"/>
+      <c r="AQ78" s="12"/>
+      <c r="AR78" s="12"/>
+      <c r="AS78" s="12"/>
+      <c r="AT78" s="5"/>
+    </row>
+    <row r="79" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="5"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="8"/>
+      <c r="AE79" s="8"/>
+      <c r="AF79" s="8"/>
+      <c r="AG79" s="8"/>
+      <c r="AH79" s="8"/>
+      <c r="AI79" s="8"/>
+      <c r="AJ79" s="8"/>
+      <c r="AK79" s="8"/>
+      <c r="AL79" s="8"/>
+      <c r="AM79" s="8"/>
+      <c r="AN79" s="8"/>
+      <c r="AO79" s="8"/>
+      <c r="AP79" s="8"/>
+      <c r="AQ79" s="8"/>
+      <c r="AR79" s="8"/>
+      <c r="AS79" s="8"/>
+      <c r="AT79" s="10"/>
+    </row>
+    <row r="80" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="5"/>
+      <c r="AC82" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="5"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="2"/>
+      <c r="AN83" s="2"/>
+      <c r="AO83" s="2"/>
+      <c r="AP83" s="2"/>
+      <c r="AQ83" s="2"/>
+      <c r="AR83" s="2"/>
+      <c r="AS83" s="2"/>
+      <c r="AT83" s="3"/>
+    </row>
+    <row r="84" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="5"/>
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="12"/>
+      <c r="AE84" s="12"/>
+      <c r="AF84" s="12"/>
+      <c r="AG84" s="12"/>
+      <c r="AH84" s="12"/>
+      <c r="AI84" s="12"/>
+      <c r="AJ84" s="12"/>
+      <c r="AK84" s="12"/>
+      <c r="AL84" s="12"/>
+      <c r="AM84" s="12"/>
+      <c r="AN84" s="12"/>
+      <c r="AO84" s="12"/>
+      <c r="AP84" s="12"/>
+      <c r="AQ84" s="12"/>
+      <c r="AR84" s="12"/>
+      <c r="AS84" s="12"/>
+      <c r="AT84" s="5"/>
+    </row>
+    <row r="85" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="5"/>
+      <c r="J85" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC85" s="4"/>
+      <c r="AD85" s="12"/>
+      <c r="AE85" s="12"/>
+      <c r="AF85" s="12"/>
+      <c r="AG85" s="12"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="12"/>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="12"/>
+      <c r="AM85" s="12"/>
+      <c r="AN85" s="12"/>
+      <c r="AO85" s="12"/>
+      <c r="AP85" s="12"/>
+      <c r="AQ85" s="12"/>
+      <c r="AR85" s="12"/>
+      <c r="AS85" s="12"/>
+      <c r="AT85" s="5"/>
+    </row>
+    <row r="86" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="5"/>
+      <c r="J86" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC86" s="4"/>
+      <c r="AD86" s="12"/>
+      <c r="AE86" s="12"/>
+      <c r="AF86" s="12"/>
+      <c r="AG86" s="12"/>
+      <c r="AH86" s="12"/>
+      <c r="AI86" s="12"/>
+      <c r="AJ86" s="12"/>
+      <c r="AK86" s="12"/>
+      <c r="AL86" s="12"/>
+      <c r="AM86" s="12"/>
+      <c r="AN86" s="12"/>
+      <c r="AO86" s="12"/>
+      <c r="AP86" s="12"/>
+      <c r="AQ86" s="12"/>
+      <c r="AR86" s="12"/>
+      <c r="AS86" s="12"/>
+      <c r="AT86" s="5"/>
+    </row>
+    <row r="87" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="5"/>
+      <c r="AC87" s="4"/>
+      <c r="AD87" s="12"/>
+      <c r="AE87" s="12"/>
+      <c r="AF87" s="12"/>
+      <c r="AG87" s="12"/>
+      <c r="AH87" s="12"/>
+      <c r="AI87" s="12"/>
+      <c r="AJ87" s="12"/>
+      <c r="AK87" s="12"/>
+      <c r="AL87" s="12"/>
+      <c r="AM87" s="12"/>
+      <c r="AN87" s="12"/>
+      <c r="AO87" s="12"/>
+      <c r="AP87" s="12"/>
+      <c r="AQ87" s="12"/>
+      <c r="AR87" s="12"/>
+      <c r="AS87" s="12"/>
+      <c r="AT87" s="5"/>
+    </row>
+    <row r="88" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="5"/>
+      <c r="AC88" s="4"/>
+      <c r="AD88" s="12"/>
+      <c r="AE88" s="12"/>
+      <c r="AF88" s="12"/>
+      <c r="AG88" s="12"/>
+      <c r="AH88" s="12"/>
+      <c r="AI88" s="12"/>
+      <c r="AJ88" s="12"/>
+      <c r="AK88" s="12"/>
+      <c r="AL88" s="12"/>
+      <c r="AM88" s="12"/>
+      <c r="AN88" s="12"/>
+      <c r="AO88" s="12"/>
+      <c r="AP88" s="12"/>
+      <c r="AQ88" s="12"/>
+      <c r="AR88" s="12"/>
+      <c r="AS88" s="12"/>
+      <c r="AT88" s="5"/>
+    </row>
+    <row r="89" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="5"/>
+      <c r="AC89" s="4"/>
+      <c r="AD89" s="12"/>
+      <c r="AE89" s="12"/>
+      <c r="AF89" s="12"/>
+      <c r="AG89" s="12"/>
+      <c r="AH89" s="12"/>
+      <c r="AI89" s="12"/>
+      <c r="AJ89" s="12"/>
+      <c r="AK89" s="12"/>
+      <c r="AL89" s="12"/>
+      <c r="AM89" s="12"/>
+      <c r="AN89" s="12"/>
+      <c r="AO89" s="12"/>
+      <c r="AP89" s="12"/>
+      <c r="AQ89" s="12"/>
+      <c r="AR89" s="12"/>
+      <c r="AS89" s="12"/>
+      <c r="AT89" s="5"/>
+    </row>
+    <row r="90" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="5"/>
+      <c r="AC90" s="4"/>
+      <c r="AD90" s="12"/>
+      <c r="AE90" s="12"/>
+      <c r="AF90" s="12"/>
+      <c r="AG90" s="12"/>
+      <c r="AH90" s="12"/>
+      <c r="AI90" s="12"/>
+      <c r="AJ90" s="12"/>
+      <c r="AK90" s="12"/>
+      <c r="AL90" s="12"/>
+      <c r="AM90" s="12"/>
+      <c r="AN90" s="12"/>
+      <c r="AO90" s="12"/>
+      <c r="AP90" s="12"/>
+      <c r="AQ90" s="12"/>
+      <c r="AR90" s="12"/>
+      <c r="AS90" s="12"/>
+      <c r="AT90" s="5"/>
+    </row>
+    <row r="91" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="5"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="12"/>
+      <c r="AE91" s="12"/>
+      <c r="AF91" s="12"/>
+      <c r="AG91" s="12"/>
+      <c r="AH91" s="12"/>
+      <c r="AI91" s="12"/>
+      <c r="AJ91" s="12"/>
+      <c r="AK91" s="12"/>
+      <c r="AL91" s="12"/>
+      <c r="AM91" s="12"/>
+      <c r="AN91" s="12"/>
+      <c r="AO91" s="12"/>
+      <c r="AP91" s="12"/>
+      <c r="AQ91" s="12"/>
+      <c r="AR91" s="12"/>
+      <c r="AS91" s="12"/>
+      <c r="AT91" s="5"/>
+    </row>
+    <row r="92" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="5"/>
+      <c r="J92" t="s">
+        <v>4</v>
+      </c>
+      <c r="K92" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="12"/>
+      <c r="AE92" s="12"/>
+      <c r="AF92" s="12"/>
+      <c r="AG92" s="12"/>
+      <c r="AH92" s="12"/>
+      <c r="AI92" s="12"/>
+      <c r="AJ92" s="12"/>
+      <c r="AK92" s="12"/>
+      <c r="AL92" s="12"/>
+      <c r="AM92" s="12"/>
+      <c r="AN92" s="12"/>
+      <c r="AO92" s="12"/>
+      <c r="AP92" s="12"/>
+      <c r="AQ92" s="12"/>
+      <c r="AR92" s="12"/>
+      <c r="AS92" s="12"/>
+      <c r="AT92" s="5"/>
+    </row>
+    <row r="93" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="5"/>
+      <c r="AC93" s="4"/>
+      <c r="AD93" s="12"/>
+      <c r="AE93" s="12"/>
+      <c r="AF93" s="12"/>
+      <c r="AG93" s="12"/>
+      <c r="AH93" s="12"/>
+      <c r="AI93" s="12"/>
+      <c r="AJ93" s="12"/>
+      <c r="AK93" s="12"/>
+      <c r="AL93" s="12"/>
+      <c r="AM93" s="12"/>
+      <c r="AN93" s="12"/>
+      <c r="AO93" s="12"/>
+      <c r="AP93" s="12"/>
+      <c r="AQ93" s="12"/>
+      <c r="AR93" s="12"/>
+      <c r="AS93" s="12"/>
+      <c r="AT93" s="5"/>
+    </row>
+    <row r="94" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="5"/>
+      <c r="AC94" s="4"/>
+      <c r="AD94" s="12"/>
+      <c r="AE94" s="12"/>
+      <c r="AF94" s="12"/>
+      <c r="AG94" s="12"/>
+      <c r="AH94" s="12"/>
+      <c r="AI94" s="12"/>
+      <c r="AJ94" s="12"/>
+      <c r="AK94" s="12"/>
+      <c r="AL94" s="12"/>
+      <c r="AM94" s="12"/>
+      <c r="AN94" s="12"/>
+      <c r="AO94" s="12"/>
+      <c r="AP94" s="12"/>
+      <c r="AQ94" s="12"/>
+      <c r="AR94" s="12"/>
+      <c r="AS94" s="12"/>
+      <c r="AT94" s="5"/>
+    </row>
+    <row r="95" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="5"/>
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="12"/>
+      <c r="AE95" s="12"/>
+      <c r="AF95" s="12"/>
+      <c r="AG95" s="12"/>
+      <c r="AH95" s="12"/>
+      <c r="AI95" s="12"/>
+      <c r="AJ95" s="12"/>
+      <c r="AK95" s="12"/>
+      <c r="AL95" s="12"/>
+      <c r="AM95" s="12"/>
+      <c r="AN95" s="12"/>
+      <c r="AO95" s="12"/>
+      <c r="AP95" s="12"/>
+      <c r="AQ95" s="12"/>
+      <c r="AR95" s="12"/>
+      <c r="AS95" s="12"/>
+      <c r="AT95" s="5"/>
+    </row>
+    <row r="96" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="5"/>
+      <c r="AC96" s="4"/>
+      <c r="AD96" s="12"/>
+      <c r="AE96" s="12"/>
+      <c r="AF96" s="12"/>
+      <c r="AG96" s="12"/>
+      <c r="AH96" s="12"/>
+      <c r="AI96" s="12"/>
+      <c r="AJ96" s="12"/>
+      <c r="AK96" s="12"/>
+      <c r="AL96" s="12"/>
+      <c r="AM96" s="12"/>
+      <c r="AN96" s="12"/>
+      <c r="AO96" s="12"/>
+      <c r="AP96" s="12"/>
+      <c r="AQ96" s="12"/>
+      <c r="AR96" s="12"/>
+      <c r="AS96" s="12"/>
+      <c r="AT96" s="5"/>
+    </row>
+    <row r="97" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="5"/>
+      <c r="AC97" s="4"/>
+      <c r="AD97" s="12"/>
+      <c r="AE97" s="12"/>
+      <c r="AF97" s="12"/>
+      <c r="AG97" s="12"/>
+      <c r="AH97" s="12"/>
+      <c r="AI97" s="12"/>
+      <c r="AJ97" s="12"/>
+      <c r="AK97" s="12"/>
+      <c r="AL97" s="12"/>
+      <c r="AM97" s="12"/>
+      <c r="AN97" s="12"/>
+      <c r="AO97" s="12"/>
+      <c r="AP97" s="12"/>
+      <c r="AQ97" s="12"/>
+      <c r="AR97" s="12"/>
+      <c r="AS97" s="12"/>
+      <c r="AT97" s="5"/>
+    </row>
+    <row r="98" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="5"/>
+      <c r="AC98" s="4"/>
+      <c r="AD98" s="12"/>
+      <c r="AE98" s="12"/>
+      <c r="AF98" s="12"/>
+      <c r="AG98" s="12"/>
+      <c r="AH98" s="12"/>
+      <c r="AI98" s="12"/>
+      <c r="AJ98" s="12"/>
+      <c r="AK98" s="12"/>
+      <c r="AL98" s="12"/>
+      <c r="AM98" s="12"/>
+      <c r="AN98" s="12"/>
+      <c r="AO98" s="12"/>
+      <c r="AP98" s="12"/>
+      <c r="AQ98" s="12"/>
+      <c r="AR98" s="12"/>
+      <c r="AS98" s="12"/>
+      <c r="AT98" s="5"/>
+    </row>
+    <row r="99" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="5"/>
+      <c r="J99" t="s">
+        <v>4</v>
+      </c>
+      <c r="K99" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC99" s="4"/>
+      <c r="AD99" s="12"/>
+      <c r="AE99" s="12"/>
+      <c r="AF99" s="12"/>
+      <c r="AG99" s="12"/>
+      <c r="AH99" s="12"/>
+      <c r="AI99" s="12"/>
+      <c r="AJ99" s="12"/>
+      <c r="AK99" s="12"/>
+      <c r="AL99" s="12"/>
+      <c r="AM99" s="12"/>
+      <c r="AN99" s="12"/>
+      <c r="AO99" s="12"/>
+      <c r="AP99" s="12"/>
+      <c r="AQ99" s="12"/>
+      <c r="AR99" s="12"/>
+      <c r="AS99" s="12"/>
+      <c r="AT99" s="5"/>
+    </row>
+    <row r="100" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="5"/>
+      <c r="AC100" s="4"/>
+      <c r="AD100" s="12"/>
+      <c r="AE100" s="12"/>
+      <c r="AF100" s="12"/>
+      <c r="AG100" s="12"/>
+      <c r="AH100" s="12"/>
+      <c r="AI100" s="12"/>
+      <c r="AJ100" s="12"/>
+      <c r="AK100" s="12"/>
+      <c r="AL100" s="12"/>
+      <c r="AM100" s="12"/>
+      <c r="AN100" s="12"/>
+      <c r="AO100" s="12"/>
+      <c r="AP100" s="12"/>
+      <c r="AQ100" s="12"/>
+      <c r="AR100" s="12"/>
+      <c r="AS100" s="12"/>
+      <c r="AT100" s="5"/>
+    </row>
+    <row r="101" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="5"/>
+      <c r="AC101" s="4"/>
+      <c r="AD101" s="12"/>
+      <c r="AE101" s="12"/>
+      <c r="AF101" s="12"/>
+      <c r="AG101" s="12"/>
+      <c r="AH101" s="12"/>
+      <c r="AI101" s="12"/>
+      <c r="AJ101" s="12"/>
+      <c r="AK101" s="12"/>
+      <c r="AL101" s="12"/>
+      <c r="AM101" s="12"/>
+      <c r="AN101" s="12"/>
+      <c r="AO101" s="12"/>
+      <c r="AP101" s="12"/>
+      <c r="AQ101" s="12"/>
+      <c r="AR101" s="12"/>
+      <c r="AS101" s="12"/>
+      <c r="AT101" s="5"/>
+    </row>
+    <row r="102" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="5"/>
+      <c r="AC102" s="4"/>
+      <c r="AD102" s="12"/>
+      <c r="AE102" s="12"/>
+      <c r="AF102" s="12"/>
+      <c r="AG102" s="12"/>
+      <c r="AH102" s="12"/>
+      <c r="AI102" s="12"/>
+      <c r="AJ102" s="12"/>
+      <c r="AK102" s="12"/>
+      <c r="AL102" s="12"/>
+      <c r="AM102" s="12"/>
+      <c r="AN102" s="12"/>
+      <c r="AO102" s="12"/>
+      <c r="AP102" s="12"/>
+      <c r="AQ102" s="12"/>
+      <c r="AR102" s="12"/>
+      <c r="AS102" s="12"/>
+      <c r="AT102" s="5"/>
+    </row>
+    <row r="103" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="5"/>
+      <c r="J103" t="s">
+        <v>4</v>
+      </c>
+      <c r="K103" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC103" s="4"/>
+      <c r="AD103" s="12"/>
+      <c r="AE103" s="12"/>
+      <c r="AF103" s="12"/>
+      <c r="AG103" s="12"/>
+      <c r="AH103" s="12"/>
+      <c r="AI103" s="12"/>
+      <c r="AJ103" s="12"/>
+      <c r="AK103" s="12"/>
+      <c r="AL103" s="12"/>
+      <c r="AM103" s="12"/>
+      <c r="AN103" s="12"/>
+      <c r="AO103" s="12"/>
+      <c r="AP103" s="12"/>
+      <c r="AQ103" s="12"/>
+      <c r="AR103" s="12"/>
+      <c r="AS103" s="12"/>
+      <c r="AT103" s="5"/>
+    </row>
+    <row r="104" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="5"/>
+      <c r="AC104" s="4"/>
+      <c r="AD104" s="12"/>
+      <c r="AE104" s="12"/>
+      <c r="AF104" s="12"/>
+      <c r="AG104" s="12"/>
+      <c r="AH104" s="12"/>
+      <c r="AI104" s="12"/>
+      <c r="AJ104" s="12"/>
+      <c r="AK104" s="12"/>
+      <c r="AL104" s="12"/>
+      <c r="AM104" s="12"/>
+      <c r="AN104" s="12"/>
+      <c r="AO104" s="12"/>
+      <c r="AP104" s="12"/>
+      <c r="AQ104" s="12"/>
+      <c r="AR104" s="12"/>
+      <c r="AS104" s="12"/>
+      <c r="AT104" s="5"/>
+    </row>
+    <row r="105" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="5"/>
+      <c r="AC105" s="4"/>
+      <c r="AD105" s="12"/>
+      <c r="AE105" s="12"/>
+      <c r="AF105" s="12"/>
+      <c r="AG105" s="12"/>
+      <c r="AH105" s="12"/>
+      <c r="AI105" s="12"/>
+      <c r="AJ105" s="12"/>
+      <c r="AK105" s="12"/>
+      <c r="AL105" s="12"/>
+      <c r="AM105" s="12"/>
+      <c r="AN105" s="12"/>
+      <c r="AO105" s="12"/>
+      <c r="AP105" s="12"/>
+      <c r="AQ105" s="12"/>
+      <c r="AR105" s="12"/>
+      <c r="AS105" s="12"/>
+      <c r="AT105" s="5"/>
+    </row>
+    <row r="106" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="5"/>
+      <c r="AC106" s="4"/>
+      <c r="AD106" s="12"/>
+      <c r="AE106" s="12"/>
+      <c r="AF106" s="12"/>
+      <c r="AG106" s="12"/>
+      <c r="AH106" s="12"/>
+      <c r="AI106" s="12"/>
+      <c r="AJ106" s="12"/>
+      <c r="AK106" s="12"/>
+      <c r="AL106" s="12"/>
+      <c r="AM106" s="12"/>
+      <c r="AN106" s="12"/>
+      <c r="AO106" s="12"/>
+      <c r="AP106" s="12"/>
+      <c r="AQ106" s="12"/>
+      <c r="AR106" s="12"/>
+      <c r="AS106" s="12"/>
+      <c r="AT106" s="5"/>
+    </row>
+    <row r="107" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="5"/>
+      <c r="AC107" s="4"/>
+      <c r="AD107" s="12"/>
+      <c r="AE107" s="12"/>
+      <c r="AF107" s="12"/>
+      <c r="AG107" s="12"/>
+      <c r="AH107" s="12"/>
+      <c r="AI107" s="12"/>
+      <c r="AJ107" s="12"/>
+      <c r="AK107" s="12"/>
+      <c r="AL107" s="12"/>
+      <c r="AM107" s="12"/>
+      <c r="AN107" s="12"/>
+      <c r="AO107" s="12"/>
+      <c r="AP107" s="12"/>
+      <c r="AQ107" s="12"/>
+      <c r="AR107" s="12"/>
+      <c r="AS107" s="12"/>
+      <c r="AT107" s="5"/>
+    </row>
+    <row r="108" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="5"/>
+      <c r="J108" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC108" s="4"/>
+      <c r="AD108" s="12"/>
+      <c r="AE108" s="12"/>
+      <c r="AF108" s="12"/>
+      <c r="AG108" s="12"/>
+      <c r="AH108" s="12"/>
+      <c r="AI108" s="12"/>
+      <c r="AJ108" s="12"/>
+      <c r="AK108" s="12"/>
+      <c r="AL108" s="12"/>
+      <c r="AM108" s="12"/>
+      <c r="AN108" s="12"/>
+      <c r="AO108" s="12"/>
+      <c r="AP108" s="12"/>
+      <c r="AQ108" s="12"/>
+      <c r="AR108" s="12"/>
+      <c r="AS108" s="12"/>
+      <c r="AT108" s="5"/>
+    </row>
+    <row r="109" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="5"/>
+      <c r="AC109" s="4"/>
+      <c r="AD109" s="12"/>
+      <c r="AE109" s="12"/>
+      <c r="AF109" s="12"/>
+      <c r="AG109" s="12"/>
+      <c r="AH109" s="12"/>
+      <c r="AI109" s="12"/>
+      <c r="AJ109" s="12"/>
+      <c r="AK109" s="12"/>
+      <c r="AL109" s="12"/>
+      <c r="AM109" s="12"/>
+      <c r="AN109" s="12"/>
+      <c r="AO109" s="12"/>
+      <c r="AP109" s="12"/>
+      <c r="AQ109" s="12"/>
+      <c r="AR109" s="12"/>
+      <c r="AS109" s="12"/>
+      <c r="AT109" s="5"/>
+    </row>
+    <row r="110" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="5"/>
+      <c r="AC110" s="4"/>
+      <c r="AD110" s="12"/>
+      <c r="AE110" s="12"/>
+      <c r="AF110" s="12"/>
+      <c r="AG110" s="12"/>
+      <c r="AH110" s="12"/>
+      <c r="AI110" s="12"/>
+      <c r="AJ110" s="12"/>
+      <c r="AK110" s="12"/>
+      <c r="AL110" s="12"/>
+      <c r="AM110" s="12"/>
+      <c r="AN110" s="12"/>
+      <c r="AO110" s="12"/>
+      <c r="AP110" s="12"/>
+      <c r="AQ110" s="12"/>
+      <c r="AR110" s="12"/>
+      <c r="AS110" s="12"/>
+      <c r="AT110" s="5"/>
+    </row>
+    <row r="111" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="5"/>
+      <c r="AC111" s="4"/>
+      <c r="AD111" s="12"/>
+      <c r="AE111" s="12"/>
+      <c r="AF111" s="12"/>
+      <c r="AG111" s="12"/>
+      <c r="AH111" s="12"/>
+      <c r="AI111" s="12"/>
+      <c r="AJ111" s="12"/>
+      <c r="AK111" s="12"/>
+      <c r="AL111" s="12"/>
+      <c r="AM111" s="12"/>
+      <c r="AN111" s="12"/>
+      <c r="AO111" s="12"/>
+      <c r="AP111" s="12"/>
+      <c r="AQ111" s="12"/>
+      <c r="AR111" s="12"/>
+      <c r="AS111" s="12"/>
+      <c r="AT111" s="5"/>
+    </row>
+    <row r="112" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="5"/>
+      <c r="AC112" s="4"/>
+      <c r="AD112" s="12"/>
+      <c r="AE112" s="12"/>
+      <c r="AF112" s="12"/>
+      <c r="AG112" s="12"/>
+      <c r="AH112" s="12"/>
+      <c r="AI112" s="12"/>
+      <c r="AJ112" s="12"/>
+      <c r="AK112" s="12"/>
+      <c r="AL112" s="12"/>
+      <c r="AM112" s="12"/>
+      <c r="AN112" s="12"/>
+      <c r="AO112" s="12"/>
+      <c r="AP112" s="12"/>
+      <c r="AQ112" s="12"/>
+      <c r="AR112" s="12"/>
+      <c r="AS112" s="12"/>
+      <c r="AT112" s="5"/>
+    </row>
+    <row r="113" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="5"/>
+      <c r="AC113" s="4"/>
+      <c r="AD113" s="12"/>
+      <c r="AE113" s="12"/>
+      <c r="AF113" s="12"/>
+      <c r="AG113" s="12"/>
+      <c r="AH113" s="12"/>
+      <c r="AI113" s="12"/>
+      <c r="AJ113" s="12"/>
+      <c r="AK113" s="12"/>
+      <c r="AL113" s="12"/>
+      <c r="AM113" s="12"/>
+      <c r="AN113" s="12"/>
+      <c r="AO113" s="12"/>
+      <c r="AP113" s="12"/>
+      <c r="AQ113" s="12"/>
+      <c r="AR113" s="12"/>
+      <c r="AS113" s="12"/>
+      <c r="AT113" s="5"/>
+    </row>
+    <row r="114" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="5"/>
+      <c r="AC114" s="4"/>
+      <c r="AD114" s="12"/>
+      <c r="AE114" s="12"/>
+      <c r="AF114" s="12"/>
+      <c r="AG114" s="12"/>
+      <c r="AH114" s="12"/>
+      <c r="AI114" s="12"/>
+      <c r="AJ114" s="12"/>
+      <c r="AK114" s="12"/>
+      <c r="AL114" s="12"/>
+      <c r="AM114" s="12"/>
+      <c r="AN114" s="12"/>
+      <c r="AO114" s="12"/>
+      <c r="AP114" s="12"/>
+      <c r="AQ114" s="12"/>
+      <c r="AR114" s="12"/>
+      <c r="AS114" s="12"/>
+      <c r="AT114" s="5"/>
+    </row>
+    <row r="115" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="5"/>
+      <c r="AC115" s="4"/>
+      <c r="AD115" s="12"/>
+      <c r="AE115" s="12"/>
+      <c r="AF115" s="12"/>
+      <c r="AG115" s="12"/>
+      <c r="AH115" s="12"/>
+      <c r="AI115" s="12"/>
+      <c r="AJ115" s="12"/>
+      <c r="AK115" s="12"/>
+      <c r="AL115" s="12"/>
+      <c r="AM115" s="12"/>
+      <c r="AN115" s="12"/>
+      <c r="AO115" s="12"/>
+      <c r="AP115" s="12"/>
+      <c r="AQ115" s="12"/>
+      <c r="AR115" s="12"/>
+      <c r="AS115" s="12"/>
+      <c r="AT115" s="5"/>
+    </row>
+    <row r="116" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="5"/>
+      <c r="AC116" s="4"/>
+      <c r="AD116" s="12"/>
+      <c r="AE116" s="12"/>
+      <c r="AF116" s="12"/>
+      <c r="AG116" s="12"/>
+      <c r="AH116" s="12"/>
+      <c r="AI116" s="12"/>
+      <c r="AJ116" s="12"/>
+      <c r="AK116" s="12"/>
+      <c r="AL116" s="12"/>
+      <c r="AM116" s="12"/>
+      <c r="AN116" s="12"/>
+      <c r="AO116" s="12"/>
+      <c r="AP116" s="12"/>
+      <c r="AQ116" s="12"/>
+      <c r="AR116" s="12"/>
+      <c r="AS116" s="12"/>
+      <c r="AT116" s="5"/>
+    </row>
+    <row r="117" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="5"/>
+      <c r="AC117" s="4"/>
+      <c r="AD117" s="12"/>
+      <c r="AE117" s="12"/>
+      <c r="AF117" s="12"/>
+      <c r="AG117" s="12"/>
+      <c r="AH117" s="12"/>
+      <c r="AI117" s="12"/>
+      <c r="AJ117" s="12"/>
+      <c r="AK117" s="12"/>
+      <c r="AL117" s="12"/>
+      <c r="AM117" s="12"/>
+      <c r="AN117" s="12"/>
+      <c r="AO117" s="12"/>
+      <c r="AP117" s="12"/>
+      <c r="AQ117" s="12"/>
+      <c r="AR117" s="12"/>
+      <c r="AS117" s="12"/>
+      <c r="AT117" s="5"/>
+    </row>
+    <row r="118" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="5"/>
+      <c r="AC118" s="4"/>
+      <c r="AD118" s="12"/>
+      <c r="AE118" s="12"/>
+      <c r="AF118" s="12"/>
+      <c r="AG118" s="12"/>
+      <c r="AH118" s="12"/>
+      <c r="AI118" s="12"/>
+      <c r="AJ118" s="12"/>
+      <c r="AK118" s="12"/>
+      <c r="AL118" s="12"/>
+      <c r="AM118" s="12"/>
+      <c r="AN118" s="12"/>
+      <c r="AO118" s="12"/>
+      <c r="AP118" s="12"/>
+      <c r="AQ118" s="12"/>
+      <c r="AR118" s="12"/>
+      <c r="AS118" s="12"/>
+      <c r="AT118" s="5"/>
+    </row>
+    <row r="119" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="5"/>
+      <c r="AC119" s="4"/>
+      <c r="AD119" s="12"/>
+      <c r="AE119" s="12"/>
+      <c r="AF119" s="12"/>
+      <c r="AG119" s="12"/>
+      <c r="AH119" s="12"/>
+      <c r="AI119" s="12"/>
+      <c r="AJ119" s="12"/>
+      <c r="AK119" s="12"/>
+      <c r="AL119" s="12"/>
+      <c r="AM119" s="12"/>
+      <c r="AN119" s="12"/>
+      <c r="AO119" s="12"/>
+      <c r="AP119" s="12"/>
+      <c r="AQ119" s="12"/>
+      <c r="AR119" s="12"/>
+      <c r="AS119" s="12"/>
+      <c r="AT119" s="5"/>
+    </row>
+    <row r="120" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="5"/>
+      <c r="AC120" s="4"/>
+      <c r="AD120" s="12"/>
+      <c r="AE120" s="12"/>
+      <c r="AF120" s="12"/>
+      <c r="AG120" s="12"/>
+      <c r="AH120" s="12"/>
+      <c r="AI120" s="12"/>
+      <c r="AJ120" s="12"/>
+      <c r="AK120" s="12"/>
+      <c r="AL120" s="12"/>
+      <c r="AM120" s="12"/>
+      <c r="AN120" s="12"/>
+      <c r="AO120" s="12"/>
+      <c r="AP120" s="12"/>
+      <c r="AQ120" s="12"/>
+      <c r="AR120" s="12"/>
+      <c r="AS120" s="12"/>
+      <c r="AT120" s="5"/>
+    </row>
+    <row r="121" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="5"/>
+      <c r="J121" t="s">
+        <v>4</v>
+      </c>
+      <c r="K121" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC121" s="4"/>
+      <c r="AD121" s="12"/>
+      <c r="AE121" s="12"/>
+      <c r="AF121" s="12"/>
+      <c r="AG121" s="12"/>
+      <c r="AH121" s="12"/>
+      <c r="AI121" s="12"/>
+      <c r="AJ121" s="12"/>
+      <c r="AK121" s="12"/>
+      <c r="AL121" s="12"/>
+      <c r="AM121" s="12"/>
+      <c r="AN121" s="12"/>
+      <c r="AO121" s="12"/>
+      <c r="AP121" s="12"/>
+      <c r="AQ121" s="12"/>
+      <c r="AR121" s="12"/>
+      <c r="AS121" s="12"/>
+      <c r="AT121" s="5"/>
+    </row>
+    <row r="122" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="5"/>
+      <c r="AC122" s="4"/>
+      <c r="AD122" s="12"/>
+      <c r="AE122" s="12"/>
+      <c r="AF122" s="12"/>
+      <c r="AG122" s="12"/>
+      <c r="AH122" s="12"/>
+      <c r="AI122" s="12"/>
+      <c r="AJ122" s="12"/>
+      <c r="AK122" s="12"/>
+      <c r="AL122" s="12"/>
+      <c r="AM122" s="12"/>
+      <c r="AN122" s="12"/>
+      <c r="AO122" s="12"/>
+      <c r="AP122" s="12"/>
+      <c r="AQ122" s="12"/>
+      <c r="AR122" s="12"/>
+      <c r="AS122" s="12"/>
+      <c r="AT122" s="5"/>
+    </row>
+    <row r="123" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="5"/>
+      <c r="AC123" s="4"/>
+      <c r="AD123" s="12"/>
+      <c r="AE123" s="12"/>
+      <c r="AF123" s="12"/>
+      <c r="AG123" s="12"/>
+      <c r="AH123" s="12"/>
+      <c r="AI123" s="12"/>
+      <c r="AJ123" s="12"/>
+      <c r="AK123" s="12"/>
+      <c r="AL123" s="12"/>
+      <c r="AM123" s="12"/>
+      <c r="AN123" s="12"/>
+      <c r="AO123" s="12"/>
+      <c r="AP123" s="12"/>
+      <c r="AQ123" s="12"/>
+      <c r="AR123" s="12"/>
+      <c r="AS123" s="12"/>
+      <c r="AT123" s="5"/>
+    </row>
+    <row r="124" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="5"/>
+      <c r="AC124" s="4"/>
+      <c r="AD124" s="12"/>
+      <c r="AE124" s="12"/>
+      <c r="AF124" s="12"/>
+      <c r="AG124" s="12"/>
+      <c r="AH124" s="12"/>
+      <c r="AI124" s="12"/>
+      <c r="AJ124" s="12"/>
+      <c r="AK124" s="12"/>
+      <c r="AL124" s="12"/>
+      <c r="AM124" s="12"/>
+      <c r="AN124" s="12"/>
+      <c r="AO124" s="12"/>
+      <c r="AP124" s="12"/>
+      <c r="AQ124" s="12"/>
+      <c r="AR124" s="12"/>
+      <c r="AS124" s="12"/>
+      <c r="AT124" s="5"/>
+    </row>
+    <row r="125" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="5"/>
+      <c r="AC125" s="4"/>
+      <c r="AD125" s="12"/>
+      <c r="AE125" s="12"/>
+      <c r="AF125" s="12"/>
+      <c r="AG125" s="12"/>
+      <c r="AH125" s="12"/>
+      <c r="AI125" s="12"/>
+      <c r="AJ125" s="12"/>
+      <c r="AK125" s="12"/>
+      <c r="AL125" s="12"/>
+      <c r="AM125" s="12"/>
+      <c r="AN125" s="12"/>
+      <c r="AO125" s="12"/>
+      <c r="AP125" s="12"/>
+      <c r="AQ125" s="12"/>
+      <c r="AR125" s="12"/>
+      <c r="AS125" s="12"/>
+      <c r="AT125" s="5"/>
+    </row>
+    <row r="126" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="5"/>
+      <c r="AC126" s="4"/>
+      <c r="AD126" s="12"/>
+      <c r="AE126" s="12"/>
+      <c r="AF126" s="12"/>
+      <c r="AG126" s="12"/>
+      <c r="AH126" s="12"/>
+      <c r="AI126" s="12"/>
+      <c r="AJ126" s="12"/>
+      <c r="AK126" s="12"/>
+      <c r="AL126" s="12"/>
+      <c r="AM126" s="12"/>
+      <c r="AN126" s="12"/>
+      <c r="AO126" s="12"/>
+      <c r="AP126" s="12"/>
+      <c r="AQ126" s="12"/>
+      <c r="AR126" s="12"/>
+      <c r="AS126" s="12"/>
+      <c r="AT126" s="5"/>
+    </row>
+    <row r="127" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="5"/>
+      <c r="AC127" s="4"/>
+      <c r="AD127" s="12"/>
+      <c r="AE127" s="12"/>
+      <c r="AF127" s="12"/>
+      <c r="AG127" s="12"/>
+      <c r="AH127" s="12"/>
+      <c r="AI127" s="12"/>
+      <c r="AJ127" s="12"/>
+      <c r="AK127" s="12"/>
+      <c r="AL127" s="12"/>
+      <c r="AM127" s="12"/>
+      <c r="AN127" s="12"/>
+      <c r="AO127" s="12"/>
+      <c r="AP127" s="12"/>
+      <c r="AQ127" s="12"/>
+      <c r="AR127" s="12"/>
+      <c r="AS127" s="12"/>
+      <c r="AT127" s="5"/>
+    </row>
+    <row r="128" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="5"/>
+      <c r="AC128" s="4"/>
+      <c r="AD128" s="12"/>
+      <c r="AE128" s="12"/>
+      <c r="AF128" s="12"/>
+      <c r="AG128" s="12"/>
+      <c r="AH128" s="12"/>
+      <c r="AI128" s="12"/>
+      <c r="AJ128" s="12"/>
+      <c r="AK128" s="12"/>
+      <c r="AL128" s="12"/>
+      <c r="AM128" s="12"/>
+      <c r="AN128" s="12"/>
+      <c r="AO128" s="12"/>
+      <c r="AP128" s="12"/>
+      <c r="AQ128" s="12"/>
+      <c r="AR128" s="12"/>
+      <c r="AS128" s="12"/>
+      <c r="AT128" s="5"/>
+    </row>
+    <row r="129" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="5"/>
+      <c r="AC129" s="4"/>
+      <c r="AD129" s="12"/>
+      <c r="AE129" s="12"/>
+      <c r="AF129" s="12"/>
+      <c r="AG129" s="12"/>
+      <c r="AH129" s="12"/>
+      <c r="AI129" s="12"/>
+      <c r="AJ129" s="12"/>
+      <c r="AK129" s="12"/>
+      <c r="AL129" s="12"/>
+      <c r="AM129" s="12"/>
+      <c r="AN129" s="12"/>
+      <c r="AO129" s="12"/>
+      <c r="AP129" s="12"/>
+      <c r="AQ129" s="12"/>
+      <c r="AR129" s="12"/>
+      <c r="AS129" s="12"/>
+      <c r="AT129" s="5"/>
+    </row>
+    <row r="130" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="5"/>
+      <c r="AC130" s="4"/>
+      <c r="AD130" s="12"/>
+      <c r="AE130" s="12"/>
+      <c r="AF130" s="12"/>
+      <c r="AG130" s="12"/>
+      <c r="AH130" s="12"/>
+      <c r="AI130" s="12"/>
+      <c r="AJ130" s="12"/>
+      <c r="AK130" s="12"/>
+      <c r="AL130" s="12"/>
+      <c r="AM130" s="12"/>
+      <c r="AN130" s="12"/>
+      <c r="AO130" s="12"/>
+      <c r="AP130" s="12"/>
+      <c r="AQ130" s="12"/>
+      <c r="AR130" s="12"/>
+      <c r="AS130" s="12"/>
+      <c r="AT130" s="5"/>
+    </row>
+    <row r="131" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="5"/>
+      <c r="AC131" s="4"/>
+      <c r="AD131" s="12"/>
+      <c r="AE131" s="12"/>
+      <c r="AF131" s="12"/>
+      <c r="AG131" s="12"/>
+      <c r="AH131" s="12"/>
+      <c r="AI131" s="12"/>
+      <c r="AJ131" s="12"/>
+      <c r="AK131" s="12"/>
+      <c r="AL131" s="12"/>
+      <c r="AM131" s="12"/>
+      <c r="AN131" s="12"/>
+      <c r="AO131" s="12"/>
+      <c r="AP131" s="12"/>
+      <c r="AQ131" s="12"/>
+      <c r="AR131" s="12"/>
+      <c r="AS131" s="12"/>
+      <c r="AT131" s="5"/>
+    </row>
+    <row r="132" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="5"/>
+      <c r="AC132" s="4"/>
+      <c r="AD132" s="12"/>
+      <c r="AE132" s="12"/>
+      <c r="AF132" s="12"/>
+      <c r="AG132" s="12"/>
+      <c r="AH132" s="12"/>
+      <c r="AI132" s="12"/>
+      <c r="AJ132" s="12"/>
+      <c r="AK132" s="12"/>
+      <c r="AL132" s="12"/>
+      <c r="AM132" s="12"/>
+      <c r="AN132" s="12"/>
+      <c r="AO132" s="12"/>
+      <c r="AP132" s="12"/>
+      <c r="AQ132" s="12"/>
+      <c r="AR132" s="12"/>
+      <c r="AS132" s="12"/>
+      <c r="AT132" s="5"/>
+    </row>
+    <row r="133" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="5"/>
+      <c r="AC133" s="4"/>
+      <c r="AD133" s="12"/>
+      <c r="AE133" s="12"/>
+      <c r="AF133" s="12"/>
+      <c r="AG133" s="12"/>
+      <c r="AH133" s="12"/>
+      <c r="AI133" s="12"/>
+      <c r="AJ133" s="12"/>
+      <c r="AK133" s="12"/>
+      <c r="AL133" s="12"/>
+      <c r="AM133" s="12"/>
+      <c r="AN133" s="12"/>
+      <c r="AO133" s="12"/>
+      <c r="AP133" s="12"/>
+      <c r="AQ133" s="12"/>
+      <c r="AR133" s="12"/>
+      <c r="AS133" s="12"/>
+      <c r="AT133" s="5"/>
+    </row>
+    <row r="134" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="5"/>
+      <c r="AC134" s="4"/>
+      <c r="AD134" s="12"/>
+      <c r="AE134" s="12"/>
+      <c r="AF134" s="12"/>
+      <c r="AG134" s="12"/>
+      <c r="AH134" s="12"/>
+      <c r="AI134" s="12"/>
+      <c r="AJ134" s="12"/>
+      <c r="AK134" s="12"/>
+      <c r="AL134" s="12"/>
+      <c r="AM134" s="12"/>
+      <c r="AN134" s="12"/>
+      <c r="AO134" s="12"/>
+      <c r="AP134" s="12"/>
+      <c r="AQ134" s="12"/>
+      <c r="AR134" s="12"/>
+      <c r="AS134" s="12"/>
+      <c r="AT134" s="5"/>
+    </row>
+    <row r="135" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="5"/>
+      <c r="AC135" s="4"/>
+      <c r="AD135" s="12"/>
+      <c r="AE135" s="12"/>
+      <c r="AF135" s="12"/>
+      <c r="AG135" s="12"/>
+      <c r="AH135" s="12"/>
+      <c r="AI135" s="12"/>
+      <c r="AJ135" s="12"/>
+      <c r="AK135" s="12"/>
+      <c r="AL135" s="12"/>
+      <c r="AM135" s="12"/>
+      <c r="AN135" s="12"/>
+      <c r="AO135" s="12"/>
+      <c r="AP135" s="12"/>
+      <c r="AQ135" s="12"/>
+      <c r="AR135" s="12"/>
+      <c r="AS135" s="12"/>
+      <c r="AT135" s="5"/>
+    </row>
+    <row r="136" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="5"/>
+      <c r="J136" t="s">
+        <v>4</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="3"/>
+      <c r="AC136" s="4"/>
+      <c r="AD136" s="12"/>
+      <c r="AE136" s="12"/>
+      <c r="AF136" s="12"/>
+      <c r="AG136" s="12"/>
+      <c r="AH136" s="12"/>
+      <c r="AI136" s="12"/>
+      <c r="AJ136" s="12"/>
+      <c r="AK136" s="12"/>
+      <c r="AL136" s="12"/>
+      <c r="AM136" s="12"/>
+      <c r="AN136" s="12"/>
+      <c r="AO136" s="12"/>
+      <c r="AP136" s="12"/>
+      <c r="AQ136" s="12"/>
+      <c r="AR136" s="12"/>
+      <c r="AS136" s="12"/>
+      <c r="AT136" s="5"/>
+    </row>
+    <row r="137" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="5"/>
+      <c r="K137" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
+      <c r="R137" s="8"/>
+      <c r="S137" s="8"/>
+      <c r="T137" s="10"/>
+      <c r="AC137" s="4"/>
+      <c r="AD137" s="12"/>
+      <c r="AE137" s="12"/>
+      <c r="AF137" s="12"/>
+      <c r="AG137" s="12"/>
+      <c r="AH137" s="12"/>
+      <c r="AI137" s="12"/>
+      <c r="AJ137" s="12"/>
+      <c r="AK137" s="12"/>
+      <c r="AL137" s="12"/>
+      <c r="AM137" s="12"/>
+      <c r="AN137" s="12"/>
+      <c r="AO137" s="12"/>
+      <c r="AP137" s="12"/>
+      <c r="AQ137" s="12"/>
+      <c r="AR137" s="12"/>
+      <c r="AS137" s="12"/>
+      <c r="AT137" s="5"/>
+    </row>
+    <row r="138" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="5"/>
+      <c r="AC138" s="4"/>
+      <c r="AD138" s="12"/>
+      <c r="AE138" s="12"/>
+      <c r="AF138" s="12"/>
+      <c r="AG138" s="12"/>
+      <c r="AH138" s="12"/>
+      <c r="AI138" s="12"/>
+      <c r="AJ138" s="12"/>
+      <c r="AK138" s="12"/>
+      <c r="AL138" s="12"/>
+      <c r="AM138" s="12"/>
+      <c r="AN138" s="12"/>
+      <c r="AO138" s="12"/>
+      <c r="AP138" s="12"/>
+      <c r="AQ138" s="12"/>
+      <c r="AR138" s="12"/>
+      <c r="AS138" s="12"/>
+      <c r="AT138" s="5"/>
+    </row>
+    <row r="139" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="5"/>
+      <c r="AC139" s="4"/>
+      <c r="AD139" s="12"/>
+      <c r="AE139" s="12"/>
+      <c r="AF139" s="12"/>
+      <c r="AG139" s="12"/>
+      <c r="AH139" s="12"/>
+      <c r="AI139" s="12"/>
+      <c r="AJ139" s="12"/>
+      <c r="AK139" s="12"/>
+      <c r="AL139" s="12"/>
+      <c r="AM139" s="12"/>
+      <c r="AN139" s="12"/>
+      <c r="AO139" s="12"/>
+      <c r="AP139" s="12"/>
+      <c r="AQ139" s="12"/>
+      <c r="AR139" s="12"/>
+      <c r="AS139" s="12"/>
+      <c r="AT139" s="5"/>
+    </row>
+    <row r="140" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="5"/>
+      <c r="J140" t="s">
+        <v>4</v>
+      </c>
+      <c r="K140" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC140" s="4"/>
+      <c r="AD140" s="12"/>
+      <c r="AE140" s="12"/>
+      <c r="AF140" s="12"/>
+      <c r="AG140" s="12"/>
+      <c r="AH140" s="12"/>
+      <c r="AI140" s="12"/>
+      <c r="AJ140" s="12"/>
+      <c r="AK140" s="12"/>
+      <c r="AL140" s="12"/>
+      <c r="AM140" s="12"/>
+      <c r="AN140" s="12"/>
+      <c r="AO140" s="12"/>
+      <c r="AP140" s="12"/>
+      <c r="AQ140" s="12"/>
+      <c r="AR140" s="12"/>
+      <c r="AS140" s="12"/>
+      <c r="AT140" s="5"/>
+    </row>
+    <row r="141" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="5"/>
+      <c r="AC141" s="4"/>
+      <c r="AD141" s="12"/>
+      <c r="AE141" s="12"/>
+      <c r="AF141" s="12"/>
+      <c r="AG141" s="12"/>
+      <c r="AH141" s="12"/>
+      <c r="AI141" s="12"/>
+      <c r="AJ141" s="12"/>
+      <c r="AK141" s="12"/>
+      <c r="AL141" s="12"/>
+      <c r="AM141" s="12"/>
+      <c r="AN141" s="12"/>
+      <c r="AO141" s="12"/>
+      <c r="AP141" s="12"/>
+      <c r="AQ141" s="12"/>
+      <c r="AR141" s="12"/>
+      <c r="AS141" s="12"/>
+      <c r="AT141" s="5"/>
+    </row>
+    <row r="142" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="5"/>
+      <c r="AC142" s="4"/>
+      <c r="AD142" s="12"/>
+      <c r="AE142" s="12"/>
+      <c r="AF142" s="12"/>
+      <c r="AG142" s="12"/>
+      <c r="AH142" s="12"/>
+      <c r="AI142" s="12"/>
+      <c r="AJ142" s="12"/>
+      <c r="AK142" s="12"/>
+      <c r="AL142" s="12"/>
+      <c r="AM142" s="12"/>
+      <c r="AN142" s="12"/>
+      <c r="AO142" s="12"/>
+      <c r="AP142" s="12"/>
+      <c r="AQ142" s="12"/>
+      <c r="AR142" s="12"/>
+      <c r="AS142" s="12"/>
+      <c r="AT142" s="5"/>
+    </row>
+    <row r="143" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="5"/>
+      <c r="AC143" s="4"/>
+      <c r="AD143" s="12"/>
+      <c r="AE143" s="12"/>
+      <c r="AF143" s="12"/>
+      <c r="AG143" s="12"/>
+      <c r="AH143" s="12"/>
+      <c r="AI143" s="12"/>
+      <c r="AJ143" s="12"/>
+      <c r="AK143" s="12"/>
+      <c r="AL143" s="12"/>
+      <c r="AM143" s="12"/>
+      <c r="AN143" s="12"/>
+      <c r="AO143" s="12"/>
+      <c r="AP143" s="12"/>
+      <c r="AQ143" s="12"/>
+      <c r="AR143" s="12"/>
+      <c r="AS143" s="12"/>
+      <c r="AT143" s="5"/>
+    </row>
+    <row r="144" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="5"/>
+      <c r="AC144" s="4"/>
+      <c r="AD144" s="12"/>
+      <c r="AE144" s="12"/>
+      <c r="AF144" s="12"/>
+      <c r="AG144" s="12"/>
+      <c r="AH144" s="12"/>
+      <c r="AI144" s="12"/>
+      <c r="AJ144" s="12"/>
+      <c r="AK144" s="12"/>
+      <c r="AL144" s="12"/>
+      <c r="AM144" s="12"/>
+      <c r="AN144" s="12"/>
+      <c r="AO144" s="12"/>
+      <c r="AP144" s="12"/>
+      <c r="AQ144" s="12"/>
+      <c r="AR144" s="12"/>
+      <c r="AS144" s="12"/>
+      <c r="AT144" s="5"/>
+    </row>
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="5"/>
+      <c r="AC145" s="4"/>
+      <c r="AD145" s="12"/>
+      <c r="AE145" s="12"/>
+      <c r="AF145" s="12"/>
+      <c r="AG145" s="12"/>
+      <c r="AH145" s="12"/>
+      <c r="AI145" s="12"/>
+      <c r="AJ145" s="12"/>
+      <c r="AK145" s="12"/>
+      <c r="AL145" s="12"/>
+      <c r="AM145" s="12"/>
+      <c r="AN145" s="12"/>
+      <c r="AO145" s="12"/>
+      <c r="AP145" s="12"/>
+      <c r="AQ145" s="12"/>
+      <c r="AR145" s="12"/>
+      <c r="AS145" s="12"/>
+      <c r="AT145" s="5"/>
+    </row>
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="5"/>
+      <c r="AC146" s="4"/>
+      <c r="AD146" s="12"/>
+      <c r="AE146" s="12"/>
+      <c r="AF146" s="12"/>
+      <c r="AG146" s="12"/>
+      <c r="AH146" s="12"/>
+      <c r="AI146" s="12"/>
+      <c r="AJ146" s="12"/>
+      <c r="AK146" s="12"/>
+      <c r="AL146" s="12"/>
+      <c r="AM146" s="12"/>
+      <c r="AN146" s="12"/>
+      <c r="AO146" s="12"/>
+      <c r="AP146" s="12"/>
+      <c r="AQ146" s="12"/>
+      <c r="AR146" s="12"/>
+      <c r="AS146" s="12"/>
+      <c r="AT146" s="5"/>
+    </row>
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="5"/>
+      <c r="AC147" s="4"/>
+      <c r="AD147" s="12"/>
+      <c r="AE147" s="12"/>
+      <c r="AF147" s="12"/>
+      <c r="AG147" s="12"/>
+      <c r="AH147" s="12"/>
+      <c r="AI147" s="12"/>
+      <c r="AJ147" s="12"/>
+      <c r="AK147" s="12"/>
+      <c r="AL147" s="12"/>
+      <c r="AM147" s="12"/>
+      <c r="AN147" s="12"/>
+      <c r="AO147" s="12"/>
+      <c r="AP147" s="12"/>
+      <c r="AQ147" s="12"/>
+      <c r="AR147" s="12"/>
+      <c r="AS147" s="12"/>
+      <c r="AT147" s="5"/>
+    </row>
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="5"/>
+      <c r="AC148" s="4"/>
+      <c r="AD148" s="12"/>
+      <c r="AE148" s="12"/>
+      <c r="AF148" s="12"/>
+      <c r="AG148" s="12"/>
+      <c r="AH148" s="12"/>
+      <c r="AI148" s="12"/>
+      <c r="AJ148" s="12"/>
+      <c r="AK148" s="12"/>
+      <c r="AL148" s="12"/>
+      <c r="AM148" s="12"/>
+      <c r="AN148" s="12"/>
+      <c r="AO148" s="12"/>
+      <c r="AP148" s="12"/>
+      <c r="AQ148" s="12"/>
+      <c r="AR148" s="12"/>
+      <c r="AS148" s="12"/>
+      <c r="AT148" s="5"/>
+    </row>
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="5"/>
+      <c r="J149" t="s">
+        <v>4</v>
+      </c>
+      <c r="K149" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC149" s="4"/>
+      <c r="AD149" s="12"/>
+      <c r="AE149" s="12"/>
+      <c r="AF149" s="12"/>
+      <c r="AG149" s="12"/>
+      <c r="AH149" s="12"/>
+      <c r="AI149" s="12"/>
+      <c r="AJ149" s="12"/>
+      <c r="AK149" s="12"/>
+      <c r="AL149" s="12"/>
+      <c r="AM149" s="12"/>
+      <c r="AN149" s="12"/>
+      <c r="AO149" s="12"/>
+      <c r="AP149" s="12"/>
+      <c r="AQ149" s="12"/>
+      <c r="AR149" s="12"/>
+      <c r="AS149" s="12"/>
+      <c r="AT149" s="5"/>
+    </row>
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="5"/>
+      <c r="AC150" s="4"/>
+      <c r="AD150" s="12"/>
+      <c r="AE150" s="12"/>
+      <c r="AF150" s="12"/>
+      <c r="AG150" s="12"/>
+      <c r="AH150" s="12"/>
+      <c r="AI150" s="12"/>
+      <c r="AJ150" s="12"/>
+      <c r="AK150" s="12"/>
+      <c r="AL150" s="12"/>
+      <c r="AM150" s="12"/>
+      <c r="AN150" s="12"/>
+      <c r="AO150" s="12"/>
+      <c r="AP150" s="12"/>
+      <c r="AQ150" s="12"/>
+      <c r="AR150" s="12"/>
+      <c r="AS150" s="12"/>
+      <c r="AT150" s="5"/>
+    </row>
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="5"/>
+      <c r="AC151" s="4"/>
+      <c r="AD151" s="12"/>
+      <c r="AE151" s="12"/>
+      <c r="AF151" s="12"/>
+      <c r="AG151" s="12"/>
+      <c r="AH151" s="12"/>
+      <c r="AI151" s="12"/>
+      <c r="AJ151" s="12"/>
+      <c r="AK151" s="12"/>
+      <c r="AL151" s="12"/>
+      <c r="AM151" s="12"/>
+      <c r="AN151" s="12"/>
+      <c r="AO151" s="12"/>
+      <c r="AP151" s="12"/>
+      <c r="AQ151" s="12"/>
+      <c r="AR151" s="12"/>
+      <c r="AS151" s="12"/>
+      <c r="AT151" s="5"/>
+    </row>
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="5"/>
+      <c r="J152" t="s">
+        <v>4</v>
+      </c>
+      <c r="K152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC152" s="4"/>
+      <c r="AD152" s="12"/>
+      <c r="AE152" s="12"/>
+      <c r="AF152" s="12"/>
+      <c r="AG152" s="12"/>
+      <c r="AH152" s="12"/>
+      <c r="AI152" s="12"/>
+      <c r="AJ152" s="12"/>
+      <c r="AK152" s="12"/>
+      <c r="AL152" s="12"/>
+      <c r="AM152" s="12"/>
+      <c r="AN152" s="12"/>
+      <c r="AO152" s="12"/>
+      <c r="AP152" s="12"/>
+      <c r="AQ152" s="12"/>
+      <c r="AR152" s="12"/>
+      <c r="AS152" s="12"/>
+      <c r="AT152" s="5"/>
+    </row>
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="5"/>
+      <c r="AC153" s="4"/>
+      <c r="AD153" s="12"/>
+      <c r="AE153" s="12"/>
+      <c r="AF153" s="12"/>
+      <c r="AG153" s="12"/>
+      <c r="AH153" s="12"/>
+      <c r="AI153" s="12"/>
+      <c r="AJ153" s="12"/>
+      <c r="AK153" s="12"/>
+      <c r="AL153" s="12"/>
+      <c r="AM153" s="12"/>
+      <c r="AN153" s="12"/>
+      <c r="AO153" s="12"/>
+      <c r="AP153" s="12"/>
+      <c r="AQ153" s="12"/>
+      <c r="AR153" s="12"/>
+      <c r="AS153" s="12"/>
+      <c r="AT153" s="5"/>
+    </row>
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="5"/>
+      <c r="AC154" s="4"/>
+      <c r="AD154" s="12"/>
+      <c r="AE154" s="12"/>
+      <c r="AF154" s="12"/>
+      <c r="AG154" s="12"/>
+      <c r="AH154" s="12"/>
+      <c r="AI154" s="12"/>
+      <c r="AJ154" s="12"/>
+      <c r="AK154" s="12"/>
+      <c r="AL154" s="12"/>
+      <c r="AM154" s="12"/>
+      <c r="AN154" s="12"/>
+      <c r="AO154" s="12"/>
+      <c r="AP154" s="12"/>
+      <c r="AQ154" s="12"/>
+      <c r="AR154" s="12"/>
+      <c r="AS154" s="12"/>
+      <c r="AT154" s="5"/>
+    </row>
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="5"/>
+      <c r="AC155" s="4"/>
+      <c r="AD155" s="12"/>
+      <c r="AE155" s="12"/>
+      <c r="AF155" s="12"/>
+      <c r="AG155" s="12"/>
+      <c r="AH155" s="12"/>
+      <c r="AI155" s="12"/>
+      <c r="AJ155" s="12"/>
+      <c r="AK155" s="12"/>
+      <c r="AL155" s="12"/>
+      <c r="AM155" s="12"/>
+      <c r="AN155" s="12"/>
+      <c r="AO155" s="12"/>
+      <c r="AP155" s="12"/>
+      <c r="AQ155" s="12"/>
+      <c r="AR155" s="12"/>
+      <c r="AS155" s="12"/>
+      <c r="AT155" s="5"/>
+    </row>
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B156" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="10"/>
+      <c r="AC156" s="4"/>
+      <c r="AD156" s="12"/>
+      <c r="AE156" s="12"/>
+      <c r="AF156" s="12"/>
+      <c r="AG156" s="12"/>
+      <c r="AH156" s="12"/>
+      <c r="AI156" s="12"/>
+      <c r="AJ156" s="12"/>
+      <c r="AK156" s="12"/>
+      <c r="AL156" s="12"/>
+      <c r="AM156" s="12"/>
+      <c r="AN156" s="12"/>
+      <c r="AO156" s="12"/>
+      <c r="AP156" s="12"/>
+      <c r="AQ156" s="12"/>
+      <c r="AR156" s="12"/>
+      <c r="AS156" s="12"/>
+      <c r="AT156" s="5"/>
+    </row>
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AC157" s="4"/>
+      <c r="AD157" s="12"/>
+      <c r="AE157" s="12"/>
+      <c r="AF157" s="12"/>
+      <c r="AG157" s="12"/>
+      <c r="AH157" s="12"/>
+      <c r="AI157" s="12"/>
+      <c r="AJ157" s="12"/>
+      <c r="AK157" s="12"/>
+      <c r="AL157" s="12"/>
+      <c r="AM157" s="12"/>
+      <c r="AN157" s="12"/>
+      <c r="AO157" s="12"/>
+      <c r="AP157" s="12"/>
+      <c r="AQ157" s="12"/>
+      <c r="AR157" s="12"/>
+      <c r="AS157" s="12"/>
+      <c r="AT157" s="5"/>
+    </row>
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AC158" s="4"/>
+      <c r="AD158" s="12"/>
+      <c r="AE158" s="12"/>
+      <c r="AF158" s="12"/>
+      <c r="AG158" s="12"/>
+      <c r="AH158" s="12"/>
+      <c r="AI158" s="12"/>
+      <c r="AJ158" s="12"/>
+      <c r="AK158" s="12"/>
+      <c r="AL158" s="12"/>
+      <c r="AM158" s="12"/>
+      <c r="AN158" s="12"/>
+      <c r="AO158" s="12"/>
+      <c r="AP158" s="12"/>
+      <c r="AQ158" s="12"/>
+      <c r="AR158" s="12"/>
+      <c r="AS158" s="12"/>
+      <c r="AT158" s="5"/>
+    </row>
+    <row r="159" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC159" s="4"/>
+      <c r="AD159" s="12"/>
+      <c r="AE159" s="12"/>
+      <c r="AF159" s="12"/>
+      <c r="AG159" s="12"/>
+      <c r="AH159" s="12"/>
+      <c r="AI159" s="12"/>
+      <c r="AJ159" s="12"/>
+      <c r="AK159" s="12"/>
+      <c r="AL159" s="12"/>
+      <c r="AM159" s="12"/>
+      <c r="AN159" s="12"/>
+      <c r="AO159" s="12"/>
+      <c r="AP159" s="12"/>
+      <c r="AQ159" s="12"/>
+      <c r="AR159" s="12"/>
+      <c r="AS159" s="12"/>
+      <c r="AT159" s="5"/>
+    </row>
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A160" s="21"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22"/>
+      <c r="J160" s="22"/>
+      <c r="K160" s="22"/>
+      <c r="L160" s="22"/>
+      <c r="M160" s="22"/>
+      <c r="N160" s="22"/>
+      <c r="O160" s="22"/>
+      <c r="P160" s="22"/>
+      <c r="Q160" s="22"/>
+      <c r="R160" s="22"/>
+      <c r="S160" s="22"/>
+      <c r="T160" s="22"/>
+      <c r="U160" s="23"/>
+      <c r="AC160" s="4"/>
+      <c r="AD160" s="12"/>
+      <c r="AE160" s="12"/>
+      <c r="AF160" s="12"/>
+      <c r="AG160" s="12"/>
+      <c r="AH160" s="12"/>
+      <c r="AI160" s="12"/>
+      <c r="AJ160" s="12"/>
+      <c r="AK160" s="12"/>
+      <c r="AL160" s="12"/>
+      <c r="AM160" s="12"/>
+      <c r="AN160" s="12"/>
+      <c r="AO160" s="12"/>
+      <c r="AP160" s="12"/>
+      <c r="AQ160" s="12"/>
+      <c r="AR160" s="12"/>
+      <c r="AS160" s="12"/>
+      <c r="AT160" s="5"/>
+    </row>
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A161" s="24"/>
+      <c r="B161" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+      <c r="S161" s="2"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="25"/>
+      <c r="AC161" s="4"/>
+      <c r="AD161" s="12"/>
+      <c r="AE161" s="12"/>
+      <c r="AF161" s="12"/>
+      <c r="AG161" s="12"/>
+      <c r="AH161" s="12"/>
+      <c r="AI161" s="12"/>
+      <c r="AJ161" s="12"/>
+      <c r="AK161" s="12"/>
+      <c r="AL161" s="12"/>
+      <c r="AM161" s="12"/>
+      <c r="AN161" s="12"/>
+      <c r="AO161" s="12"/>
+      <c r="AP161" s="12"/>
+      <c r="AQ161" s="12"/>
+      <c r="AR161" s="12"/>
+      <c r="AS161" s="12"/>
+      <c r="AT161" s="5"/>
+    </row>
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A162" s="24"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="12"/>
+      <c r="R162" s="12"/>
+      <c r="S162" s="12"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="25"/>
+      <c r="AC162" s="4"/>
+      <c r="AD162" s="12"/>
+      <c r="AE162" s="12"/>
+      <c r="AF162" s="12"/>
+      <c r="AG162" s="12"/>
+      <c r="AH162" s="12"/>
+      <c r="AI162" s="12"/>
+      <c r="AJ162" s="12"/>
+      <c r="AK162" s="12"/>
+      <c r="AL162" s="12"/>
+      <c r="AM162" s="12"/>
+      <c r="AN162" s="12"/>
+      <c r="AO162" s="12"/>
+      <c r="AP162" s="12"/>
+      <c r="AQ162" s="12"/>
+      <c r="AR162" s="12"/>
+      <c r="AS162" s="12"/>
+      <c r="AT162" s="5"/>
+    </row>
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A163" s="24"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
+      <c r="P163" s="12"/>
+      <c r="Q163" s="12"/>
+      <c r="R163" s="12"/>
+      <c r="S163" s="12"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="25"/>
+      <c r="AC163" s="4"/>
+      <c r="AD163" s="12"/>
+      <c r="AE163" s="12"/>
+      <c r="AF163" s="12"/>
+      <c r="AG163" s="12"/>
+      <c r="AH163" s="12"/>
+      <c r="AI163" s="12"/>
+      <c r="AJ163" s="12"/>
+      <c r="AK163" s="12"/>
+      <c r="AL163" s="12"/>
+      <c r="AM163" s="12"/>
+      <c r="AN163" s="12"/>
+      <c r="AO163" s="12"/>
+      <c r="AP163" s="12"/>
+      <c r="AQ163" s="12"/>
+      <c r="AR163" s="12"/>
+      <c r="AS163" s="12"/>
+      <c r="AT163" s="5"/>
+    </row>
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A164" s="24"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="12"/>
+      <c r="Q164" s="12"/>
+      <c r="R164" s="12"/>
+      <c r="S164" s="12"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="25"/>
+      <c r="AC164" s="4"/>
+      <c r="AD164" s="12"/>
+      <c r="AE164" s="12"/>
+      <c r="AF164" s="12"/>
+      <c r="AG164" s="12"/>
+      <c r="AH164" s="12"/>
+      <c r="AI164" s="12"/>
+      <c r="AJ164" s="12"/>
+      <c r="AK164" s="12"/>
+      <c r="AL164" s="12"/>
+      <c r="AM164" s="12"/>
+      <c r="AN164" s="12"/>
+      <c r="AO164" s="12"/>
+      <c r="AP164" s="12"/>
+      <c r="AQ164" s="12"/>
+      <c r="AR164" s="12"/>
+      <c r="AS164" s="12"/>
+      <c r="AT164" s="5"/>
+    </row>
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A165" s="24"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="12"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="25"/>
+      <c r="AC165" s="4"/>
+      <c r="AD165" s="12"/>
+      <c r="AE165" s="12"/>
+      <c r="AF165" s="12"/>
+      <c r="AG165" s="12"/>
+      <c r="AH165" s="12"/>
+      <c r="AI165" s="12"/>
+      <c r="AJ165" s="12"/>
+      <c r="AK165" s="12"/>
+      <c r="AL165" s="12"/>
+      <c r="AM165" s="12"/>
+      <c r="AN165" s="12"/>
+      <c r="AO165" s="12"/>
+      <c r="AP165" s="12"/>
+      <c r="AQ165" s="12"/>
+      <c r="AR165" s="12"/>
+      <c r="AS165" s="12"/>
+      <c r="AT165" s="5"/>
+    </row>
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A166" s="24"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="25"/>
+      <c r="AC166" s="4"/>
+      <c r="AD166" s="12"/>
+      <c r="AE166" s="12"/>
+      <c r="AF166" s="12"/>
+      <c r="AG166" s="12"/>
+      <c r="AH166" s="12"/>
+      <c r="AI166" s="12"/>
+      <c r="AJ166" s="12"/>
+      <c r="AK166" s="12"/>
+      <c r="AL166" s="12"/>
+      <c r="AM166" s="12"/>
+      <c r="AN166" s="12"/>
+      <c r="AO166" s="12"/>
+      <c r="AP166" s="12"/>
+      <c r="AQ166" s="12"/>
+      <c r="AR166" s="12"/>
+      <c r="AS166" s="12"/>
+      <c r="AT166" s="5"/>
+    </row>
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A167" s="24"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="12"/>
+      <c r="P167" s="12"/>
+      <c r="Q167" s="12"/>
+      <c r="R167" s="12"/>
+      <c r="S167" s="12"/>
+      <c r="T167" s="5"/>
+      <c r="U167" s="25"/>
+      <c r="AC167" s="4"/>
+      <c r="AD167" s="12"/>
+      <c r="AE167" s="12"/>
+      <c r="AF167" s="12"/>
+      <c r="AG167" s="12"/>
+      <c r="AH167" s="12"/>
+      <c r="AI167" s="12"/>
+      <c r="AJ167" s="12"/>
+      <c r="AK167" s="12"/>
+      <c r="AL167" s="12"/>
+      <c r="AM167" s="12"/>
+      <c r="AN167" s="12"/>
+      <c r="AO167" s="12"/>
+      <c r="AP167" s="12"/>
+      <c r="AQ167" s="12"/>
+      <c r="AR167" s="12"/>
+      <c r="AS167" s="12"/>
+      <c r="AT167" s="5"/>
+    </row>
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A168" s="24"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="12"/>
+      <c r="S168" s="12"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="25"/>
+      <c r="AC168" s="4"/>
+      <c r="AD168" s="12"/>
+      <c r="AE168" s="12"/>
+      <c r="AF168" s="12"/>
+      <c r="AG168" s="12"/>
+      <c r="AH168" s="12"/>
+      <c r="AI168" s="12"/>
+      <c r="AJ168" s="12"/>
+      <c r="AK168" s="12"/>
+      <c r="AL168" s="12"/>
+      <c r="AM168" s="12"/>
+      <c r="AN168" s="12"/>
+      <c r="AO168" s="12"/>
+      <c r="AP168" s="12"/>
+      <c r="AQ168" s="12"/>
+      <c r="AR168" s="12"/>
+      <c r="AS168" s="12"/>
+      <c r="AT168" s="5"/>
+    </row>
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A169" s="24"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="12"/>
+      <c r="S169" s="12"/>
+      <c r="T169" s="5"/>
+      <c r="U169" s="25"/>
+      <c r="AC169" s="4"/>
+      <c r="AD169" s="12"/>
+      <c r="AE169" s="12"/>
+      <c r="AF169" s="12"/>
+      <c r="AG169" s="12"/>
+      <c r="AH169" s="12"/>
+      <c r="AI169" s="12"/>
+      <c r="AJ169" s="12"/>
+      <c r="AK169" s="12"/>
+      <c r="AL169" s="12"/>
+      <c r="AM169" s="12"/>
+      <c r="AN169" s="12"/>
+      <c r="AO169" s="12"/>
+      <c r="AP169" s="12"/>
+      <c r="AQ169" s="12"/>
+      <c r="AR169" s="12"/>
+      <c r="AS169" s="12"/>
+      <c r="AT169" s="5"/>
+    </row>
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A170" s="24"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
+      <c r="S170" s="12"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="25"/>
+      <c r="AC170" s="4"/>
+      <c r="AD170" s="12"/>
+      <c r="AE170" s="12"/>
+      <c r="AF170" s="12"/>
+      <c r="AG170" s="12"/>
+      <c r="AH170" s="12"/>
+      <c r="AI170" s="12"/>
+      <c r="AJ170" s="12"/>
+      <c r="AK170" s="12"/>
+      <c r="AL170" s="12"/>
+      <c r="AM170" s="12"/>
+      <c r="AN170" s="12"/>
+      <c r="AO170" s="12"/>
+      <c r="AP170" s="12"/>
+      <c r="AQ170" s="12"/>
+      <c r="AR170" s="12"/>
+      <c r="AS170" s="12"/>
+      <c r="AT170" s="5"/>
+    </row>
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A171" s="24"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="12"/>
+      <c r="S171" s="12"/>
+      <c r="T171" s="5"/>
+      <c r="U171" s="25"/>
+      <c r="AC171" s="4"/>
+      <c r="AD171" s="12"/>
+      <c r="AE171" s="12"/>
+      <c r="AF171" s="12"/>
+      <c r="AG171" s="12"/>
+      <c r="AH171" s="12"/>
+      <c r="AI171" s="12"/>
+      <c r="AJ171" s="12"/>
+      <c r="AK171" s="12"/>
+      <c r="AL171" s="12"/>
+      <c r="AM171" s="12"/>
+      <c r="AN171" s="12"/>
+      <c r="AO171" s="12"/>
+      <c r="AP171" s="12"/>
+      <c r="AQ171" s="12"/>
+      <c r="AR171" s="12"/>
+      <c r="AS171" s="12"/>
+      <c r="AT171" s="5"/>
+    </row>
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A172" s="24"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="12"/>
+      <c r="S172" s="12"/>
+      <c r="T172" s="5"/>
+      <c r="U172" s="25"/>
+      <c r="AC172" s="4"/>
+      <c r="AD172" s="12"/>
+      <c r="AE172" s="12"/>
+      <c r="AF172" s="12"/>
+      <c r="AG172" s="12"/>
+      <c r="AH172" s="12"/>
+      <c r="AI172" s="12"/>
+      <c r="AJ172" s="12"/>
+      <c r="AK172" s="12"/>
+      <c r="AL172" s="12"/>
+      <c r="AM172" s="12"/>
+      <c r="AN172" s="12"/>
+      <c r="AO172" s="12"/>
+      <c r="AP172" s="12"/>
+      <c r="AQ172" s="12"/>
+      <c r="AR172" s="12"/>
+      <c r="AS172" s="12"/>
+      <c r="AT172" s="5"/>
+    </row>
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A173" s="24"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+      <c r="O173" s="12"/>
+      <c r="P173" s="12"/>
+      <c r="Q173" s="12"/>
+      <c r="R173" s="12"/>
+      <c r="S173" s="12"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="25"/>
+      <c r="AC173" s="4"/>
+      <c r="AD173" s="12"/>
+      <c r="AE173" s="12"/>
+      <c r="AF173" s="12"/>
+      <c r="AG173" s="12"/>
+      <c r="AH173" s="12"/>
+      <c r="AI173" s="12"/>
+      <c r="AJ173" s="12"/>
+      <c r="AK173" s="12"/>
+      <c r="AL173" s="12"/>
+      <c r="AM173" s="12"/>
+      <c r="AN173" s="12"/>
+      <c r="AO173" s="12"/>
+      <c r="AP173" s="12"/>
+      <c r="AQ173" s="12"/>
+      <c r="AR173" s="12"/>
+      <c r="AS173" s="12"/>
+      <c r="AT173" s="5"/>
+    </row>
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A174" s="24"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="12"/>
+      <c r="S174" s="12"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="25"/>
+      <c r="AC174" s="4"/>
+      <c r="AD174" s="12"/>
+      <c r="AE174" s="12"/>
+      <c r="AF174" s="12"/>
+      <c r="AG174" s="12"/>
+      <c r="AH174" s="12"/>
+      <c r="AI174" s="12"/>
+      <c r="AJ174" s="12"/>
+      <c r="AK174" s="12"/>
+      <c r="AL174" s="12"/>
+      <c r="AM174" s="12"/>
+      <c r="AN174" s="12"/>
+      <c r="AO174" s="12"/>
+      <c r="AP174" s="12"/>
+      <c r="AQ174" s="12"/>
+      <c r="AR174" s="12"/>
+      <c r="AS174" s="12"/>
+      <c r="AT174" s="5"/>
+    </row>
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A175" s="24"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="8"/>
+      <c r="N175" s="8"/>
+      <c r="O175" s="8"/>
+      <c r="P175" s="8"/>
+      <c r="Q175" s="8"/>
+      <c r="R175" s="8"/>
+      <c r="S175" s="8"/>
+      <c r="T175" s="10"/>
+      <c r="U175" s="25"/>
+      <c r="AC175" s="4"/>
+      <c r="AD175" s="12"/>
+      <c r="AE175" s="12"/>
+      <c r="AF175" s="12"/>
+      <c r="AG175" s="12"/>
+      <c r="AH175" s="12"/>
+      <c r="AI175" s="12"/>
+      <c r="AJ175" s="12"/>
+      <c r="AK175" s="12"/>
+      <c r="AL175" s="12"/>
+      <c r="AM175" s="12"/>
+      <c r="AN175" s="12"/>
+      <c r="AO175" s="12"/>
+      <c r="AP175" s="12"/>
+      <c r="AQ175" s="12"/>
+      <c r="AR175" s="12"/>
+      <c r="AS175" s="12"/>
+      <c r="AT175" s="5"/>
+    </row>
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A176" s="24"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="12"/>
+      <c r="Q176" s="12"/>
+      <c r="R176" s="12"/>
+      <c r="S176" s="12"/>
+      <c r="T176" s="12"/>
+      <c r="U176" s="25"/>
+      <c r="AC176" s="4"/>
+      <c r="AD176" s="12"/>
+      <c r="AE176" s="12"/>
+      <c r="AF176" s="12"/>
+      <c r="AG176" s="12"/>
+      <c r="AH176" s="12"/>
+      <c r="AI176" s="12"/>
+      <c r="AJ176" s="12"/>
+      <c r="AK176" s="12"/>
+      <c r="AL176" s="12"/>
+      <c r="AM176" s="12"/>
+      <c r="AN176" s="12"/>
+      <c r="AO176" s="12"/>
+      <c r="AP176" s="12"/>
+      <c r="AQ176" s="12"/>
+      <c r="AR176" s="12"/>
+      <c r="AS176" s="12"/>
+      <c r="AT176" s="5"/>
+    </row>
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A177" s="24"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="12"/>
+      <c r="Q177" s="12"/>
+      <c r="R177" s="12"/>
+      <c r="S177" s="12"/>
+      <c r="T177" s="12"/>
+      <c r="U177" s="25"/>
+      <c r="AC177" s="4"/>
+      <c r="AD177" s="12"/>
+      <c r="AE177" s="12"/>
+      <c r="AF177" s="12"/>
+      <c r="AG177" s="12"/>
+      <c r="AH177" s="12"/>
+      <c r="AI177" s="12"/>
+      <c r="AJ177" s="12"/>
+      <c r="AK177" s="12"/>
+      <c r="AL177" s="12"/>
+      <c r="AM177" s="12"/>
+      <c r="AN177" s="12"/>
+      <c r="AO177" s="12"/>
+      <c r="AP177" s="12"/>
+      <c r="AQ177" s="12"/>
+      <c r="AR177" s="12"/>
+      <c r="AS177" s="12"/>
+      <c r="AT177" s="5"/>
+    </row>
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A178" s="24"/>
+      <c r="B178" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="12"/>
+      <c r="P178" s="12"/>
+      <c r="Q178" s="12"/>
+      <c r="R178" s="12"/>
+      <c r="S178" s="12"/>
+      <c r="T178" s="12"/>
+      <c r="U178" s="25"/>
+      <c r="AC178" s="4"/>
+      <c r="AD178" s="12"/>
+      <c r="AE178" s="12"/>
+      <c r="AF178" s="12"/>
+      <c r="AG178" s="12"/>
+      <c r="AH178" s="12"/>
+      <c r="AI178" s="12"/>
+      <c r="AJ178" s="12"/>
+      <c r="AK178" s="12"/>
+      <c r="AL178" s="12"/>
+      <c r="AM178" s="12"/>
+      <c r="AN178" s="12"/>
+      <c r="AO178" s="12"/>
+      <c r="AP178" s="12"/>
+      <c r="AQ178" s="12"/>
+      <c r="AR178" s="12"/>
+      <c r="AS178" s="12"/>
+      <c r="AT178" s="5"/>
+    </row>
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A179" s="24"/>
+      <c r="B179" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
+      <c r="P179" s="12"/>
+      <c r="Q179" s="12"/>
+      <c r="R179" s="12"/>
+      <c r="S179" s="12"/>
+      <c r="T179" s="12"/>
+      <c r="U179" s="25"/>
+      <c r="AC179" s="4"/>
+      <c r="AD179" s="12"/>
+      <c r="AE179" s="12"/>
+      <c r="AF179" s="12"/>
+      <c r="AG179" s="12"/>
+      <c r="AH179" s="12"/>
+      <c r="AI179" s="12"/>
+      <c r="AJ179" s="12"/>
+      <c r="AK179" s="12"/>
+      <c r="AL179" s="12"/>
+      <c r="AM179" s="12"/>
+      <c r="AN179" s="12"/>
+      <c r="AO179" s="12"/>
+      <c r="AP179" s="12"/>
+      <c r="AQ179" s="12"/>
+      <c r="AR179" s="12"/>
+      <c r="AS179" s="12"/>
+      <c r="AT179" s="5"/>
+    </row>
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A180" s="24"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="12"/>
+      <c r="P180" s="12"/>
+      <c r="Q180" s="12"/>
+      <c r="R180" s="12"/>
+      <c r="S180" s="12"/>
+      <c r="T180" s="12"/>
+      <c r="U180" s="25"/>
+      <c r="AC180" s="4"/>
+      <c r="AD180" s="12"/>
+      <c r="AE180" s="12"/>
+      <c r="AF180" s="12"/>
+      <c r="AG180" s="12"/>
+      <c r="AH180" s="12"/>
+      <c r="AI180" s="12"/>
+      <c r="AJ180" s="12"/>
+      <c r="AK180" s="12"/>
+      <c r="AL180" s="12"/>
+      <c r="AM180" s="12"/>
+      <c r="AN180" s="12"/>
+      <c r="AO180" s="12"/>
+      <c r="AP180" s="12"/>
+      <c r="AQ180" s="12"/>
+      <c r="AR180" s="12"/>
+      <c r="AS180" s="12"/>
+      <c r="AT180" s="5"/>
+    </row>
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A181" s="24"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="12"/>
+      <c r="O181" s="12"/>
+      <c r="P181" s="12"/>
+      <c r="Q181" s="12"/>
+      <c r="R181" s="12"/>
+      <c r="S181" s="12"/>
+      <c r="T181" s="12"/>
+      <c r="U181" s="25"/>
+      <c r="AC181" s="4"/>
+      <c r="AD181" s="12"/>
+      <c r="AE181" s="12"/>
+      <c r="AF181" s="12"/>
+      <c r="AG181" s="12"/>
+      <c r="AH181" s="12"/>
+      <c r="AI181" s="12"/>
+      <c r="AJ181" s="12"/>
+      <c r="AK181" s="12"/>
+      <c r="AL181" s="12"/>
+      <c r="AM181" s="12"/>
+      <c r="AN181" s="12"/>
+      <c r="AO181" s="12"/>
+      <c r="AP181" s="12"/>
+      <c r="AQ181" s="12"/>
+      <c r="AR181" s="12"/>
+      <c r="AS181" s="12"/>
+      <c r="AT181" s="5"/>
+    </row>
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A182" s="24"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="12"/>
+      <c r="O182" s="12"/>
+      <c r="P182" s="12"/>
+      <c r="Q182" s="12"/>
+      <c r="R182" s="12"/>
+      <c r="S182" s="12"/>
+      <c r="T182" s="12"/>
+      <c r="U182" s="25"/>
+      <c r="AC182" s="4"/>
+      <c r="AD182" s="12"/>
+      <c r="AE182" s="12"/>
+      <c r="AF182" s="12"/>
+      <c r="AG182" s="12"/>
+      <c r="AH182" s="12"/>
+      <c r="AI182" s="12"/>
+      <c r="AJ182" s="12"/>
+      <c r="AK182" s="12"/>
+      <c r="AL182" s="12"/>
+      <c r="AM182" s="12"/>
+      <c r="AN182" s="12"/>
+      <c r="AO182" s="12"/>
+      <c r="AP182" s="12"/>
+      <c r="AQ182" s="12"/>
+      <c r="AR182" s="12"/>
+      <c r="AS182" s="12"/>
+      <c r="AT182" s="5"/>
+    </row>
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A183" s="24"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="12"/>
+      <c r="O183" s="12"/>
+      <c r="P183" s="12"/>
+      <c r="Q183" s="12"/>
+      <c r="R183" s="12"/>
+      <c r="S183" s="12"/>
+      <c r="T183" s="12"/>
+      <c r="U183" s="25"/>
+      <c r="AC183" s="4"/>
+      <c r="AD183" s="12"/>
+      <c r="AE183" s="12"/>
+      <c r="AF183" s="12"/>
+      <c r="AG183" s="12"/>
+      <c r="AH183" s="12"/>
+      <c r="AI183" s="12"/>
+      <c r="AJ183" s="12"/>
+      <c r="AK183" s="12"/>
+      <c r="AL183" s="12"/>
+      <c r="AM183" s="12"/>
+      <c r="AN183" s="12"/>
+      <c r="AO183" s="12"/>
+      <c r="AP183" s="12"/>
+      <c r="AQ183" s="12"/>
+      <c r="AR183" s="12"/>
+      <c r="AS183" s="12"/>
+      <c r="AT183" s="5"/>
+    </row>
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A184" s="24"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="12"/>
+      <c r="O184" s="12"/>
+      <c r="P184" s="12"/>
+      <c r="Q184" s="12"/>
+      <c r="R184" s="12"/>
+      <c r="S184" s="12"/>
+      <c r="T184" s="12"/>
+      <c r="U184" s="25"/>
+      <c r="AC184" s="4"/>
+      <c r="AD184" s="12"/>
+      <c r="AE184" s="12"/>
+      <c r="AF184" s="12"/>
+      <c r="AG184" s="12"/>
+      <c r="AH184" s="12"/>
+      <c r="AI184" s="12"/>
+      <c r="AJ184" s="12"/>
+      <c r="AK184" s="12"/>
+      <c r="AL184" s="12"/>
+      <c r="AM184" s="12"/>
+      <c r="AN184" s="12"/>
+      <c r="AO184" s="12"/>
+      <c r="AP184" s="12"/>
+      <c r="AQ184" s="12"/>
+      <c r="AR184" s="12"/>
+      <c r="AS184" s="12"/>
+      <c r="AT184" s="5"/>
+    </row>
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A185" s="24"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="12"/>
+      <c r="O185" s="12"/>
+      <c r="P185" s="12"/>
+      <c r="Q185" s="12"/>
+      <c r="R185" s="12"/>
+      <c r="S185" s="12"/>
+      <c r="T185" s="12"/>
+      <c r="U185" s="25"/>
+      <c r="AC185" s="4"/>
+      <c r="AD185" s="12"/>
+      <c r="AE185" s="12"/>
+      <c r="AF185" s="12"/>
+      <c r="AG185" s="12"/>
+      <c r="AH185" s="12"/>
+      <c r="AI185" s="12"/>
+      <c r="AJ185" s="12"/>
+      <c r="AK185" s="12"/>
+      <c r="AL185" s="12"/>
+      <c r="AM185" s="12"/>
+      <c r="AN185" s="12"/>
+      <c r="AO185" s="12"/>
+      <c r="AP185" s="12"/>
+      <c r="AQ185" s="12"/>
+      <c r="AR185" s="12"/>
+      <c r="AS185" s="12"/>
+      <c r="AT185" s="5"/>
+    </row>
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A186" s="24"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="12"/>
+      <c r="O186" s="12"/>
+      <c r="P186" s="12"/>
+      <c r="Q186" s="12"/>
+      <c r="R186" s="12"/>
+      <c r="S186" s="12"/>
+      <c r="T186" s="12"/>
+      <c r="U186" s="25"/>
+      <c r="AC186" s="4"/>
+      <c r="AD186" s="12"/>
+      <c r="AE186" s="12"/>
+      <c r="AF186" s="12"/>
+      <c r="AG186" s="12"/>
+      <c r="AH186" s="12"/>
+      <c r="AI186" s="12"/>
+      <c r="AJ186" s="12"/>
+      <c r="AK186" s="12"/>
+      <c r="AL186" s="12"/>
+      <c r="AM186" s="12"/>
+      <c r="AN186" s="12"/>
+      <c r="AO186" s="12"/>
+      <c r="AP186" s="12"/>
+      <c r="AQ186" s="12"/>
+      <c r="AR186" s="12"/>
+      <c r="AS186" s="12"/>
+      <c r="AT186" s="5"/>
+    </row>
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A187" s="24"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="5"/>
+      <c r="N187" s="12"/>
+      <c r="O187" s="12"/>
+      <c r="P187" s="12"/>
+      <c r="Q187" s="12"/>
+      <c r="R187" s="12"/>
+      <c r="S187" s="12"/>
+      <c r="T187" s="12"/>
+      <c r="U187" s="25"/>
+      <c r="AC187" s="4"/>
+      <c r="AD187" s="12"/>
+      <c r="AE187" s="12"/>
+      <c r="AF187" s="12"/>
+      <c r="AG187" s="12"/>
+      <c r="AH187" s="12"/>
+      <c r="AI187" s="12"/>
+      <c r="AJ187" s="12"/>
+      <c r="AK187" s="12"/>
+      <c r="AL187" s="12"/>
+      <c r="AM187" s="12"/>
+      <c r="AN187" s="12"/>
+      <c r="AO187" s="12"/>
+      <c r="AP187" s="12"/>
+      <c r="AQ187" s="12"/>
+      <c r="AR187" s="12"/>
+      <c r="AS187" s="12"/>
+      <c r="AT187" s="5"/>
+    </row>
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A188" s="24"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="5"/>
+      <c r="N188" s="12"/>
+      <c r="O188" s="12"/>
+      <c r="P188" s="12"/>
+      <c r="Q188" s="12"/>
+      <c r="R188" s="12"/>
+      <c r="S188" s="12"/>
+      <c r="T188" s="12"/>
+      <c r="U188" s="25"/>
+      <c r="AC188" s="4"/>
+      <c r="AD188" s="12"/>
+      <c r="AE188" s="12"/>
+      <c r="AF188" s="12"/>
+      <c r="AG188" s="12"/>
+      <c r="AH188" s="12"/>
+      <c r="AI188" s="12"/>
+      <c r="AJ188" s="12"/>
+      <c r="AK188" s="12"/>
+      <c r="AL188" s="12"/>
+      <c r="AM188" s="12"/>
+      <c r="AN188" s="12"/>
+      <c r="AO188" s="12"/>
+      <c r="AP188" s="12"/>
+      <c r="AQ188" s="12"/>
+      <c r="AR188" s="12"/>
+      <c r="AS188" s="12"/>
+      <c r="AT188" s="5"/>
+    </row>
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A189" s="24"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="12"/>
+      <c r="O189" s="12"/>
+      <c r="P189" s="12"/>
+      <c r="Q189" s="12"/>
+      <c r="R189" s="12"/>
+      <c r="S189" s="12"/>
+      <c r="T189" s="12"/>
+      <c r="U189" s="25"/>
+      <c r="AC189" s="4"/>
+      <c r="AD189" s="12"/>
+      <c r="AE189" s="12"/>
+      <c r="AF189" s="12"/>
+      <c r="AG189" s="12"/>
+      <c r="AH189" s="12"/>
+      <c r="AI189" s="12"/>
+      <c r="AJ189" s="12"/>
+      <c r="AK189" s="12"/>
+      <c r="AL189" s="12"/>
+      <c r="AM189" s="12"/>
+      <c r="AN189" s="12"/>
+      <c r="AO189" s="12"/>
+      <c r="AP189" s="12"/>
+      <c r="AQ189" s="12"/>
+      <c r="AR189" s="12"/>
+      <c r="AS189" s="12"/>
+      <c r="AT189" s="5"/>
+    </row>
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A190" s="24"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="12"/>
+      <c r="O190" s="12"/>
+      <c r="P190" s="12"/>
+      <c r="Q190" s="12"/>
+      <c r="R190" s="12"/>
+      <c r="S190" s="12"/>
+      <c r="T190" s="12"/>
+      <c r="U190" s="25"/>
+      <c r="AC190" s="4"/>
+      <c r="AD190" s="12"/>
+      <c r="AE190" s="12"/>
+      <c r="AF190" s="12"/>
+      <c r="AG190" s="12"/>
+      <c r="AH190" s="12"/>
+      <c r="AI190" s="12"/>
+      <c r="AJ190" s="12"/>
+      <c r="AK190" s="12"/>
+      <c r="AL190" s="12"/>
+      <c r="AM190" s="12"/>
+      <c r="AN190" s="12"/>
+      <c r="AO190" s="12"/>
+      <c r="AP190" s="12"/>
+      <c r="AQ190" s="12"/>
+      <c r="AR190" s="12"/>
+      <c r="AS190" s="12"/>
+      <c r="AT190" s="5"/>
+    </row>
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A191" s="24"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="12"/>
+      <c r="O191" s="12"/>
+      <c r="P191" s="12"/>
+      <c r="Q191" s="12"/>
+      <c r="R191" s="12"/>
+      <c r="S191" s="12"/>
+      <c r="T191" s="12"/>
+      <c r="U191" s="25"/>
+      <c r="AC191" s="4"/>
+      <c r="AD191" s="12"/>
+      <c r="AE191" s="12"/>
+      <c r="AF191" s="12"/>
+      <c r="AG191" s="12"/>
+      <c r="AH191" s="12"/>
+      <c r="AI191" s="12"/>
+      <c r="AJ191" s="12"/>
+      <c r="AK191" s="12"/>
+      <c r="AL191" s="12"/>
+      <c r="AM191" s="12"/>
+      <c r="AN191" s="12"/>
+      <c r="AO191" s="12"/>
+      <c r="AP191" s="12"/>
+      <c r="AQ191" s="12"/>
+      <c r="AR191" s="12"/>
+      <c r="AS191" s="12"/>
+      <c r="AT191" s="5"/>
+    </row>
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A192" s="24"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="12"/>
+      <c r="O192" s="12"/>
+      <c r="P192" s="12"/>
+      <c r="Q192" s="12"/>
+      <c r="R192" s="12"/>
+      <c r="S192" s="12"/>
+      <c r="T192" s="12"/>
+      <c r="U192" s="25"/>
+      <c r="AC192" s="4"/>
+      <c r="AD192" s="12"/>
+      <c r="AE192" s="12"/>
+      <c r="AF192" s="12"/>
+      <c r="AG192" s="12"/>
+      <c r="AH192" s="12"/>
+      <c r="AI192" s="12"/>
+      <c r="AJ192" s="12"/>
+      <c r="AK192" s="12"/>
+      <c r="AL192" s="12"/>
+      <c r="AM192" s="12"/>
+      <c r="AN192" s="12"/>
+      <c r="AO192" s="12"/>
+      <c r="AP192" s="12"/>
+      <c r="AQ192" s="12"/>
+      <c r="AR192" s="12"/>
+      <c r="AS192" s="12"/>
+      <c r="AT192" s="5"/>
+    </row>
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A193" s="24"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="5"/>
+      <c r="N193" s="12"/>
+      <c r="O193" s="12"/>
+      <c r="P193" s="12"/>
+      <c r="Q193" s="12"/>
+      <c r="R193" s="12"/>
+      <c r="S193" s="12"/>
+      <c r="T193" s="12"/>
+      <c r="U193" s="25"/>
+      <c r="AC193" s="4"/>
+      <c r="AD193" s="12"/>
+      <c r="AE193" s="12"/>
+      <c r="AF193" s="12"/>
+      <c r="AG193" s="12"/>
+      <c r="AH193" s="12"/>
+      <c r="AI193" s="12"/>
+      <c r="AJ193" s="12"/>
+      <c r="AK193" s="12"/>
+      <c r="AL193" s="12"/>
+      <c r="AM193" s="12"/>
+      <c r="AN193" s="12"/>
+      <c r="AO193" s="12"/>
+      <c r="AP193" s="12"/>
+      <c r="AQ193" s="12"/>
+      <c r="AR193" s="12"/>
+      <c r="AS193" s="12"/>
+      <c r="AT193" s="5"/>
+    </row>
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A194" s="24"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="12"/>
+      <c r="O194" s="12"/>
+      <c r="P194" s="12"/>
+      <c r="Q194" s="12"/>
+      <c r="R194" s="12"/>
+      <c r="S194" s="12"/>
+      <c r="T194" s="12"/>
+      <c r="U194" s="25"/>
+      <c r="AC194" s="4"/>
+      <c r="AD194" s="12"/>
+      <c r="AE194" s="12"/>
+      <c r="AF194" s="12"/>
+      <c r="AG194" s="12"/>
+      <c r="AH194" s="12"/>
+      <c r="AI194" s="12"/>
+      <c r="AJ194" s="12"/>
+      <c r="AK194" s="12"/>
+      <c r="AL194" s="12"/>
+      <c r="AM194" s="12"/>
+      <c r="AN194" s="12"/>
+      <c r="AO194" s="12"/>
+      <c r="AP194" s="12"/>
+      <c r="AQ194" s="12"/>
+      <c r="AR194" s="12"/>
+      <c r="AS194" s="12"/>
+      <c r="AT194" s="5"/>
+    </row>
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A195" s="24"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="12"/>
+      <c r="P195" s="12"/>
+      <c r="Q195" s="12"/>
+      <c r="R195" s="12"/>
+      <c r="S195" s="12"/>
+      <c r="T195" s="12"/>
+      <c r="U195" s="25"/>
+      <c r="AC195" s="4"/>
+      <c r="AD195" s="12"/>
+      <c r="AE195" s="12"/>
+      <c r="AF195" s="12"/>
+      <c r="AG195" s="12"/>
+      <c r="AH195" s="12"/>
+      <c r="AI195" s="12"/>
+      <c r="AJ195" s="12"/>
+      <c r="AK195" s="12"/>
+      <c r="AL195" s="12"/>
+      <c r="AM195" s="12"/>
+      <c r="AN195" s="12"/>
+      <c r="AO195" s="12"/>
+      <c r="AP195" s="12"/>
+      <c r="AQ195" s="12"/>
+      <c r="AR195" s="12"/>
+      <c r="AS195" s="12"/>
+      <c r="AT195" s="5"/>
+    </row>
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A196" s="24"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="12"/>
+      <c r="S196" s="12"/>
+      <c r="T196" s="12"/>
+      <c r="U196" s="25"/>
+      <c r="AC196" s="4"/>
+      <c r="AD196" s="12"/>
+      <c r="AE196" s="12"/>
+      <c r="AF196" s="12"/>
+      <c r="AG196" s="12"/>
+      <c r="AH196" s="12"/>
+      <c r="AI196" s="12"/>
+      <c r="AJ196" s="12"/>
+      <c r="AK196" s="12"/>
+      <c r="AL196" s="12"/>
+      <c r="AM196" s="12"/>
+      <c r="AN196" s="12"/>
+      <c r="AO196" s="12"/>
+      <c r="AP196" s="12"/>
+      <c r="AQ196" s="12"/>
+      <c r="AR196" s="12"/>
+      <c r="AS196" s="12"/>
+      <c r="AT196" s="5"/>
+    </row>
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A197" s="24"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="12"/>
+      <c r="O197" s="12"/>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="12"/>
+      <c r="R197" s="12"/>
+      <c r="S197" s="12"/>
+      <c r="T197" s="12"/>
+      <c r="U197" s="25"/>
+      <c r="AC197" s="4"/>
+      <c r="AD197" s="12"/>
+      <c r="AE197" s="12"/>
+      <c r="AF197" s="12"/>
+      <c r="AG197" s="12"/>
+      <c r="AH197" s="12"/>
+      <c r="AI197" s="12"/>
+      <c r="AJ197" s="12"/>
+      <c r="AK197" s="12"/>
+      <c r="AL197" s="12"/>
+      <c r="AM197" s="12"/>
+      <c r="AN197" s="12"/>
+      <c r="AO197" s="12"/>
+      <c r="AP197" s="12"/>
+      <c r="AQ197" s="12"/>
+      <c r="AR197" s="12"/>
+      <c r="AS197" s="12"/>
+      <c r="AT197" s="5"/>
+    </row>
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A198" s="24"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="5"/>
+      <c r="N198" s="12"/>
+      <c r="O198" s="12"/>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="12"/>
+      <c r="R198" s="12"/>
+      <c r="S198" s="12"/>
+      <c r="T198" s="12"/>
+      <c r="U198" s="25"/>
+      <c r="AC198" s="4"/>
+      <c r="AD198" s="12"/>
+      <c r="AE198" s="12"/>
+      <c r="AF198" s="12"/>
+      <c r="AG198" s="12"/>
+      <c r="AH198" s="12"/>
+      <c r="AI198" s="12"/>
+      <c r="AJ198" s="12"/>
+      <c r="AK198" s="12"/>
+      <c r="AL198" s="12"/>
+      <c r="AM198" s="12"/>
+      <c r="AN198" s="12"/>
+      <c r="AO198" s="12"/>
+      <c r="AP198" s="12"/>
+      <c r="AQ198" s="12"/>
+      <c r="AR198" s="12"/>
+      <c r="AS198" s="12"/>
+      <c r="AT198" s="5"/>
+    </row>
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A199" s="24"/>
+      <c r="B199" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="5"/>
+      <c r="N199" s="12"/>
+      <c r="O199" s="12"/>
+      <c r="P199" s="12"/>
+      <c r="Q199" s="12"/>
+      <c r="R199" s="12"/>
+      <c r="S199" s="12"/>
+      <c r="T199" s="12"/>
+      <c r="U199" s="25"/>
+      <c r="AC199" s="4"/>
+      <c r="AD199" s="12"/>
+      <c r="AE199" s="12"/>
+      <c r="AF199" s="12"/>
+      <c r="AG199" s="12"/>
+      <c r="AH199" s="12"/>
+      <c r="AI199" s="12"/>
+      <c r="AJ199" s="12"/>
+      <c r="AK199" s="12"/>
+      <c r="AL199" s="12"/>
+      <c r="AM199" s="12"/>
+      <c r="AN199" s="12"/>
+      <c r="AO199" s="12"/>
+      <c r="AP199" s="12"/>
+      <c r="AQ199" s="12"/>
+      <c r="AR199" s="12"/>
+      <c r="AS199" s="12"/>
+      <c r="AT199" s="5"/>
+    </row>
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A200" s="24"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="5"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="12"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="12"/>
+      <c r="R200" s="12"/>
+      <c r="S200" s="12"/>
+      <c r="T200" s="12"/>
+      <c r="U200" s="25"/>
+      <c r="AC200" s="4"/>
+      <c r="AD200" s="12"/>
+      <c r="AE200" s="12"/>
+      <c r="AF200" s="12"/>
+      <c r="AG200" s="12"/>
+      <c r="AH200" s="12"/>
+      <c r="AI200" s="12"/>
+      <c r="AJ200" s="12"/>
+      <c r="AK200" s="12"/>
+      <c r="AL200" s="12"/>
+      <c r="AM200" s="12"/>
+      <c r="AN200" s="12"/>
+      <c r="AO200" s="12"/>
+      <c r="AP200" s="12"/>
+      <c r="AQ200" s="12"/>
+      <c r="AR200" s="12"/>
+      <c r="AS200" s="12"/>
+      <c r="AT200" s="5"/>
+    </row>
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A201" s="24"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="5"/>
+      <c r="N201" s="12"/>
+      <c r="O201" s="12"/>
+      <c r="P201" s="12"/>
+      <c r="Q201" s="12"/>
+      <c r="R201" s="12"/>
+      <c r="S201" s="12"/>
+      <c r="T201" s="12"/>
+      <c r="U201" s="25"/>
+      <c r="AC201" s="7"/>
+      <c r="AD201" s="8"/>
+      <c r="AE201" s="8"/>
+      <c r="AF201" s="8"/>
+      <c r="AG201" s="8"/>
+      <c r="AH201" s="8"/>
+      <c r="AI201" s="8"/>
+      <c r="AJ201" s="8"/>
+      <c r="AK201" s="8"/>
+      <c r="AL201" s="8"/>
+      <c r="AM201" s="8"/>
+      <c r="AN201" s="8"/>
+      <c r="AO201" s="8"/>
+      <c r="AP201" s="8"/>
+      <c r="AQ201" s="8"/>
+      <c r="AR201" s="8"/>
+      <c r="AS201" s="8"/>
+      <c r="AT201" s="10"/>
+    </row>
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A202" s="24"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="5"/>
+      <c r="N202" s="12"/>
+      <c r="O202" s="12"/>
+      <c r="P202" s="12"/>
+      <c r="Q202" s="12"/>
+      <c r="R202" s="12"/>
+      <c r="S202" s="12"/>
+      <c r="T202" s="12"/>
+      <c r="U202" s="25"/>
+    </row>
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A203" s="24"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="5"/>
+      <c r="N203" s="12"/>
+      <c r="O203" s="12"/>
+      <c r="P203" s="12"/>
+      <c r="Q203" s="12"/>
+      <c r="R203" s="12"/>
+      <c r="S203" s="12"/>
+      <c r="T203" s="12"/>
+      <c r="U203" s="25"/>
+    </row>
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A204" s="24"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
+      <c r="L204" s="12"/>
+      <c r="M204" s="5"/>
+      <c r="N204" s="12"/>
+      <c r="O204" s="12"/>
+      <c r="P204" s="12"/>
+      <c r="Q204" s="12"/>
+      <c r="R204" s="12"/>
+      <c r="S204" s="12"/>
+      <c r="T204" s="12"/>
+      <c r="U204" s="25"/>
+      <c r="AC204" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A205" s="24"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
+      <c r="L205" s="12"/>
+      <c r="M205" s="5"/>
+      <c r="N205" s="12"/>
+      <c r="O205" s="12"/>
+      <c r="P205" s="12"/>
+      <c r="Q205" s="12"/>
+      <c r="R205" s="12"/>
+      <c r="S205" s="12"/>
+      <c r="T205" s="12"/>
+      <c r="U205" s="25"/>
+      <c r="AC205" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD205" s="2"/>
+      <c r="AE205" s="2"/>
+      <c r="AF205" s="2"/>
+      <c r="AG205" s="2"/>
+      <c r="AH205" s="2"/>
+      <c r="AI205" s="2"/>
+      <c r="AJ205" s="2"/>
+      <c r="AK205" s="2"/>
+      <c r="AL205" s="2"/>
+      <c r="AM205" s="2"/>
+      <c r="AN205" s="2"/>
+      <c r="AO205" s="2"/>
+      <c r="AP205" s="2"/>
+      <c r="AQ205" s="2"/>
+      <c r="AR205" s="2"/>
+      <c r="AS205" s="2"/>
+      <c r="AT205" s="3"/>
+    </row>
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A206" s="24"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="12"/>
+      <c r="L206" s="12"/>
+      <c r="M206" s="5"/>
+      <c r="N206" s="12"/>
+      <c r="O206" s="12"/>
+      <c r="P206" s="12"/>
+      <c r="Q206" s="12"/>
+      <c r="R206" s="12"/>
+      <c r="S206" s="12"/>
+      <c r="T206" s="12"/>
+      <c r="U206" s="25"/>
+      <c r="AC206" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD206" s="12"/>
+      <c r="AE206" s="12"/>
+      <c r="AF206" s="12"/>
+      <c r="AG206" s="12"/>
+      <c r="AH206" s="12"/>
+      <c r="AI206" s="12"/>
+      <c r="AJ206" s="12"/>
+      <c r="AK206" s="12"/>
+      <c r="AL206" s="12"/>
+      <c r="AM206" s="12"/>
+      <c r="AN206" s="12"/>
+      <c r="AO206" s="12"/>
+      <c r="AP206" s="12"/>
+      <c r="AQ206" s="12"/>
+      <c r="AR206" s="12"/>
+      <c r="AS206" s="12"/>
+      <c r="AT206" s="5"/>
+    </row>
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A207" s="24"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="12"/>
+      <c r="L207" s="12"/>
+      <c r="M207" s="5"/>
+      <c r="N207" s="12"/>
+      <c r="O207" s="12"/>
+      <c r="P207" s="12"/>
+      <c r="Q207" s="12"/>
+      <c r="R207" s="12"/>
+      <c r="S207" s="12"/>
+      <c r="T207" s="12"/>
+      <c r="U207" s="25"/>
+      <c r="AC207" s="4"/>
+      <c r="AD207" s="12"/>
+      <c r="AE207" s="12"/>
+      <c r="AF207" s="12"/>
+      <c r="AG207" s="12"/>
+      <c r="AH207" s="12"/>
+      <c r="AI207" s="12"/>
+      <c r="AJ207" s="12"/>
+      <c r="AK207" s="12"/>
+      <c r="AL207" s="12"/>
+      <c r="AM207" s="12"/>
+      <c r="AN207" s="12"/>
+      <c r="AO207" s="12"/>
+      <c r="AP207" s="12"/>
+      <c r="AQ207" s="12"/>
+      <c r="AR207" s="12"/>
+      <c r="AS207" s="12"/>
+      <c r="AT207" s="5"/>
+    </row>
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A208" s="24"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
+      <c r="L208" s="12"/>
+      <c r="M208" s="5"/>
+      <c r="N208" s="12"/>
+      <c r="O208" s="12"/>
+      <c r="P208" s="12"/>
+      <c r="Q208" s="12"/>
+      <c r="R208" s="12"/>
+      <c r="S208" s="12"/>
+      <c r="T208" s="12"/>
+      <c r="U208" s="25"/>
+      <c r="AC208" s="4"/>
+      <c r="AD208" s="12"/>
+      <c r="AE208" s="12"/>
+      <c r="AF208" s="12"/>
+      <c r="AG208" s="12"/>
+      <c r="AH208" s="12"/>
+      <c r="AI208" s="12"/>
+      <c r="AJ208" s="12"/>
+      <c r="AK208" s="12"/>
+      <c r="AL208" s="12"/>
+      <c r="AM208" s="12"/>
+      <c r="AN208" s="12"/>
+      <c r="AO208" s="12"/>
+      <c r="AP208" s="12"/>
+      <c r="AQ208" s="12"/>
+      <c r="AR208" s="12"/>
+      <c r="AS208" s="12"/>
+      <c r="AT208" s="5"/>
+    </row>
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A209" s="24"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="12"/>
+      <c r="L209" s="12"/>
+      <c r="M209" s="5"/>
+      <c r="N209" s="12"/>
+      <c r="O209" s="12"/>
+      <c r="P209" s="12"/>
+      <c r="Q209" s="12"/>
+      <c r="R209" s="12"/>
+      <c r="S209" s="12"/>
+      <c r="T209" s="12"/>
+      <c r="U209" s="25"/>
+      <c r="AC209" s="4"/>
+      <c r="AD209" s="12"/>
+      <c r="AE209" s="12"/>
+      <c r="AF209" s="12"/>
+      <c r="AG209" s="12"/>
+      <c r="AH209" s="12"/>
+      <c r="AI209" s="12"/>
+      <c r="AJ209" s="12"/>
+      <c r="AK209" s="12"/>
+      <c r="AL209" s="12"/>
+      <c r="AM209" s="12"/>
+      <c r="AN209" s="12"/>
+      <c r="AO209" s="12"/>
+      <c r="AP209" s="12"/>
+      <c r="AQ209" s="12"/>
+      <c r="AR209" s="12"/>
+      <c r="AS209" s="12"/>
+      <c r="AT209" s="5"/>
+    </row>
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A210" s="24"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="12"/>
+      <c r="M210" s="5"/>
+      <c r="N210" s="12"/>
+      <c r="O210" s="12"/>
+      <c r="P210" s="12"/>
+      <c r="Q210" s="12"/>
+      <c r="R210" s="12"/>
+      <c r="S210" s="12"/>
+      <c r="T210" s="12"/>
+      <c r="U210" s="25"/>
+      <c r="AC210" s="4"/>
+      <c r="AD210" s="12"/>
+      <c r="AE210" s="12"/>
+      <c r="AF210" s="12"/>
+      <c r="AG210" s="12"/>
+      <c r="AH210" s="12"/>
+      <c r="AI210" s="12"/>
+      <c r="AJ210" s="12"/>
+      <c r="AK210" s="12"/>
+      <c r="AL210" s="12"/>
+      <c r="AM210" s="12"/>
+      <c r="AN210" s="12"/>
+      <c r="AO210" s="12"/>
+      <c r="AP210" s="12"/>
+      <c r="AQ210" s="12"/>
+      <c r="AR210" s="12"/>
+      <c r="AS210" s="12"/>
+      <c r="AT210" s="5"/>
+    </row>
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A211" s="24"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="12"/>
+      <c r="K211" s="12"/>
+      <c r="L211" s="12"/>
+      <c r="M211" s="5"/>
+      <c r="N211" s="12"/>
+      <c r="O211" s="12"/>
+      <c r="P211" s="12"/>
+      <c r="Q211" s="12"/>
+      <c r="R211" s="12"/>
+      <c r="S211" s="12"/>
+      <c r="T211" s="12"/>
+      <c r="U211" s="25"/>
+      <c r="AC211" s="4"/>
+      <c r="AD211" s="12"/>
+      <c r="AE211" s="12"/>
+      <c r="AF211" s="12"/>
+      <c r="AG211" s="12"/>
+      <c r="AH211" s="12"/>
+      <c r="AI211" s="12"/>
+      <c r="AJ211" s="12"/>
+      <c r="AK211" s="12"/>
+      <c r="AL211" s="12"/>
+      <c r="AM211" s="12"/>
+      <c r="AN211" s="12"/>
+      <c r="AO211" s="12"/>
+      <c r="AP211" s="12"/>
+      <c r="AQ211" s="12"/>
+      <c r="AR211" s="12"/>
+      <c r="AS211" s="12"/>
+      <c r="AT211" s="5"/>
+    </row>
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A212" s="24"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="12"/>
+      <c r="L212" s="12"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="12"/>
+      <c r="O212" s="12"/>
+      <c r="P212" s="12"/>
+      <c r="Q212" s="12"/>
+      <c r="R212" s="12"/>
+      <c r="S212" s="12"/>
+      <c r="T212" s="12"/>
+      <c r="U212" s="25"/>
+      <c r="AC212" s="4"/>
+      <c r="AD212" s="12"/>
+      <c r="AE212" s="12"/>
+      <c r="AF212" s="12"/>
+      <c r="AG212" s="12"/>
+      <c r="AH212" s="12"/>
+      <c r="AI212" s="12"/>
+      <c r="AJ212" s="12"/>
+      <c r="AK212" s="12"/>
+      <c r="AL212" s="12"/>
+      <c r="AM212" s="12"/>
+      <c r="AN212" s="12"/>
+      <c r="AO212" s="12"/>
+      <c r="AP212" s="12"/>
+      <c r="AQ212" s="12"/>
+      <c r="AR212" s="12"/>
+      <c r="AS212" s="12"/>
+      <c r="AT212" s="5"/>
+    </row>
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A213" s="24"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="12"/>
+      <c r="K213" s="12"/>
+      <c r="L213" s="12"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="12"/>
+      <c r="O213" s="12"/>
+      <c r="P213" s="12"/>
+      <c r="Q213" s="12"/>
+      <c r="R213" s="12"/>
+      <c r="S213" s="12"/>
+      <c r="T213" s="12"/>
+      <c r="U213" s="25"/>
+      <c r="AC213" s="4"/>
+      <c r="AD213" s="12"/>
+      <c r="AE213" s="12"/>
+      <c r="AF213" s="12"/>
+      <c r="AG213" s="12"/>
+      <c r="AH213" s="12"/>
+      <c r="AI213" s="12"/>
+      <c r="AJ213" s="12"/>
+      <c r="AK213" s="12"/>
+      <c r="AL213" s="12"/>
+      <c r="AM213" s="12"/>
+      <c r="AN213" s="12"/>
+      <c r="AO213" s="12"/>
+      <c r="AP213" s="12"/>
+      <c r="AQ213" s="12"/>
+      <c r="AR213" s="12"/>
+      <c r="AS213" s="12"/>
+      <c r="AT213" s="5"/>
+    </row>
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A214" s="24"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="12"/>
+      <c r="L214" s="12"/>
+      <c r="M214" s="5"/>
+      <c r="N214" s="12"/>
+      <c r="O214" s="12"/>
+      <c r="P214" s="12"/>
+      <c r="Q214" s="12"/>
+      <c r="R214" s="12"/>
+      <c r="S214" s="12"/>
+      <c r="T214" s="12"/>
+      <c r="U214" s="25"/>
+      <c r="AC214" s="4"/>
+      <c r="AD214" s="12"/>
+      <c r="AE214" s="12"/>
+      <c r="AF214" s="12"/>
+      <c r="AG214" s="12"/>
+      <c r="AH214" s="12"/>
+      <c r="AI214" s="12"/>
+      <c r="AJ214" s="12"/>
+      <c r="AK214" s="12"/>
+      <c r="AL214" s="12"/>
+      <c r="AM214" s="12"/>
+      <c r="AN214" s="12"/>
+      <c r="AO214" s="12"/>
+      <c r="AP214" s="12"/>
+      <c r="AQ214" s="12"/>
+      <c r="AR214" s="12"/>
+      <c r="AS214" s="12"/>
+      <c r="AT214" s="5"/>
+    </row>
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A215" s="24"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+      <c r="J215" s="12"/>
+      <c r="K215" s="12"/>
+      <c r="L215" s="12"/>
+      <c r="M215" s="5"/>
+      <c r="N215" s="12"/>
+      <c r="O215" s="12"/>
+      <c r="P215" s="12"/>
+      <c r="Q215" s="12"/>
+      <c r="R215" s="12"/>
+      <c r="S215" s="12"/>
+      <c r="T215" s="12"/>
+      <c r="U215" s="25"/>
+      <c r="AC215" s="4"/>
+      <c r="AD215" s="12"/>
+      <c r="AE215" s="12"/>
+      <c r="AF215" s="12"/>
+      <c r="AG215" s="12"/>
+      <c r="AH215" s="12"/>
+      <c r="AI215" s="12"/>
+      <c r="AJ215" s="12"/>
+      <c r="AK215" s="12"/>
+      <c r="AL215" s="12"/>
+      <c r="AM215" s="12"/>
+      <c r="AN215" s="12"/>
+      <c r="AO215" s="12"/>
+      <c r="AP215" s="12"/>
+      <c r="AQ215" s="12"/>
+      <c r="AR215" s="12"/>
+      <c r="AS215" s="12"/>
+      <c r="AT215" s="5"/>
+    </row>
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A216" s="24"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="J216" s="12"/>
+      <c r="K216" s="12"/>
+      <c r="L216" s="12"/>
+      <c r="M216" s="5"/>
+      <c r="N216" s="12"/>
+      <c r="O216" s="12"/>
+      <c r="P216" s="12"/>
+      <c r="Q216" s="12"/>
+      <c r="R216" s="12"/>
+      <c r="S216" s="12"/>
+      <c r="T216" s="12"/>
+      <c r="U216" s="25"/>
+      <c r="AC216" s="4"/>
+      <c r="AD216" s="12"/>
+      <c r="AE216" s="12"/>
+      <c r="AF216" s="12"/>
+      <c r="AG216" s="12"/>
+      <c r="AH216" s="12"/>
+      <c r="AI216" s="12"/>
+      <c r="AJ216" s="12"/>
+      <c r="AK216" s="12"/>
+      <c r="AL216" s="12"/>
+      <c r="AM216" s="12"/>
+      <c r="AN216" s="12"/>
+      <c r="AO216" s="12"/>
+      <c r="AP216" s="12"/>
+      <c r="AQ216" s="12"/>
+      <c r="AR216" s="12"/>
+      <c r="AS216" s="12"/>
+      <c r="AT216" s="5"/>
+    </row>
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A217" s="24"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="12"/>
+      <c r="K217" s="12"/>
+      <c r="L217" s="12"/>
+      <c r="M217" s="5"/>
+      <c r="N217" s="12"/>
+      <c r="O217" s="12"/>
+      <c r="P217" s="12"/>
+      <c r="Q217" s="12"/>
+      <c r="R217" s="12"/>
+      <c r="S217" s="12"/>
+      <c r="T217" s="12"/>
+      <c r="U217" s="25"/>
+      <c r="AC217" s="4"/>
+      <c r="AD217" s="12"/>
+      <c r="AE217" s="12"/>
+      <c r="AF217" s="12"/>
+      <c r="AG217" s="12"/>
+      <c r="AH217" s="12"/>
+      <c r="AI217" s="12"/>
+      <c r="AJ217" s="12"/>
+      <c r="AK217" s="12"/>
+      <c r="AL217" s="12"/>
+      <c r="AM217" s="12"/>
+      <c r="AN217" s="12"/>
+      <c r="AO217" s="12"/>
+      <c r="AP217" s="12"/>
+      <c r="AQ217" s="12"/>
+      <c r="AR217" s="12"/>
+      <c r="AS217" s="12"/>
+      <c r="AT217" s="5"/>
+    </row>
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A218" s="24"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="12"/>
+      <c r="K218" s="12"/>
+      <c r="L218" s="12"/>
+      <c r="M218" s="5"/>
+      <c r="N218" s="12"/>
+      <c r="O218" s="12"/>
+      <c r="P218" s="12"/>
+      <c r="Q218" s="12"/>
+      <c r="R218" s="12"/>
+      <c r="S218" s="12"/>
+      <c r="T218" s="12"/>
+      <c r="U218" s="25"/>
+      <c r="AC218" s="4"/>
+      <c r="AD218" s="12"/>
+      <c r="AE218" s="12"/>
+      <c r="AF218" s="12"/>
+      <c r="AG218" s="12"/>
+      <c r="AH218" s="12"/>
+      <c r="AI218" s="12"/>
+      <c r="AJ218" s="12"/>
+      <c r="AK218" s="12"/>
+      <c r="AL218" s="12"/>
+      <c r="AM218" s="12"/>
+      <c r="AN218" s="12"/>
+      <c r="AO218" s="12"/>
+      <c r="AP218" s="12"/>
+      <c r="AQ218" s="12"/>
+      <c r="AR218" s="12"/>
+      <c r="AS218" s="12"/>
+      <c r="AT218" s="5"/>
+    </row>
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A219" s="24"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+      <c r="J219" s="12"/>
+      <c r="K219" s="12"/>
+      <c r="L219" s="12"/>
+      <c r="M219" s="5"/>
+      <c r="N219" s="12"/>
+      <c r="O219" s="12"/>
+      <c r="P219" s="12"/>
+      <c r="Q219" s="12"/>
+      <c r="R219" s="12"/>
+      <c r="S219" s="12"/>
+      <c r="T219" s="12"/>
+      <c r="U219" s="25"/>
+      <c r="AC219" s="4"/>
+      <c r="AD219" s="12"/>
+      <c r="AE219" s="12"/>
+      <c r="AF219" s="12"/>
+      <c r="AG219" s="12"/>
+      <c r="AH219" s="12"/>
+      <c r="AI219" s="12"/>
+      <c r="AJ219" s="12"/>
+      <c r="AK219" s="12"/>
+      <c r="AL219" s="12"/>
+      <c r="AM219" s="12"/>
+      <c r="AN219" s="12"/>
+      <c r="AO219" s="12"/>
+      <c r="AP219" s="12"/>
+      <c r="AQ219" s="12"/>
+      <c r="AR219" s="12"/>
+      <c r="AS219" s="12"/>
+      <c r="AT219" s="5"/>
+    </row>
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A220" s="24"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="12"/>
+      <c r="K220" s="12"/>
+      <c r="L220" s="12"/>
+      <c r="M220" s="5"/>
+      <c r="N220" s="12"/>
+      <c r="O220" s="12"/>
+      <c r="P220" s="12"/>
+      <c r="Q220" s="12"/>
+      <c r="R220" s="12"/>
+      <c r="S220" s="12"/>
+      <c r="T220" s="12"/>
+      <c r="U220" s="25"/>
+      <c r="AC220" s="4"/>
+      <c r="AD220" s="12"/>
+      <c r="AE220" s="12"/>
+      <c r="AF220" s="12"/>
+      <c r="AG220" s="12"/>
+      <c r="AH220" s="12"/>
+      <c r="AI220" s="12"/>
+      <c r="AJ220" s="12"/>
+      <c r="AK220" s="12"/>
+      <c r="AL220" s="12"/>
+      <c r="AM220" s="12"/>
+      <c r="AN220" s="12"/>
+      <c r="AO220" s="12"/>
+      <c r="AP220" s="12"/>
+      <c r="AQ220" s="12"/>
+      <c r="AR220" s="12"/>
+      <c r="AS220" s="12"/>
+      <c r="AT220" s="5"/>
+    </row>
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A221" s="24"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="12"/>
+      <c r="K221" s="12"/>
+      <c r="L221" s="12"/>
+      <c r="M221" s="5"/>
+      <c r="N221" s="12"/>
+      <c r="O221" s="12"/>
+      <c r="P221" s="12"/>
+      <c r="Q221" s="12"/>
+      <c r="R221" s="12"/>
+      <c r="S221" s="12"/>
+      <c r="T221" s="12"/>
+      <c r="U221" s="25"/>
+      <c r="AC221" s="4"/>
+      <c r="AD221" s="12"/>
+      <c r="AE221" s="12"/>
+      <c r="AF221" s="12"/>
+      <c r="AG221" s="12"/>
+      <c r="AH221" s="12"/>
+      <c r="AI221" s="12"/>
+      <c r="AJ221" s="12"/>
+      <c r="AK221" s="12"/>
+      <c r="AL221" s="12"/>
+      <c r="AM221" s="12"/>
+      <c r="AN221" s="12"/>
+      <c r="AO221" s="12"/>
+      <c r="AP221" s="12"/>
+      <c r="AQ221" s="12"/>
+      <c r="AR221" s="12"/>
+      <c r="AS221" s="12"/>
+      <c r="AT221" s="5"/>
+    </row>
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A222" s="24"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+      <c r="J222" s="12"/>
+      <c r="K222" s="12"/>
+      <c r="L222" s="12"/>
+      <c r="M222" s="5"/>
+      <c r="N222" s="12"/>
+      <c r="O222" s="12"/>
+      <c r="P222" s="12"/>
+      <c r="Q222" s="12"/>
+      <c r="R222" s="12"/>
+      <c r="S222" s="12"/>
+      <c r="T222" s="12"/>
+      <c r="U222" s="25"/>
+      <c r="AC222" s="4"/>
+      <c r="AD222" s="12"/>
+      <c r="AE222" s="12"/>
+      <c r="AF222" s="12"/>
+      <c r="AG222" s="12"/>
+      <c r="AH222" s="12"/>
+      <c r="AI222" s="12"/>
+      <c r="AJ222" s="12"/>
+      <c r="AK222" s="12"/>
+      <c r="AL222" s="12"/>
+      <c r="AM222" s="12"/>
+      <c r="AN222" s="12"/>
+      <c r="AO222" s="12"/>
+      <c r="AP222" s="12"/>
+      <c r="AQ222" s="12"/>
+      <c r="AR222" s="12"/>
+      <c r="AS222" s="12"/>
+      <c r="AT222" s="5"/>
+    </row>
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A223" s="24"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
+      <c r="I223" s="8"/>
+      <c r="J223" s="8"/>
+      <c r="K223" s="8"/>
+      <c r="L223" s="8"/>
+      <c r="M223" s="10"/>
+      <c r="N223" s="12"/>
+      <c r="O223" s="12"/>
+      <c r="P223" s="12"/>
+      <c r="Q223" s="12"/>
+      <c r="R223" s="12"/>
+      <c r="S223" s="12"/>
+      <c r="T223" s="12"/>
+      <c r="U223" s="25"/>
+      <c r="AC223" s="4"/>
+      <c r="AD223" s="12"/>
+      <c r="AE223" s="12"/>
+      <c r="AF223" s="12"/>
+      <c r="AG223" s="12"/>
+      <c r="AH223" s="12"/>
+      <c r="AI223" s="12"/>
+      <c r="AJ223" s="12"/>
+      <c r="AK223" s="12"/>
+      <c r="AL223" s="12"/>
+      <c r="AM223" s="12"/>
+      <c r="AN223" s="12"/>
+      <c r="AO223" s="12"/>
+      <c r="AP223" s="12"/>
+      <c r="AQ223" s="12"/>
+      <c r="AR223" s="12"/>
+      <c r="AS223" s="12"/>
+      <c r="AT223" s="5"/>
+    </row>
+    <row r="224" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="26"/>
+      <c r="B224" s="27"/>
+      <c r="C224" s="27"/>
+      <c r="D224" s="27"/>
+      <c r="E224" s="27"/>
+      <c r="F224" s="27"/>
+      <c r="G224" s="27"/>
+      <c r="H224" s="27"/>
+      <c r="I224" s="27"/>
+      <c r="J224" s="27"/>
+      <c r="K224" s="27"/>
+      <c r="L224" s="27"/>
+      <c r="M224" s="27"/>
+      <c r="N224" s="27"/>
+      <c r="O224" s="27"/>
+      <c r="P224" s="27"/>
+      <c r="Q224" s="27"/>
+      <c r="R224" s="27"/>
+      <c r="S224" s="27"/>
+      <c r="T224" s="27"/>
+      <c r="U224" s="28"/>
+      <c r="AC224" s="4"/>
+      <c r="AD224" s="12"/>
+      <c r="AE224" s="12"/>
+      <c r="AF224" s="12"/>
+      <c r="AG224" s="12"/>
+      <c r="AH224" s="12"/>
+      <c r="AI224" s="12"/>
+      <c r="AJ224" s="12"/>
+      <c r="AK224" s="12"/>
+      <c r="AL224" s="12"/>
+      <c r="AM224" s="12"/>
+      <c r="AN224" s="12"/>
+      <c r="AO224" s="12"/>
+      <c r="AP224" s="12"/>
+      <c r="AQ224" s="12"/>
+      <c r="AR224" s="12"/>
+      <c r="AS224" s="12"/>
+      <c r="AT224" s="5"/>
+    </row>
+    <row r="225" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC225" s="4"/>
+      <c r="AD225" s="12"/>
+      <c r="AE225" s="12"/>
+      <c r="AF225" s="12"/>
+      <c r="AG225" s="12"/>
+      <c r="AH225" s="12"/>
+      <c r="AI225" s="12"/>
+      <c r="AJ225" s="12"/>
+      <c r="AK225" s="12"/>
+      <c r="AL225" s="12"/>
+      <c r="AM225" s="12"/>
+      <c r="AN225" s="12"/>
+      <c r="AO225" s="12"/>
+      <c r="AP225" s="12"/>
+      <c r="AQ225" s="12"/>
+      <c r="AR225" s="12"/>
+      <c r="AS225" s="12"/>
+      <c r="AT225" s="5"/>
+    </row>
+    <row r="226" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC226" s="4"/>
+      <c r="AD226" s="12"/>
+      <c r="AE226" s="12"/>
+      <c r="AF226" s="12"/>
+      <c r="AG226" s="12"/>
+      <c r="AH226" s="12"/>
+      <c r="AI226" s="12"/>
+      <c r="AJ226" s="12"/>
+      <c r="AK226" s="12"/>
+      <c r="AL226" s="12"/>
+      <c r="AM226" s="12"/>
+      <c r="AN226" s="12"/>
+      <c r="AO226" s="12"/>
+      <c r="AP226" s="12"/>
+      <c r="AQ226" s="12"/>
+      <c r="AR226" s="12"/>
+      <c r="AS226" s="12"/>
+      <c r="AT226" s="5"/>
+    </row>
+    <row r="227" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC227" s="4"/>
+      <c r="AD227" s="12"/>
+      <c r="AE227" s="12"/>
+      <c r="AF227" s="12"/>
+      <c r="AG227" s="12"/>
+      <c r="AH227" s="12"/>
+      <c r="AI227" s="12"/>
+      <c r="AJ227" s="12"/>
+      <c r="AK227" s="12"/>
+      <c r="AL227" s="12"/>
+      <c r="AM227" s="12"/>
+      <c r="AN227" s="12"/>
+      <c r="AO227" s="12"/>
+      <c r="AP227" s="12"/>
+      <c r="AQ227" s="12"/>
+      <c r="AR227" s="12"/>
+      <c r="AS227" s="12"/>
+      <c r="AT227" s="5"/>
+    </row>
+    <row r="228" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC228" s="4"/>
+      <c r="AD228" s="12"/>
+      <c r="AE228" s="12"/>
+      <c r="AF228" s="12"/>
+      <c r="AG228" s="12"/>
+      <c r="AH228" s="12"/>
+      <c r="AI228" s="12"/>
+      <c r="AJ228" s="12"/>
+      <c r="AK228" s="12"/>
+      <c r="AL228" s="12"/>
+      <c r="AM228" s="12"/>
+      <c r="AN228" s="12"/>
+      <c r="AO228" s="12"/>
+      <c r="AP228" s="12"/>
+      <c r="AQ228" s="12"/>
+      <c r="AR228" s="12"/>
+      <c r="AS228" s="12"/>
+      <c r="AT228" s="5"/>
+    </row>
+    <row r="229" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC229" s="4"/>
+      <c r="AD229" s="12"/>
+      <c r="AE229" s="12"/>
+      <c r="AF229" s="12"/>
+      <c r="AG229" s="12"/>
+      <c r="AH229" s="12"/>
+      <c r="AI229" s="12"/>
+      <c r="AJ229" s="12"/>
+      <c r="AK229" s="12"/>
+      <c r="AL229" s="12"/>
+      <c r="AM229" s="12"/>
+      <c r="AN229" s="12"/>
+      <c r="AO229" s="12"/>
+      <c r="AP229" s="12"/>
+      <c r="AQ229" s="12"/>
+      <c r="AR229" s="12"/>
+      <c r="AS229" s="12"/>
+      <c r="AT229" s="5"/>
+    </row>
+    <row r="230" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC230" s="4"/>
+      <c r="AD230" s="12"/>
+      <c r="AE230" s="12"/>
+      <c r="AF230" s="12"/>
+      <c r="AG230" s="12"/>
+      <c r="AH230" s="12"/>
+      <c r="AI230" s="12"/>
+      <c r="AJ230" s="12"/>
+      <c r="AK230" s="12"/>
+      <c r="AL230" s="12"/>
+      <c r="AM230" s="12"/>
+      <c r="AN230" s="12"/>
+      <c r="AO230" s="12"/>
+      <c r="AP230" s="12"/>
+      <c r="AQ230" s="12"/>
+      <c r="AR230" s="12"/>
+      <c r="AS230" s="12"/>
+      <c r="AT230" s="5"/>
+    </row>
+    <row r="231" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC231" s="4"/>
+      <c r="AD231" s="12"/>
+      <c r="AE231" s="12"/>
+      <c r="AF231" s="12"/>
+      <c r="AG231" s="12"/>
+      <c r="AH231" s="12"/>
+      <c r="AI231" s="12"/>
+      <c r="AJ231" s="12"/>
+      <c r="AK231" s="12"/>
+      <c r="AL231" s="12"/>
+      <c r="AM231" s="12"/>
+      <c r="AN231" s="12"/>
+      <c r="AO231" s="12"/>
+      <c r="AP231" s="12"/>
+      <c r="AQ231" s="12"/>
+      <c r="AR231" s="12"/>
+      <c r="AS231" s="12"/>
+      <c r="AT231" s="5"/>
+    </row>
+    <row r="232" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC232" s="4"/>
+      <c r="AD232" s="12"/>
+      <c r="AE232" s="12"/>
+      <c r="AF232" s="12"/>
+      <c r="AG232" s="12"/>
+      <c r="AH232" s="12"/>
+      <c r="AI232" s="12"/>
+      <c r="AJ232" s="12"/>
+      <c r="AK232" s="12"/>
+      <c r="AL232" s="12"/>
+      <c r="AM232" s="12"/>
+      <c r="AN232" s="12"/>
+      <c r="AO232" s="12"/>
+      <c r="AP232" s="12"/>
+      <c r="AQ232" s="12"/>
+      <c r="AR232" s="12"/>
+      <c r="AS232" s="12"/>
+      <c r="AT232" s="5"/>
+    </row>
+    <row r="233" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC233" s="4"/>
+      <c r="AD233" s="12"/>
+      <c r="AE233" s="12"/>
+      <c r="AF233" s="12"/>
+      <c r="AG233" s="12"/>
+      <c r="AH233" s="12"/>
+      <c r="AI233" s="12"/>
+      <c r="AJ233" s="12"/>
+      <c r="AK233" s="12"/>
+      <c r="AL233" s="12"/>
+      <c r="AM233" s="12"/>
+      <c r="AN233" s="12"/>
+      <c r="AO233" s="12"/>
+      <c r="AP233" s="12"/>
+      <c r="AQ233" s="12"/>
+      <c r="AR233" s="12"/>
+      <c r="AS233" s="12"/>
+      <c r="AT233" s="5"/>
+    </row>
+    <row r="234" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC234" s="4"/>
+      <c r="AD234" s="12"/>
+      <c r="AE234" s="12"/>
+      <c r="AF234" s="12"/>
+      <c r="AG234" s="12"/>
+      <c r="AH234" s="12"/>
+      <c r="AI234" s="12"/>
+      <c r="AJ234" s="12"/>
+      <c r="AK234" s="12"/>
+      <c r="AL234" s="12"/>
+      <c r="AM234" s="12"/>
+      <c r="AN234" s="12"/>
+      <c r="AO234" s="12"/>
+      <c r="AP234" s="12"/>
+      <c r="AQ234" s="12"/>
+      <c r="AR234" s="12"/>
+      <c r="AS234" s="12"/>
+      <c r="AT234" s="5"/>
+    </row>
+    <row r="235" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC235" s="4"/>
+      <c r="AD235" s="12"/>
+      <c r="AE235" s="12"/>
+      <c r="AF235" s="12"/>
+      <c r="AG235" s="12"/>
+      <c r="AH235" s="12"/>
+      <c r="AI235" s="12"/>
+      <c r="AJ235" s="12"/>
+      <c r="AK235" s="12"/>
+      <c r="AL235" s="12"/>
+      <c r="AM235" s="12"/>
+      <c r="AN235" s="12"/>
+      <c r="AO235" s="12"/>
+      <c r="AP235" s="12"/>
+      <c r="AQ235" s="12"/>
+      <c r="AR235" s="12"/>
+      <c r="AS235" s="12"/>
+      <c r="AT235" s="5"/>
+    </row>
+    <row r="236" spans="29:46" x14ac:dyDescent="0.25">
+      <c r="AC236" s="7"/>
+      <c r="AD236" s="8"/>
+      <c r="AE236" s="8"/>
+      <c r="AF236" s="8"/>
+      <c r="AG236" s="8"/>
+      <c r="AH236" s="8"/>
+      <c r="AI236" s="8"/>
+      <c r="AJ236" s="8"/>
+      <c r="AK236" s="8"/>
+      <c r="AL236" s="8"/>
+      <c r="AM236" s="8"/>
+      <c r="AN236" s="8"/>
+      <c r="AO236" s="8"/>
+      <c r="AP236" s="8"/>
+      <c r="AQ236" s="8"/>
+      <c r="AR236" s="8"/>
+      <c r="AS236" s="8"/>
+      <c r="AT236" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/4.Exercises.xlsx
+++ b/me/4.Exercises.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC3DDAC-3E37-4546-926A-C58927CCC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B376BCF-BE41-4461-B677-ED13C503A6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banner" sheetId="1" r:id="rId1"/>
     <sheet name="Menu" sheetId="2" r:id="rId2"/>
+    <sheet name="Images Gallery" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="255">
   <si>
     <t>構成</t>
   </si>
@@ -263,9 +264,6 @@
   </si>
   <si>
     <t>Trình duyệt cao bao nhiêu thì nó sẽ chiếm 100% chiều cao của trình duyệt</t>
-  </si>
-  <si>
-    <t>Resize background image để chiếm toàn bộ đối tượng chứa nó(.hero)</t>
   </si>
   <si>
     <t>set vị trí hình ảnh background  về đúng vị trí giữa</t>
@@ -743,6 +741,201 @@
   </si>
   <si>
     <t>menu được hiện</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>laptop.avif</t>
+  </si>
+  <si>
+    <t>Xây dựng Images Gallery và khi hover vào hình nào thì hình đó sẽ được show lớn lên</t>
+  </si>
+  <si>
+    <t>3.Images-Gallery</t>
+  </si>
+  <si>
+    <t>photo-1550005809-91ad75fb315f.avif</t>
+  </si>
+  <si>
+    <t>photo-1465495976277-4387d4b0b4c6.avif</t>
+  </si>
+  <si>
+    <t>photo-1515934751635-c81c6bc9a2d8.avif</t>
+  </si>
+  <si>
+    <t>photo-1519741497674-611481863552.avif</t>
+  </si>
+  <si>
+    <t>photo-1520854221256-17451cc331bf.avif</t>
+  </si>
+  <si>
+    <t>photo-1532712938310-34cb3982ef74.avif</t>
+  </si>
+  <si>
+    <t>flexbox\4.Exercises\3.Images-Gallery\index.html</t>
+  </si>
+  <si>
+    <t>    &lt;title&gt;Flexbox Exercise - Image Gallery&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;h1&gt;Image Gallery&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;div class="gallery"&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="item"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;img src="./images/photo-1520854221256-17451cc331bf.avif" alt="" /&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;img src="./images/photo-1519741497674-611481863552.avif" alt="" /&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;img src="./images/photo-1465495976277-4387d4b0b4c6.avif" alt="" /&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;img src="./images/photo-1532712938310-34cb3982ef74.avif" alt="" /&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;img src="./images/photo-1515934751635-c81c6bc9a2d8.avif" alt="" /&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;img src="./images/photo-1550005809-91ad75fb315f.avif" alt="" /&gt;</t>
+  </si>
+  <si>
+    <t>flexbox\4.Exercises\3.Images-Gallery\css\style.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    margin: 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    padding: 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    box-sizing: border-box;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    font-family: 'Nunito', sans-serif;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    background: #4d4a4a;</t>
+  </si>
+  <si>
+    <t>img {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    max-width: 100%;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    display: block;</t>
+  </si>
+  <si>
+    <t>h1 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    text-transform: uppercase;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    text-align: center;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    margin: 10px 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    color: #fff;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    text-shadow: 0 0 10px #fff;</t>
+  </si>
+  <si>
+    <t>.gallery {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    width: 800px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    display: flex;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    margin: auto;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    height: 400px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    box-shadow: 0 4px 8px rgba(0, 0, 0, 0.2);</t>
+  </si>
+  <si>
+    <t>.item {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    flex: 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    transition: 0.4s linear;</t>
+  </si>
+  <si>
+    <t>.item:hover {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    flex-basis: 65%;</t>
+  </si>
+  <si>
+    <t>.item img {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    height: 100%;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    object-fit: cover;</t>
+  </si>
+  <si>
+    <t>Để khi thu nhỏ trình duyệt thì thanh scroll bar nằm ngang bên dưới sẽ ko xuất hiện</t>
+  </si>
+  <si>
+    <t>Để cho các div.item(đóng vai trò là flex item) cùng nằm trên 1 dòng</t>
+  </si>
+  <si>
+    <t>border cho flex container(div.gallery)</t>
+  </si>
+  <si>
+    <t>Resize background image(Scales và cropped chiều rộng và cao) để chiếm toàn bộ đối tượng chứa nó(.hero)</t>
+  </si>
+  <si>
+    <t>Scales và cropped chiều rộng và cao của hình ảnh sao cho phù hợp khi height là 100%</t>
+  </si>
+  <si>
+    <t>flex-grow: 1;</t>
+  </si>
+  <si>
+    <t>flex-shrink: 1;</t>
+  </si>
+  <si>
+    <t>flex-basis: 0%;</t>
+  </si>
+  <si>
+    <t>Các phần tử div.item(đóng vai trò là flex item) có thể co giãn được</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thuộc tính flex-basis giúp set chiều cao(height) hoặc là chiều rộng(width) cho flex item dựa vào giá trị </t>
+  </si>
+  <si>
+    <t>flex-direction của flex container là column hay row. flex-direction đang có giá trị mặc định là row</t>
+  </si>
+  <si>
+    <t>nên flex-basis sẽ giúp thay đổi chiều rộng của đối tượng khi ta hover vào</t>
+  </si>
+  <si>
+    <t>Để khi hover vào nhìn mượt hơn khi hình ảnh được show lơn hơn thì dùng transition cho các item</t>
+  </si>
+  <si>
+    <t>Ban đầu</t>
+  </si>
+  <si>
+    <t>howver vào 1 hình ảnh nào đó</t>
   </si>
 </sst>
 </file>
@@ -951,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -981,6 +1174,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,15 +1198,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>418077</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>189865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1034,7 +1230,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11134725" y="7877175"/>
+          <a:off x="12963525" y="8258175"/>
           <a:ext cx="8180952" cy="5076190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1046,15 +1242,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>170905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1078,7 +1274,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11096624" y="13030200"/>
+          <a:off x="12925424" y="13411200"/>
           <a:ext cx="8124825" cy="3714205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1092,13 +1288,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1114,8 +1310,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7448550" y="7800975"/>
-          <a:ext cx="1085850" cy="2600325"/>
+          <a:off x="7448550" y="8181975"/>
+          <a:ext cx="3524250" cy="2600325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1145,13 +1341,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1167,7 +1363,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="10029825"/>
+          <a:off x="962025" y="10410825"/>
           <a:ext cx="8886825" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1198,13 +1394,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1220,7 +1416,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1914525" y="5495925"/>
+          <a:off x="1914525" y="5876925"/>
           <a:ext cx="5562600" cy="5648325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1251,13 +1447,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1273,7 +1469,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2447925" y="11229975"/>
+          <a:off x="2447925" y="11610975"/>
           <a:ext cx="3667125" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1304,13 +1500,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1326,7 +1522,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7334250" y="11182350"/>
+          <a:off x="7334250" y="11563350"/>
           <a:ext cx="228600" cy="2428875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1357,13 +1553,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1379,7 +1575,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504950" y="11925300"/>
+          <a:off x="1504950" y="12306300"/>
           <a:ext cx="7858125" cy="1657350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1410,13 +1606,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1432,7 +1628,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1438275" y="14439900"/>
+          <a:off x="1438275" y="14820900"/>
           <a:ext cx="4667250" cy="3733800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1463,13 +1659,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>437347</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1493,7 +1689,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="20278725"/>
+          <a:off x="695325" y="20659725"/>
           <a:ext cx="11324422" cy="5724525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1507,13 +1703,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>111875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1537,7 +1733,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695324" y="26527124"/>
+          <a:off x="695324" y="26908124"/>
           <a:ext cx="11344275" cy="5207751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1551,13 +1747,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1573,7 +1769,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1333500" y="18468975"/>
+          <a:off x="1333500" y="18849975"/>
           <a:ext cx="4762500" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1604,13 +1800,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1626,7 +1822,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6619875" y="17716500"/>
+          <a:off x="6619875" y="18097500"/>
           <a:ext cx="866775" cy="6200775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1657,13 +1853,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1679,7 +1875,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2038350" y="2238375"/>
+          <a:off x="2038350" y="2619375"/>
           <a:ext cx="333375" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1716,7 +1912,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1734,6 +1930,59 @@
         <a:xfrm flipH="1">
           <a:off x="2209800" y="2066925"/>
           <a:ext cx="504825" cy="5429250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C1BFC9-8488-97C6-77F6-2A3D3CFA7869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="26803350"/>
+          <a:ext cx="4362450" cy="2924175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3062,6 +3311,311 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72910936-B467-9A52-7427-336B64B09D26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="857250" y="17297400"/>
+          <a:ext cx="419100" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BFF71A-29E9-8417-59A7-27266CB06D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="18802350"/>
+          <a:ext cx="4067175" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>59320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69951C2-526C-2161-2B6B-0CC875BBB534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="21850350"/>
+          <a:ext cx="11125200" cy="5450470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D225F48-7A7B-100E-BAEB-C67D89A6B4E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="16392525"/>
+          <a:ext cx="3962400" cy="6238875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>159506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F921CF-0433-0B06-3639-F7001E709636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790576" y="27898726"/>
+          <a:ext cx="11229974" cy="4455280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29746455-970C-2FA9-CA6A-00DAD631F9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1704975" y="18973800"/>
+          <a:ext cx="4438650" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3325,20 +3879,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AF168"/>
+  <dimension ref="A4:AI170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3347,19 +3901,19 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -3371,7 +3925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="6" t="s">
         <v>11</v>
@@ -3384,14 +3938,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="E11" s="6" t="s">
         <v>7</v>
@@ -3404,65 +3958,56 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
+      <c r="G14" t="s">
         <v>4</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3472,9 +4017,9 @@
       <c r="H19" s="12"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3484,9 +4029,9 @@
       <c r="H20" s="12"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3496,9 +4041,9 @@
       <c r="H21" s="12"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3508,8 +4053,10 @@
       <c r="H22" s="12"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -3518,9 +4065,9 @@
       <c r="H23" s="12"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -3530,10 +4077,8 @@
       <c r="H24" s="12"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>66</v>
-      </c>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -3542,8 +4087,10 @@
       <c r="H25" s="12"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -3552,9 +4099,9 @@
       <c r="H26" s="12"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -3564,10 +4111,8 @@
       <c r="H27" s="12"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>81</v>
-      </c>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -3576,9 +4121,9 @@
       <c r="H28" s="12"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -3588,9 +4133,9 @@
       <c r="H29" s="12"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -3600,9 +4145,9 @@
       <c r="H30" s="12"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -3612,9 +4157,9 @@
       <c r="H31" s="12"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -3624,9 +4169,9 @@
       <c r="H32" s="12"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -3636,9 +4181,9 @@
       <c r="H33" s="12"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -3648,9 +4193,9 @@
       <c r="H34" s="12"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -3660,9 +4205,9 @@
       <c r="H35" s="12"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -3672,102 +4217,74 @@
       <c r="H36" s="12"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="3"/>
-      <c r="S41" s="14" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
+      <c r="V43" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="5"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="3"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="5"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="5"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -3775,24 +4292,24 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="5"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="5"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V44" s="1"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="3"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -3801,10 +4318,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="5"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
+      <c r="V45" s="4"/>
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
@@ -3814,11 +4328,14 @@
       <c r="AC45" s="12"/>
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
-      <c r="AF45" s="5"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="5"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -3827,10 +4344,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="5"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
+      <c r="V46" s="4"/>
       <c r="W46" s="12"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
@@ -3840,11 +4354,14 @@
       <c r="AC46" s="12"/>
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
-      <c r="AF46" s="5"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="5"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -3853,10 +4370,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="5"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
+      <c r="V47" s="4"/>
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
@@ -3866,10 +4380,15 @@
       <c r="AC47" s="12"/>
       <c r="AD47" s="12"/>
       <c r="AE47" s="12"/>
-      <c r="AF47" s="5"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="5"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -3877,10 +4396,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="5"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="12"/>
+      <c r="V48" s="4"/>
       <c r="W48" s="12"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
@@ -3890,11 +4406,14 @@
       <c r="AC48" s="12"/>
       <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
-      <c r="AF48" s="5"/>
-    </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="5"/>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -3903,10 +4422,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="5"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
+      <c r="V49" s="4"/>
       <c r="W49" s="12"/>
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
@@ -3916,12 +4432,13 @@
       <c r="AC49" s="12"/>
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
-      <c r="AF49" s="5"/>
-    </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="5"/>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -3929,10 +4446,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="5"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
+      <c r="V50" s="4"/>
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
@@ -3942,11 +4456,14 @@
       <c r="AC50" s="12"/>
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
-      <c r="AF50" s="5"/>
-    </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="5"/>
+    </row>
+    <row r="51" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -3955,10 +4472,7 @@
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="5"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
+      <c r="V51" s="4"/>
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
@@ -3968,10 +4482,15 @@
       <c r="AC51" s="12"/>
       <c r="AD51" s="12"/>
       <c r="AE51" s="12"/>
-      <c r="AF51" s="5"/>
-    </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="5"/>
+    </row>
+    <row r="52" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -3979,10 +4498,7 @@
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="5"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
+      <c r="V52" s="4"/>
       <c r="W52" s="12"/>
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
@@ -3992,11 +4508,14 @@
       <c r="AC52" s="12"/>
       <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
-      <c r="AF52" s="5"/>
-    </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="5"/>
+    </row>
+    <row r="53" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -4005,10 +4524,7 @@
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="5"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
+      <c r="V53" s="4"/>
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
@@ -4018,12 +4534,13 @@
       <c r="AC53" s="12"/>
       <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
-      <c r="AF53" s="5"/>
-    </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="5"/>
+    </row>
+    <row r="54" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -4031,16 +4548,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="5"/>
-      <c r="J54" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" t="s">
-        <v>78</v>
-      </c>
-      <c r="S54" s="4"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
+      <c r="V54" s="4"/>
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
@@ -4050,11 +4558,14 @@
       <c r="AC54" s="12"/>
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
-      <c r="AF54" s="5"/>
-    </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="5"/>
+    </row>
+    <row r="55" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -4063,16 +4574,7 @@
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="5"/>
-      <c r="J55" t="s">
-        <v>4</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="S55" s="4"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
+      <c r="V55" s="4"/>
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
@@ -4082,11 +4584,14 @@
       <c r="AC55" s="12"/>
       <c r="AD55" s="12"/>
       <c r="AE55" s="12"/>
-      <c r="AF55" s="5"/>
-    </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="5"/>
+    </row>
+    <row r="56" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -4099,12 +4604,9 @@
         <v>4</v>
       </c>
       <c r="K56" t="s">
-        <v>79</v>
-      </c>
-      <c r="S56" s="4"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="V56" s="4"/>
       <c r="W56" s="12"/>
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
@@ -4114,11 +4616,14 @@
       <c r="AC56" s="12"/>
       <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>
-      <c r="AF56" s="5"/>
-    </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="5"/>
+    </row>
+    <row r="57" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -4130,13 +4635,10 @@
       <c r="J57" t="s">
         <v>4</v>
       </c>
-      <c r="K57" t="s">
-        <v>80</v>
-      </c>
-      <c r="S57" s="4"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
+      <c r="K57" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="V57" s="4"/>
       <c r="W57" s="12"/>
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
@@ -4146,30 +4648,29 @@
       <c r="AC57" s="12"/>
       <c r="AD57" s="12"/>
       <c r="AE57" s="12"/>
-      <c r="AF57" s="5"/>
-    </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="5"/>
+    </row>
+    <row r="58" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="5"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="3"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
+      <c r="J58" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" t="s">
+        <v>243</v>
+      </c>
+      <c r="V58" s="4"/>
       <c r="W58" s="12"/>
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
@@ -4179,32 +4680,29 @@
       <c r="AC58" s="12"/>
       <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
-      <c r="AF58" s="5"/>
-    </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="5"/>
+    </row>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59" s="12"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
       <c r="I59" s="5"/>
-      <c r="K59" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="5"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
+      <c r="J59" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" t="s">
+        <v>79</v>
+      </c>
+      <c r="V59" s="4"/>
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
@@ -4214,32 +4712,33 @@
       <c r="AC59" s="12"/>
       <c r="AD59" s="12"/>
       <c r="AE59" s="12"/>
-      <c r="AF59" s="5"/>
-    </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="10"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="5"/>
+    </row>
+    <row r="60" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="5"/>
-      <c r="K60" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="10"/>
-      <c r="S60" s="4"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
       <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
+      <c r="V60" s="4"/>
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
@@ -4249,23 +4748,35 @@
       <c r="AC60" s="12"/>
       <c r="AD60" s="12"/>
       <c r="AE60" s="12"/>
-      <c r="AF60" s="5"/>
-    </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="5"/>
+    </row>
+    <row r="61" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="5"/>
-      <c r="S61" s="4"/>
+      <c r="K61" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
       <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
+      <c r="V61" s="4"/>
       <c r="W61" s="12"/>
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
@@ -4275,21 +4786,35 @@
       <c r="AC61" s="12"/>
       <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
-      <c r="AF61" s="5"/>
-    </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="5"/>
+    </row>
+    <row r="62" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="5"/>
-      <c r="S62" s="4"/>
+      <c r="K62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
       <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
+      <c r="V62" s="4"/>
       <c r="W62" s="12"/>
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
@@ -4299,11 +4824,14 @@
       <c r="AC62" s="12"/>
       <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
-      <c r="AF62" s="5"/>
-    </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="5"/>
+    </row>
+    <row r="63" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -4312,16 +4840,7 @@
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="5"/>
-      <c r="J63" t="s">
-        <v>4</v>
-      </c>
-      <c r="K63" t="s">
-        <v>85</v>
-      </c>
-      <c r="S63" s="4"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
+      <c r="V63" s="4"/>
       <c r="W63" s="12"/>
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
@@ -4331,12 +4850,13 @@
       <c r="AC63" s="12"/>
       <c r="AD63" s="12"/>
       <c r="AE63" s="12"/>
-      <c r="AF63" s="5"/>
-    </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="5"/>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -4344,10 +4864,7 @@
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="5"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
+      <c r="V64" s="4"/>
       <c r="W64" s="12"/>
       <c r="X64" s="12"/>
       <c r="Y64" s="12"/>
@@ -4357,11 +4874,14 @@
       <c r="AC64" s="12"/>
       <c r="AD64" s="12"/>
       <c r="AE64" s="12"/>
-      <c r="AF64" s="5"/>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="5"/>
+    </row>
+    <row r="65" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -4374,12 +4894,9 @@
         <v>4</v>
       </c>
       <c r="K65" t="s">
-        <v>87</v>
-      </c>
-      <c r="S65" s="4"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="V65" s="4"/>
       <c r="W65" s="12"/>
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
@@ -4389,11 +4906,14 @@
       <c r="AC65" s="12"/>
       <c r="AD65" s="12"/>
       <c r="AE65" s="12"/>
-      <c r="AF65" s="5"/>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="5"/>
+    </row>
+    <row r="66" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -4402,10 +4922,7 @@
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="5"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
+      <c r="V66" s="4"/>
       <c r="W66" s="12"/>
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
@@ -4415,11 +4932,14 @@
       <c r="AC66" s="12"/>
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
-      <c r="AF66" s="5"/>
-    </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="5"/>
+    </row>
+    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -4428,10 +4948,13 @@
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="5"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
+      <c r="J67" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" t="s">
+        <v>86</v>
+      </c>
+      <c r="V67" s="4"/>
       <c r="W67" s="12"/>
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
@@ -4441,11 +4964,14 @@
       <c r="AC67" s="12"/>
       <c r="AD67" s="12"/>
       <c r="AE67" s="12"/>
-      <c r="AF67" s="5"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="5"/>
+    </row>
+    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -4454,10 +4980,7 @@
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="5"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="12"/>
+      <c r="V68" s="4"/>
       <c r="W68" s="12"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="12"/>
@@ -4467,11 +4990,14 @@
       <c r="AC68" s="12"/>
       <c r="AD68" s="12"/>
       <c r="AE68" s="12"/>
-      <c r="AF68" s="5"/>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="5"/>
+    </row>
+    <row r="69" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -4480,10 +5006,7 @@
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="5"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
+      <c r="V69" s="4"/>
       <c r="W69" s="12"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
@@ -4493,10 +5016,15 @@
       <c r="AC69" s="12"/>
       <c r="AD69" s="12"/>
       <c r="AE69" s="12"/>
-      <c r="AF69" s="5"/>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="5"/>
+    </row>
+    <row r="70" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -4504,10 +5032,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="5"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
+      <c r="V70" s="4"/>
       <c r="W70" s="12"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
@@ -4517,11 +5042,14 @@
       <c r="AC70" s="12"/>
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
-      <c r="AF70" s="5"/>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="5"/>
+    </row>
+    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -4530,10 +5058,7 @@
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="5"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="12"/>
+      <c r="V71" s="4"/>
       <c r="W71" s="12"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
@@ -4543,12 +5068,13 @@
       <c r="AC71" s="12"/>
       <c r="AD71" s="12"/>
       <c r="AE71" s="12"/>
-      <c r="AF71" s="5"/>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B72" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="5"/>
+    </row>
+    <row r="72" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -4556,16 +5082,7 @@
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="5"/>
-      <c r="J72" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" t="s">
-        <v>93</v>
-      </c>
-      <c r="S72" s="4"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="12"/>
+      <c r="V72" s="4"/>
       <c r="W72" s="12"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
@@ -4575,11 +5092,14 @@
       <c r="AC72" s="12"/>
       <c r="AD72" s="12"/>
       <c r="AE72" s="12"/>
-      <c r="AF72" s="5"/>
-    </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="5"/>
+    </row>
+    <row r="73" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -4588,10 +5108,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="5"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
+      <c r="V73" s="4"/>
       <c r="W73" s="12"/>
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
@@ -4601,11 +5118,14 @@
       <c r="AC73" s="12"/>
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
-      <c r="AF73" s="5"/>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="5"/>
+    </row>
+    <row r="74" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -4614,10 +5134,13 @@
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="5"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
+      <c r="J74" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" t="s">
+        <v>92</v>
+      </c>
+      <c r="V74" s="4"/>
       <c r="W74" s="12"/>
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
@@ -4627,11 +5150,14 @@
       <c r="AC74" s="12"/>
       <c r="AD74" s="12"/>
       <c r="AE74" s="12"/>
-      <c r="AF74" s="5"/>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="5"/>
+    </row>
+    <row r="75" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -4640,10 +5166,7 @@
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="5"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
+      <c r="V75" s="4"/>
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
@@ -4653,11 +5176,14 @@
       <c r="AC75" s="12"/>
       <c r="AD75" s="12"/>
       <c r="AE75" s="12"/>
-      <c r="AF75" s="5"/>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="5"/>
+    </row>
+    <row r="76" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -4666,10 +5192,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="5"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="12"/>
-      <c r="U76" s="12"/>
-      <c r="V76" s="12"/>
+      <c r="V76" s="4"/>
       <c r="W76" s="12"/>
       <c r="X76" s="12"/>
       <c r="Y76" s="12"/>
@@ -4679,11 +5202,14 @@
       <c r="AC76" s="12"/>
       <c r="AD76" s="12"/>
       <c r="AE76" s="12"/>
-      <c r="AF76" s="5"/>
-    </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF76" s="12"/>
+      <c r="AG76" s="12"/>
+      <c r="AH76" s="12"/>
+      <c r="AI76" s="5"/>
+    </row>
+    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -4692,10 +5218,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="5"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="12"/>
-      <c r="U77" s="12"/>
-      <c r="V77" s="12"/>
+      <c r="V77" s="4"/>
       <c r="W77" s="12"/>
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
@@ -4705,10 +5228,15 @@
       <c r="AC77" s="12"/>
       <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
-      <c r="AF77" s="5"/>
-    </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
+      <c r="AF77" s="12"/>
+      <c r="AG77" s="12"/>
+      <c r="AH77" s="12"/>
+      <c r="AI77" s="5"/>
+    </row>
+    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -4716,10 +5244,7 @@
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="5"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="12"/>
+      <c r="V78" s="4"/>
       <c r="W78" s="12"/>
       <c r="X78" s="12"/>
       <c r="Y78" s="12"/>
@@ -4729,11 +5254,14 @@
       <c r="AC78" s="12"/>
       <c r="AD78" s="12"/>
       <c r="AE78" s="12"/>
-      <c r="AF78" s="5"/>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF78" s="12"/>
+      <c r="AG78" s="12"/>
+      <c r="AH78" s="12"/>
+      <c r="AI78" s="5"/>
+    </row>
+    <row r="79" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -4742,10 +5270,7 @@
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="5"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="12"/>
-      <c r="U79" s="12"/>
-      <c r="V79" s="12"/>
+      <c r="V79" s="4"/>
       <c r="W79" s="12"/>
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
@@ -4755,12 +5280,13 @@
       <c r="AC79" s="12"/>
       <c r="AD79" s="12"/>
       <c r="AE79" s="12"/>
-      <c r="AF79" s="5"/>
-    </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="AF79" s="12"/>
+      <c r="AG79" s="12"/>
+      <c r="AH79" s="12"/>
+      <c r="AI79" s="5"/>
+    </row>
+    <row r="80" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
@@ -4768,10 +5294,7 @@
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="5"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="12"/>
-      <c r="U80" s="12"/>
-      <c r="V80" s="12"/>
+      <c r="V80" s="4"/>
       <c r="W80" s="12"/>
       <c r="X80" s="12"/>
       <c r="Y80" s="12"/>
@@ -4781,11 +5304,14 @@
       <c r="AC80" s="12"/>
       <c r="AD80" s="12"/>
       <c r="AE80" s="12"/>
-      <c r="AF80" s="5"/>
-    </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF80" s="12"/>
+      <c r="AG80" s="12"/>
+      <c r="AH80" s="12"/>
+      <c r="AI80" s="5"/>
+    </row>
+    <row r="81" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -4794,10 +5320,7 @@
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="5"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="12"/>
-      <c r="U81" s="12"/>
-      <c r="V81" s="12"/>
+      <c r="V81" s="4"/>
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
@@ -4807,11 +5330,14 @@
       <c r="AC81" s="12"/>
       <c r="AD81" s="12"/>
       <c r="AE81" s="12"/>
-      <c r="AF81" s="5"/>
-    </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF81" s="12"/>
+      <c r="AG81" s="12"/>
+      <c r="AH81" s="12"/>
+      <c r="AI81" s="5"/>
+    </row>
+    <row r="82" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -4820,10 +5346,7 @@
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="5"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="12"/>
-      <c r="U82" s="12"/>
-      <c r="V82" s="12"/>
+      <c r="V82" s="4"/>
       <c r="W82" s="12"/>
       <c r="X82" s="12"/>
       <c r="Y82" s="12"/>
@@ -4833,10 +5356,15 @@
       <c r="AC82" s="12"/>
       <c r="AD82" s="12"/>
       <c r="AE82" s="12"/>
-      <c r="AF82" s="5"/>
-    </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
+      <c r="AF82" s="12"/>
+      <c r="AG82" s="12"/>
+      <c r="AH82" s="12"/>
+      <c r="AI82" s="5"/>
+    </row>
+    <row r="83" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
@@ -4844,10 +5372,7 @@
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="I83" s="5"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="12"/>
-      <c r="U83" s="12"/>
-      <c r="V83" s="12"/>
+      <c r="V83" s="4"/>
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
       <c r="Y83" s="12"/>
@@ -4857,11 +5382,14 @@
       <c r="AC83" s="12"/>
       <c r="AD83" s="12"/>
       <c r="AE83" s="12"/>
-      <c r="AF83" s="5"/>
-    </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF83" s="12"/>
+      <c r="AG83" s="12"/>
+      <c r="AH83" s="12"/>
+      <c r="AI83" s="5"/>
+    </row>
+    <row r="84" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -4870,10 +5398,7 @@
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="5"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="12"/>
-      <c r="U84" s="12"/>
-      <c r="V84" s="12"/>
+      <c r="V84" s="4"/>
       <c r="W84" s="12"/>
       <c r="X84" s="12"/>
       <c r="Y84" s="12"/>
@@ -4883,12 +5408,13 @@
       <c r="AC84" s="12"/>
       <c r="AD84" s="12"/>
       <c r="AE84" s="12"/>
-      <c r="AF84" s="5"/>
-    </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="AF84" s="12"/>
+      <c r="AG84" s="12"/>
+      <c r="AH84" s="12"/>
+      <c r="AI84" s="5"/>
+    </row>
+    <row r="85" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
@@ -4896,10 +5422,7 @@
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="5"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="12"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="12"/>
+      <c r="V85" s="4"/>
       <c r="W85" s="12"/>
       <c r="X85" s="12"/>
       <c r="Y85" s="12"/>
@@ -4909,11 +5432,14 @@
       <c r="AC85" s="12"/>
       <c r="AD85" s="12"/>
       <c r="AE85" s="12"/>
-      <c r="AF85" s="5"/>
-    </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF85" s="12"/>
+      <c r="AG85" s="12"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="5"/>
+    </row>
+    <row r="86" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -4922,10 +5448,7 @@
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="5"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="12"/>
-      <c r="U86" s="12"/>
-      <c r="V86" s="12"/>
+      <c r="V86" s="4"/>
       <c r="W86" s="12"/>
       <c r="X86" s="12"/>
       <c r="Y86" s="12"/>
@@ -4935,11 +5458,14 @@
       <c r="AC86" s="12"/>
       <c r="AD86" s="12"/>
       <c r="AE86" s="12"/>
-      <c r="AF86" s="5"/>
-    </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF86" s="12"/>
+      <c r="AG86" s="12"/>
+      <c r="AH86" s="12"/>
+      <c r="AI86" s="5"/>
+    </row>
+    <row r="87" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -4948,10 +5474,7 @@
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="5"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="12"/>
-      <c r="U87" s="12"/>
-      <c r="V87" s="12"/>
+      <c r="V87" s="4"/>
       <c r="W87" s="12"/>
       <c r="X87" s="12"/>
       <c r="Y87" s="12"/>
@@ -4961,10 +5484,15 @@
       <c r="AC87" s="12"/>
       <c r="AD87" s="12"/>
       <c r="AE87" s="12"/>
-      <c r="AF87" s="5"/>
-    </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
+      <c r="AF87" s="12"/>
+      <c r="AG87" s="12"/>
+      <c r="AH87" s="12"/>
+      <c r="AI87" s="5"/>
+    </row>
+    <row r="88" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
@@ -4972,10 +5500,7 @@
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="I88" s="5"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="12"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12"/>
+      <c r="V88" s="4"/>
       <c r="W88" s="12"/>
       <c r="X88" s="12"/>
       <c r="Y88" s="12"/>
@@ -4985,11 +5510,14 @@
       <c r="AC88" s="12"/>
       <c r="AD88" s="12"/>
       <c r="AE88" s="12"/>
-      <c r="AF88" s="5"/>
-    </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF88" s="12"/>
+      <c r="AG88" s="12"/>
+      <c r="AH88" s="12"/>
+      <c r="AI88" s="5"/>
+    </row>
+    <row r="89" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -4998,25 +5526,23 @@
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="5"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="8"/>
-      <c r="Y89" s="8"/>
-      <c r="Z89" s="8"/>
-      <c r="AA89" s="8"/>
-      <c r="AB89" s="8"/>
-      <c r="AC89" s="8"/>
-      <c r="AD89" s="8"/>
-      <c r="AE89" s="8"/>
-      <c r="AF89" s="10"/>
-    </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B90" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="V89" s="4"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="12"/>
+      <c r="AB89" s="12"/>
+      <c r="AC89" s="12"/>
+      <c r="AD89" s="12"/>
+      <c r="AE89" s="12"/>
+      <c r="AF89" s="12"/>
+      <c r="AG89" s="12"/>
+      <c r="AH89" s="12"/>
+      <c r="AI89" s="5"/>
+    </row>
+    <row r="90" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
@@ -5024,10 +5550,24 @@
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V90" s="4"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="12"/>
+      <c r="AC90" s="12"/>
+      <c r="AD90" s="12"/>
+      <c r="AE90" s="12"/>
+      <c r="AF90" s="12"/>
+      <c r="AG90" s="12"/>
+      <c r="AH90" s="12"/>
+      <c r="AI90" s="5"/>
+    </row>
+    <row r="91" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -5036,10 +5576,24 @@
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V91" s="7"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8"/>
+      <c r="AB91" s="8"/>
+      <c r="AC91" s="8"/>
+      <c r="AD91" s="8"/>
+      <c r="AE91" s="8"/>
+      <c r="AF91" s="8"/>
+      <c r="AG91" s="8"/>
+      <c r="AH91" s="8"/>
+      <c r="AI91" s="10"/>
+    </row>
+    <row r="92" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
@@ -5049,9 +5603,9 @@
       <c r="H92" s="12"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -5060,16 +5614,10 @@
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="5"/>
-      <c r="J93" t="s">
-        <v>4</v>
-      </c>
-      <c r="K93" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -5079,9 +5627,9 @@
       <c r="H94" s="12"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
@@ -5090,10 +5638,16 @@
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
@@ -5102,16 +5656,10 @@
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
       <c r="I96" s="5"/>
-      <c r="J96" t="s">
-        <v>4</v>
-      </c>
-      <c r="K96" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
@@ -5120,16 +5668,10 @@
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="5"/>
-      <c r="J97" t="s">
-        <v>4</v>
-      </c>
-      <c r="K97" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
@@ -5138,9 +5680,17 @@
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B99" s="4"/>
+      <c r="J98" t="s">
+        <v>4</v>
+      </c>
+      <c r="K98" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
@@ -5148,10 +5698,16 @@
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>4</v>
+      </c>
+      <c r="K99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -5161,10 +5717,8 @@
       <c r="H100" s="12"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="s">
-        <v>54</v>
-      </c>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
@@ -5173,9 +5727,9 @@
       <c r="H101" s="12"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
@@ -5185,87 +5739,72 @@
       <c r="H102" s="12"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B103" s="7" t="s">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="10"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="3"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-      <c r="T108" s="5"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="5"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="10"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
@@ -5285,8 +5824,11 @@
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
       <c r="T110" s="5"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
@@ -5306,8 +5848,11 @@
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
       <c r="T111" s="5"/>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
@@ -5327,8 +5872,11 @@
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
       <c r="T112" s="5"/>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
@@ -5348,8 +5896,11 @@
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
       <c r="T113" s="5"/>
-    </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+    </row>
+    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
@@ -5369,8 +5920,11 @@
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
       <c r="T114" s="5"/>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+    </row>
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B115" s="4"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
@@ -5390,8 +5944,11 @@
       <c r="R115" s="12"/>
       <c r="S115" s="12"/>
       <c r="T115" s="5"/>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="12"/>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
@@ -5411,8 +5968,11 @@
       <c r="R116" s="12"/>
       <c r="S116" s="12"/>
       <c r="T116" s="5"/>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B117" s="4"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
@@ -5432,8 +5992,11 @@
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
       <c r="T117" s="5"/>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+    </row>
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
@@ -5453,8 +6016,11 @@
       <c r="R118" s="12"/>
       <c r="S118" s="12"/>
       <c r="T118" s="5"/>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+    </row>
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
@@ -5474,8 +6040,11 @@
       <c r="R119" s="12"/>
       <c r="S119" s="12"/>
       <c r="T119" s="5"/>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+    </row>
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
@@ -5495,8 +6064,11 @@
       <c r="R120" s="12"/>
       <c r="S120" s="12"/>
       <c r="T120" s="5"/>
-    </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+    </row>
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
@@ -5516,8 +6088,11 @@
       <c r="R121" s="12"/>
       <c r="S121" s="12"/>
       <c r="T121" s="5"/>
-    </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12"/>
+    </row>
+    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
@@ -5537,8 +6112,11 @@
       <c r="R122" s="12"/>
       <c r="S122" s="12"/>
       <c r="T122" s="5"/>
-    </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U122" s="12"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="12"/>
+    </row>
+    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
@@ -5558,8 +6136,11 @@
       <c r="R123" s="12"/>
       <c r="S123" s="12"/>
       <c r="T123" s="5"/>
-    </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="12"/>
+    </row>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
@@ -5579,8 +6160,11 @@
       <c r="R124" s="12"/>
       <c r="S124" s="12"/>
       <c r="T124" s="5"/>
-    </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+    </row>
+    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
@@ -5600,8 +6184,11 @@
       <c r="R125" s="12"/>
       <c r="S125" s="12"/>
       <c r="T125" s="5"/>
-    </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U125" s="12"/>
+      <c r="V125" s="12"/>
+      <c r="W125" s="12"/>
+    </row>
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
@@ -5621,8 +6208,11 @@
       <c r="R126" s="12"/>
       <c r="S126" s="12"/>
       <c r="T126" s="5"/>
-    </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U126" s="12"/>
+      <c r="V126" s="12"/>
+      <c r="W126" s="12"/>
+    </row>
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
@@ -5642,8 +6232,11 @@
       <c r="R127" s="12"/>
       <c r="S127" s="12"/>
       <c r="T127" s="5"/>
-    </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="12"/>
+    </row>
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
@@ -5663,8 +6256,11 @@
       <c r="R128" s="12"/>
       <c r="S128" s="12"/>
       <c r="T128" s="5"/>
-    </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U128" s="12"/>
+      <c r="V128" s="12"/>
+      <c r="W128" s="12"/>
+    </row>
+    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
@@ -5684,8 +6280,11 @@
       <c r="R129" s="12"/>
       <c r="S129" s="12"/>
       <c r="T129" s="5"/>
-    </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U129" s="12"/>
+      <c r="V129" s="12"/>
+      <c r="W129" s="12"/>
+    </row>
+    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B130" s="4"/>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
@@ -5705,8 +6304,11 @@
       <c r="R130" s="12"/>
       <c r="S130" s="12"/>
       <c r="T130" s="5"/>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U130" s="12"/>
+      <c r="V130" s="12"/>
+      <c r="W130" s="12"/>
+    </row>
+    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
@@ -5726,8 +6328,11 @@
       <c r="R131" s="12"/>
       <c r="S131" s="12"/>
       <c r="T131" s="5"/>
-    </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U131" s="12"/>
+      <c r="V131" s="12"/>
+      <c r="W131" s="12"/>
+    </row>
+    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B132" s="4"/>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
@@ -5747,8 +6352,11 @@
       <c r="R132" s="12"/>
       <c r="S132" s="12"/>
       <c r="T132" s="5"/>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U132" s="12"/>
+      <c r="V132" s="12"/>
+      <c r="W132" s="12"/>
+    </row>
+    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
@@ -5768,8 +6376,11 @@
       <c r="R133" s="12"/>
       <c r="S133" s="12"/>
       <c r="T133" s="5"/>
-    </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U133" s="12"/>
+      <c r="V133" s="12"/>
+      <c r="W133" s="12"/>
+    </row>
+    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B134" s="4"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
@@ -5789,8 +6400,11 @@
       <c r="R134" s="12"/>
       <c r="S134" s="12"/>
       <c r="T134" s="5"/>
-    </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U134" s="12"/>
+      <c r="V134" s="12"/>
+      <c r="W134" s="12"/>
+    </row>
+    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B135" s="4"/>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
@@ -5810,8 +6424,11 @@
       <c r="R135" s="12"/>
       <c r="S135" s="12"/>
       <c r="T135" s="5"/>
-    </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U135" s="12"/>
+      <c r="V135" s="12"/>
+      <c r="W135" s="12"/>
+    </row>
+    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
@@ -5831,8 +6448,11 @@
       <c r="R136" s="12"/>
       <c r="S136" s="12"/>
       <c r="T136" s="5"/>
-    </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U136" s="12"/>
+      <c r="V136" s="12"/>
+      <c r="W136" s="12"/>
+    </row>
+    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B137" s="4"/>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
@@ -5852,8 +6472,11 @@
       <c r="R137" s="12"/>
       <c r="S137" s="12"/>
       <c r="T137" s="5"/>
-    </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U137" s="12"/>
+      <c r="V137" s="12"/>
+      <c r="W137" s="12"/>
+    </row>
+    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
@@ -5873,11 +6496,12 @@
       <c r="R138" s="12"/>
       <c r="S138" s="12"/>
       <c r="T138" s="5"/>
-    </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B139" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="U138" s="12"/>
+      <c r="V138" s="12"/>
+      <c r="W138" s="12"/>
+    </row>
+    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
@@ -5896,8 +6520,11 @@
       <c r="R139" s="12"/>
       <c r="S139" s="12"/>
       <c r="T139" s="5"/>
-    </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U139" s="12"/>
+      <c r="V139" s="12"/>
+      <c r="W139" s="12"/>
+    </row>
+    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
@@ -5917,9 +6544,14 @@
       <c r="R140" s="12"/>
       <c r="S140" s="12"/>
       <c r="T140" s="5"/>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B141" s="4"/>
+      <c r="U140" s="12"/>
+      <c r="V140" s="12"/>
+      <c r="W140" s="12"/>
+    </row>
+    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
@@ -5938,8 +6570,11 @@
       <c r="R141" s="12"/>
       <c r="S141" s="12"/>
       <c r="T141" s="5"/>
-    </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U141" s="12"/>
+      <c r="V141" s="12"/>
+      <c r="W141" s="12"/>
+    </row>
+    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
@@ -5959,8 +6594,11 @@
       <c r="R142" s="12"/>
       <c r="S142" s="12"/>
       <c r="T142" s="5"/>
-    </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U142" s="12"/>
+      <c r="V142" s="12"/>
+      <c r="W142" s="12"/>
+    </row>
+    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
@@ -5980,8 +6618,11 @@
       <c r="R143" s="12"/>
       <c r="S143" s="12"/>
       <c r="T143" s="5"/>
-    </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U143" s="12"/>
+      <c r="V143" s="12"/>
+      <c r="W143" s="12"/>
+    </row>
+    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
@@ -6001,8 +6642,11 @@
       <c r="R144" s="12"/>
       <c r="S144" s="12"/>
       <c r="T144" s="5"/>
-    </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U144" s="12"/>
+      <c r="V144" s="12"/>
+      <c r="W144" s="12"/>
+    </row>
+    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
@@ -6022,8 +6666,11 @@
       <c r="R145" s="12"/>
       <c r="S145" s="12"/>
       <c r="T145" s="5"/>
-    </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U145" s="12"/>
+      <c r="V145" s="12"/>
+      <c r="W145" s="12"/>
+    </row>
+    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
@@ -6043,8 +6690,11 @@
       <c r="R146" s="12"/>
       <c r="S146" s="12"/>
       <c r="T146" s="5"/>
-    </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U146" s="12"/>
+      <c r="V146" s="12"/>
+      <c r="W146" s="12"/>
+    </row>
+    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
@@ -6064,8 +6714,11 @@
       <c r="R147" s="12"/>
       <c r="S147" s="12"/>
       <c r="T147" s="5"/>
-    </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U147" s="12"/>
+      <c r="V147" s="12"/>
+      <c r="W147" s="12"/>
+    </row>
+    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
@@ -6085,8 +6738,11 @@
       <c r="R148" s="12"/>
       <c r="S148" s="12"/>
       <c r="T148" s="5"/>
-    </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U148" s="12"/>
+      <c r="V148" s="12"/>
+      <c r="W148" s="12"/>
+    </row>
+    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
@@ -6106,8 +6762,11 @@
       <c r="R149" s="12"/>
       <c r="S149" s="12"/>
       <c r="T149" s="5"/>
-    </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U149" s="12"/>
+      <c r="V149" s="12"/>
+      <c r="W149" s="12"/>
+    </row>
+    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
@@ -6127,8 +6786,11 @@
       <c r="R150" s="12"/>
       <c r="S150" s="12"/>
       <c r="T150" s="5"/>
-    </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U150" s="12"/>
+      <c r="V150" s="12"/>
+      <c r="W150" s="12"/>
+    </row>
+    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
@@ -6148,8 +6810,11 @@
       <c r="R151" s="12"/>
       <c r="S151" s="12"/>
       <c r="T151" s="5"/>
-    </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U151" s="12"/>
+      <c r="V151" s="12"/>
+      <c r="W151" s="12"/>
+    </row>
+    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
@@ -6169,8 +6834,11 @@
       <c r="R152" s="12"/>
       <c r="S152" s="12"/>
       <c r="T152" s="5"/>
-    </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U152" s="12"/>
+      <c r="V152" s="12"/>
+      <c r="W152" s="12"/>
+    </row>
+    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
@@ -6190,8 +6858,11 @@
       <c r="R153" s="12"/>
       <c r="S153" s="12"/>
       <c r="T153" s="5"/>
-    </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U153" s="12"/>
+      <c r="V153" s="12"/>
+      <c r="W153" s="12"/>
+    </row>
+    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
@@ -6211,8 +6882,11 @@
       <c r="R154" s="12"/>
       <c r="S154" s="12"/>
       <c r="T154" s="5"/>
-    </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U154" s="12"/>
+      <c r="V154" s="12"/>
+      <c r="W154" s="12"/>
+    </row>
+    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
@@ -6232,8 +6906,11 @@
       <c r="R155" s="12"/>
       <c r="S155" s="12"/>
       <c r="T155" s="5"/>
-    </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U155" s="12"/>
+      <c r="V155" s="12"/>
+      <c r="W155" s="12"/>
+    </row>
+    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
@@ -6253,8 +6930,11 @@
       <c r="R156" s="12"/>
       <c r="S156" s="12"/>
       <c r="T156" s="5"/>
-    </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U156" s="12"/>
+      <c r="V156" s="12"/>
+      <c r="W156" s="12"/>
+    </row>
+    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
@@ -6274,8 +6954,11 @@
       <c r="R157" s="12"/>
       <c r="S157" s="12"/>
       <c r="T157" s="5"/>
-    </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U157" s="12"/>
+      <c r="V157" s="12"/>
+      <c r="W157" s="12"/>
+    </row>
+    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
@@ -6295,8 +6978,11 @@
       <c r="R158" s="12"/>
       <c r="S158" s="12"/>
       <c r="T158" s="5"/>
-    </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U158" s="12"/>
+      <c r="V158" s="12"/>
+      <c r="W158" s="12"/>
+    </row>
+    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
@@ -6316,8 +7002,11 @@
       <c r="R159" s="12"/>
       <c r="S159" s="12"/>
       <c r="T159" s="5"/>
-    </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U159" s="12"/>
+      <c r="V159" s="12"/>
+      <c r="W159" s="12"/>
+    </row>
+    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
@@ -6337,8 +7026,11 @@
       <c r="R160" s="12"/>
       <c r="S160" s="12"/>
       <c r="T160" s="5"/>
-    </row>
-    <row r="161" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U160" s="12"/>
+      <c r="V160" s="12"/>
+      <c r="W160" s="12"/>
+    </row>
+    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
@@ -6358,8 +7050,11 @@
       <c r="R161" s="12"/>
       <c r="S161" s="12"/>
       <c r="T161" s="5"/>
-    </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U161" s="12"/>
+      <c r="V161" s="12"/>
+      <c r="W161" s="12"/>
+    </row>
+    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B162" s="4"/>
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
@@ -6379,8 +7074,11 @@
       <c r="R162" s="12"/>
       <c r="S162" s="12"/>
       <c r="T162" s="5"/>
-    </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U162" s="12"/>
+      <c r="V162" s="12"/>
+      <c r="W162" s="12"/>
+    </row>
+    <row r="163" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B163" s="4"/>
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
@@ -6400,8 +7098,11 @@
       <c r="R163" s="12"/>
       <c r="S163" s="12"/>
       <c r="T163" s="5"/>
-    </row>
-    <row r="164" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U163" s="12"/>
+      <c r="V163" s="12"/>
+      <c r="W163" s="12"/>
+    </row>
+    <row r="164" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B164" s="4"/>
       <c r="C164" s="12"/>
       <c r="D164" s="12"/>
@@ -6421,8 +7122,11 @@
       <c r="R164" s="12"/>
       <c r="S164" s="12"/>
       <c r="T164" s="5"/>
-    </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U164" s="12"/>
+      <c r="V164" s="12"/>
+      <c r="W164" s="12"/>
+    </row>
+    <row r="165" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
       <c r="C165" s="12"/>
       <c r="D165" s="12"/>
@@ -6442,8 +7146,11 @@
       <c r="R165" s="12"/>
       <c r="S165" s="12"/>
       <c r="T165" s="5"/>
-    </row>
-    <row r="166" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U165" s="12"/>
+      <c r="V165" s="12"/>
+      <c r="W165" s="12"/>
+    </row>
+    <row r="166" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
@@ -6463,8 +7170,11 @@
       <c r="R166" s="12"/>
       <c r="S166" s="12"/>
       <c r="T166" s="5"/>
-    </row>
-    <row r="167" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U166" s="12"/>
+      <c r="V166" s="12"/>
+      <c r="W166" s="12"/>
+    </row>
+    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
@@ -6484,27 +7194,81 @@
       <c r="R167" s="12"/>
       <c r="S167" s="12"/>
       <c r="T167" s="5"/>
-    </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B168" s="7"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
-      <c r="L168" s="8"/>
-      <c r="M168" s="8"/>
-      <c r="N168" s="8"/>
-      <c r="O168" s="8"/>
-      <c r="P168" s="8"/>
-      <c r="Q168" s="8"/>
-      <c r="R168" s="8"/>
-      <c r="S168" s="8"/>
-      <c r="T168" s="10"/>
+      <c r="U167" s="12"/>
+      <c r="V167" s="12"/>
+      <c r="W167" s="12"/>
+    </row>
+    <row r="168" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B168" s="4"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="12"/>
+      <c r="S168" s="12"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="12"/>
+      <c r="V168" s="12"/>
+      <c r="W168" s="12"/>
+    </row>
+    <row r="169" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B169" s="4"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="12"/>
+      <c r="S169" s="12"/>
+      <c r="T169" s="5"/>
+      <c r="U169" s="12"/>
+      <c r="V169" s="12"/>
+      <c r="W169" s="12"/>
+    </row>
+    <row r="170" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B170" s="7"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="8"/>
+      <c r="N170" s="8"/>
+      <c r="O170" s="8"/>
+      <c r="P170" s="8"/>
+      <c r="Q170" s="8"/>
+      <c r="R170" s="8"/>
+      <c r="S170" s="8"/>
+      <c r="T170" s="10"/>
+      <c r="U170" s="12"/>
+      <c r="V170" s="12"/>
+      <c r="W170" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6517,8 +7281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E71A3BF-81E2-4498-88FA-4FD1745FF8EE}">
   <dimension ref="A4:AT236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6568,7 +7332,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" t="s">
@@ -6615,7 +7379,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:46" x14ac:dyDescent="0.25">
@@ -6634,7 +7398,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
       <c r="AC17" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.25">
@@ -6809,7 +7573,7 @@
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -6875,7 +7639,7 @@
     </row>
     <row r="25" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -6909,7 +7673,7 @@
     </row>
     <row r="26" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -6943,7 +7707,7 @@
     </row>
     <row r="27" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -6977,7 +7741,7 @@
     </row>
     <row r="28" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -7011,7 +7775,7 @@
     </row>
     <row r="29" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -7045,7 +7809,7 @@
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -7079,7 +7843,7 @@
     </row>
     <row r="31" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -7247,7 +8011,7 @@
     </row>
     <row r="36" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -7281,7 +8045,7 @@
     </row>
     <row r="37" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -7315,7 +8079,7 @@
     </row>
     <row r="38" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -7349,7 +8113,7 @@
     </row>
     <row r="39" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -7366,7 +8130,7 @@
         <v>4</v>
       </c>
       <c r="O39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC39" s="4"/>
       <c r="AD39" s="12"/>
@@ -7389,7 +8153,7 @@
     </row>
     <row r="40" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -7423,7 +8187,7 @@
     </row>
     <row r="41" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -7457,7 +8221,7 @@
     </row>
     <row r="42" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -7474,7 +8238,7 @@
         <v>4</v>
       </c>
       <c r="O42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC42" s="4"/>
       <c r="AD42" s="12"/>
@@ -7497,7 +8261,7 @@
     </row>
     <row r="43" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -7531,7 +8295,7 @@
     </row>
     <row r="44" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -7565,7 +8329,7 @@
     </row>
     <row r="45" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -7599,7 +8363,7 @@
     </row>
     <row r="46" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -7633,7 +8397,7 @@
     </row>
     <row r="47" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -7667,7 +8431,7 @@
     </row>
     <row r="48" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -7701,7 +8465,7 @@
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -7735,7 +8499,7 @@
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -7769,7 +8533,7 @@
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -7803,7 +8567,7 @@
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -7837,7 +8601,7 @@
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -7911,7 +8675,7 @@
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC56" s="4"/>
       <c r="AD56" s="12"/>
@@ -8230,7 +8994,7 @@
     </row>
     <row r="67" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -8260,7 +9024,7 @@
     </row>
     <row r="68" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -8348,7 +9112,7 @@
     </row>
     <row r="71" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -8378,7 +9142,7 @@
     </row>
     <row r="72" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -8466,7 +9230,7 @@
     </row>
     <row r="75" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -8496,7 +9260,7 @@
     </row>
     <row r="76" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -8526,7 +9290,7 @@
     </row>
     <row r="77" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -8626,7 +9390,7 @@
     </row>
     <row r="81" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -8638,7 +9402,7 @@
     </row>
     <row r="82" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -8648,12 +9412,12 @@
       <c r="H82" s="12"/>
       <c r="I82" s="5"/>
       <c r="AC82" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -8713,7 +9477,7 @@
     </row>
     <row r="85" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -8726,7 +9490,7 @@
         <v>4</v>
       </c>
       <c r="K85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC85" s="4"/>
       <c r="AD85" s="12"/>
@@ -8762,7 +9526,7 @@
         <v>4</v>
       </c>
       <c r="K86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AC86" s="4"/>
       <c r="AD86" s="12"/>
@@ -8785,7 +9549,7 @@
     </row>
     <row r="87" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -8873,7 +9637,7 @@
     </row>
     <row r="90" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -8903,7 +9667,7 @@
     </row>
     <row r="91" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -8933,7 +9697,7 @@
     </row>
     <row r="92" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
@@ -8946,7 +9710,7 @@
         <v>4</v>
       </c>
       <c r="K92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC92" s="4"/>
       <c r="AD92" s="12"/>
@@ -8969,7 +9733,7 @@
     </row>
     <row r="93" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -9057,7 +9821,7 @@
     </row>
     <row r="96" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
@@ -9087,7 +9851,7 @@
     </row>
     <row r="97" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
@@ -9147,7 +9911,7 @@
     </row>
     <row r="99" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
@@ -9160,7 +9924,7 @@
         <v>4</v>
       </c>
       <c r="K99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC99" s="4"/>
       <c r="AD99" s="12"/>
@@ -9241,7 +10005,7 @@
     </row>
     <row r="102" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
@@ -9271,7 +10035,7 @@
     </row>
     <row r="103" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
@@ -9284,7 +10048,7 @@
         <v>4</v>
       </c>
       <c r="K103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC103" s="4"/>
       <c r="AD103" s="12"/>
@@ -9365,7 +10129,7 @@
     </row>
     <row r="106" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
@@ -9395,7 +10159,7 @@
     </row>
     <row r="107" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
@@ -9438,7 +10202,7 @@
         <v>4</v>
       </c>
       <c r="K108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC108" s="4"/>
       <c r="AD108" s="12"/>
@@ -9519,7 +10283,7 @@
     </row>
     <row r="111" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
@@ -9549,7 +10313,7 @@
     </row>
     <row r="112" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
@@ -9637,7 +10401,7 @@
     </row>
     <row r="115" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
@@ -9667,7 +10431,7 @@
     </row>
     <row r="116" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
@@ -9697,7 +10461,7 @@
     </row>
     <row r="117" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
@@ -9727,7 +10491,7 @@
     </row>
     <row r="118" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B118" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
@@ -9757,7 +10521,7 @@
     </row>
     <row r="119" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
@@ -9787,7 +10551,7 @@
     </row>
     <row r="120" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B120" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
@@ -9830,7 +10594,7 @@
         <v>4</v>
       </c>
       <c r="K121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC121" s="4"/>
       <c r="AD121" s="12"/>
@@ -9911,7 +10675,7 @@
     </row>
     <row r="124" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
@@ -9971,7 +10735,7 @@
     </row>
     <row r="126" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
@@ -10059,7 +10823,7 @@
     </row>
     <row r="129" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B129" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
@@ -10119,7 +10883,7 @@
     </row>
     <row r="131" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B131" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
@@ -10207,7 +10971,7 @@
     </row>
     <row r="134" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
@@ -10237,7 +11001,7 @@
     </row>
     <row r="135" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
@@ -10267,7 +11031,7 @@
     </row>
     <row r="136" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
@@ -10280,7 +11044,7 @@
         <v>4</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -10312,7 +11076,7 @@
     </row>
     <row r="137" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
@@ -10322,7 +11086,7 @@
       <c r="H137" s="12"/>
       <c r="I137" s="5"/>
       <c r="K137" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
@@ -10382,7 +11146,7 @@
     </row>
     <row r="139" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
@@ -10412,7 +11176,7 @@
     </row>
     <row r="140" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
@@ -10425,7 +11189,7 @@
         <v>4</v>
       </c>
       <c r="K140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC140" s="4"/>
       <c r="AD140" s="12"/>
@@ -10448,7 +11212,7 @@
     </row>
     <row r="141" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B141" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
@@ -10506,7 +11270,7 @@
     </row>
     <row r="143" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
@@ -10536,7 +11300,7 @@
     </row>
     <row r="144" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B144" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
@@ -10566,7 +11330,7 @@
     </row>
     <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
@@ -10596,7 +11360,7 @@
     </row>
     <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B146" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
@@ -10654,7 +11418,7 @@
     </row>
     <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B148" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
@@ -10684,7 +11448,7 @@
     </row>
     <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
@@ -10697,7 +11461,7 @@
         <v>4</v>
       </c>
       <c r="K149" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC149" s="4"/>
       <c r="AD149" s="12"/>
@@ -10720,7 +11484,7 @@
     </row>
     <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
@@ -10778,7 +11542,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
@@ -10791,7 +11555,7 @@
         <v>4</v>
       </c>
       <c r="K152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC152" s="4"/>
       <c r="AD152" s="12"/>
@@ -10814,7 +11578,7 @@
     </row>
     <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B153" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
@@ -10844,7 +11608,7 @@
     </row>
     <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B154" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
@@ -10874,7 +11638,7 @@
     </row>
     <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B155" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
@@ -10974,7 +11738,7 @@
     </row>
     <row r="159" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC159" s="4"/>
       <c r="AD159" s="12"/>
@@ -11039,7 +11803,7 @@
     <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161" s="24"/>
       <c r="B161" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -11738,7 +12502,7 @@
     <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178" s="24"/>
       <c r="B178" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -11781,7 +12545,7 @@
     <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179" s="24"/>
       <c r="B179" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
@@ -12603,7 +13367,7 @@
     <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199" s="24"/>
       <c r="B199" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C199" s="12"/>
       <c r="D199" s="12"/>
@@ -12794,7 +13558,7 @@
       <c r="T204" s="12"/>
       <c r="U204" s="25"/>
       <c r="AC204" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205" spans="1:46" x14ac:dyDescent="0.25">
@@ -12820,7 +13584,7 @@
       <c r="T205" s="12"/>
       <c r="U205" s="25"/>
       <c r="AC205" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD205" s="2"/>
       <c r="AE205" s="2"/>
@@ -12863,7 +13627,7 @@
       <c r="T206" s="12"/>
       <c r="U206" s="25"/>
       <c r="AC206" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AD206" s="12"/>
       <c r="AE206" s="12"/>
@@ -13866,4 +14630,2639 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3AF68A-7D63-42C0-9AFE-A6BC2C607C52}">
+  <dimension ref="A2:T171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="5"/>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="5"/>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="5"/>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="5"/>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="5"/>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="5"/>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="5"/>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="5"/>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="10"/>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="5"/>
+      <c r="J77" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="5"/>
+      <c r="J91" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="5"/>
+      <c r="J94" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="5"/>
+      <c r="J98" t="s">
+        <v>4</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L98" s="3"/>
+      <c r="M98" t="s">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="5"/>
+      <c r="K99" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="5"/>
+      <c r="K100" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L100" s="10"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="5"/>
+      <c r="K102" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="5"/>
+      <c r="J103" t="s">
+        <v>4</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="3"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="5"/>
+      <c r="K104" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="5"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="5"/>
+      <c r="K105" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="10"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="5"/>
+      <c r="J108" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="10"/>
+    </row>
+    <row r="112" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="21"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="22"/>
+      <c r="S113" s="22"/>
+      <c r="T113" s="23"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
+      <c r="B114" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="25"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="24"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="25"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="24"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="25"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="25"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="25"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="24"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="25"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="24"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="25"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="24"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="25"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="24"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="25"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="25"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="24"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="25"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="24"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="12"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="25"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="25"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="24"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="25"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="24"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
+      <c r="P128" s="12"/>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="12"/>
+      <c r="S128" s="12"/>
+      <c r="T128" s="25"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="24"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="12"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="12"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="25"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="24"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="12"/>
+      <c r="P130" s="12"/>
+      <c r="Q130" s="12"/>
+      <c r="R130" s="12"/>
+      <c r="S130" s="12"/>
+      <c r="T130" s="25"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="24"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="12"/>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12"/>
+      <c r="S131" s="12"/>
+      <c r="T131" s="25"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="24"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="12"/>
+      <c r="S132" s="12"/>
+      <c r="T132" s="25"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="24"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="12"/>
+      <c r="S133" s="12"/>
+      <c r="T133" s="25"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="24"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="12"/>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12"/>
+      <c r="S134" s="12"/>
+      <c r="T134" s="25"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="24"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12"/>
+      <c r="S135" s="12"/>
+      <c r="T135" s="25"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="24"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="25"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="24"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="12"/>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="25"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="24"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="12"/>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="12"/>
+      <c r="S138" s="12"/>
+      <c r="T138" s="25"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="24"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12"/>
+      <c r="S139" s="12"/>
+      <c r="T139" s="25"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="24"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="12"/>
+      <c r="R140" s="12"/>
+      <c r="S140" s="12"/>
+      <c r="T140" s="25"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="24"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="25"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="24"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="25"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="24"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="25"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="24"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="25"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="24"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="25"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="24"/>
+      <c r="B146" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="25"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="24"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+      <c r="O147" s="12"/>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="25"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="24"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="12"/>
+      <c r="P148" s="12"/>
+      <c r="Q148" s="12"/>
+      <c r="R148" s="12"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="25"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="24"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="25"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="24"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+      <c r="O150" s="12"/>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="12"/>
+      <c r="S150" s="12"/>
+      <c r="T150" s="25"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="24"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="12"/>
+      <c r="S151" s="12"/>
+      <c r="T151" s="25"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="24"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="25"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="24"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="25"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="24"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="12"/>
+      <c r="T154" s="25"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="24"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="25"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="24"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="12"/>
+      <c r="P156" s="12"/>
+      <c r="Q156" s="12"/>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12"/>
+      <c r="T156" s="25"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="24"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+      <c r="O157" s="12"/>
+      <c r="P157" s="12"/>
+      <c r="Q157" s="12"/>
+      <c r="R157" s="12"/>
+      <c r="S157" s="12"/>
+      <c r="T157" s="25"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="24"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
+      <c r="O158" s="12"/>
+      <c r="P158" s="12"/>
+      <c r="Q158" s="12"/>
+      <c r="R158" s="12"/>
+      <c r="S158" s="12"/>
+      <c r="T158" s="25"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="24"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="12"/>
+      <c r="O159" s="12"/>
+      <c r="P159" s="12"/>
+      <c r="Q159" s="12"/>
+      <c r="R159" s="12"/>
+      <c r="S159" s="12"/>
+      <c r="T159" s="25"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="24"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="12"/>
+      <c r="P160" s="12"/>
+      <c r="Q160" s="12"/>
+      <c r="R160" s="12"/>
+      <c r="S160" s="12"/>
+      <c r="T160" s="25"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" s="24"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+      <c r="O161" s="12"/>
+      <c r="P161" s="12"/>
+      <c r="Q161" s="12"/>
+      <c r="R161" s="12"/>
+      <c r="S161" s="12"/>
+      <c r="T161" s="25"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" s="24"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="12"/>
+      <c r="R162" s="12"/>
+      <c r="S162" s="12"/>
+      <c r="T162" s="25"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" s="24"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
+      <c r="P163" s="12"/>
+      <c r="Q163" s="12"/>
+      <c r="R163" s="12"/>
+      <c r="S163" s="12"/>
+      <c r="T163" s="25"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" s="24"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="12"/>
+      <c r="Q164" s="12"/>
+      <c r="R164" s="12"/>
+      <c r="S164" s="12"/>
+      <c r="T164" s="25"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" s="24"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="12"/>
+      <c r="T165" s="25"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" s="24"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="25"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" s="24"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="12"/>
+      <c r="P167" s="12"/>
+      <c r="Q167" s="12"/>
+      <c r="R167" s="12"/>
+      <c r="S167" s="12"/>
+      <c r="T167" s="25"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" s="24"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="12"/>
+      <c r="S168" s="12"/>
+      <c r="T168" s="25"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" s="24"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="12"/>
+      <c r="S169" s="12"/>
+      <c r="T169" s="25"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" s="24"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
+      <c r="S170" s="12"/>
+      <c r="T170" s="25"/>
+    </row>
+    <row r="171" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="26"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="27"/>
+      <c r="K171" s="27"/>
+      <c r="L171" s="27"/>
+      <c r="M171" s="27"/>
+      <c r="N171" s="27"/>
+      <c r="O171" s="27"/>
+      <c r="P171" s="27"/>
+      <c r="Q171" s="27"/>
+      <c r="R171" s="27"/>
+      <c r="S171" s="27"/>
+      <c r="T171" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.Exercises.xlsx
+++ b/me/4.Exercises.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexbox\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B376BCF-BE41-4461-B677-ED13C503A6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BCBB4E-30A8-4D79-80CD-C1269089EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banner" sheetId="1" r:id="rId1"/>
     <sheet name="Menu" sheetId="2" r:id="rId2"/>
     <sheet name="Images Gallery" sheetId="3" r:id="rId3"/>
+    <sheet name="Blog Posts" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="375">
   <si>
     <t>構成</t>
   </si>
@@ -936,6 +937,366 @@
   </si>
   <si>
     <t>howver vào 1 hình ảnh nào đó</t>
+  </si>
+  <si>
+    <t>4.Blog-Posts</t>
+  </si>
+  <si>
+    <t>photo-1611095790691-ff1be3430b22.avif</t>
+  </si>
+  <si>
+    <t>photo-1612831199117-a3aa88c5badc.avif</t>
+  </si>
+  <si>
+    <t>flexbox\4.Exercises\4.Blog-Posts\index.html</t>
+  </si>
+  <si>
+    <t>    &lt;title&gt;Flexbox Exercise - Blog Posts&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="posts"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;div class="post-item"&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;a href="#" class="post-image"</t>
+  </si>
+  <si>
+    <t>            &gt;&lt;img src="./images/photo-1611095790691-ff1be3430b22.avif" alt=""</t>
+  </si>
+  <si>
+    <t>          /&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;div class="post-content"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;h3 class="post-title"&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;a href="#"</t>
+  </si>
+  <si>
+    <t>                &gt;Lorem ipsum dolor sit amet consectetur adipisicing elit.</t>
+  </si>
+  <si>
+    <t>                Molestias aliquam hic excepturi?&lt;/a</t>
+  </si>
+  <si>
+    <t>              &gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;p class="post-description"&gt;</t>
+  </si>
+  <si>
+    <t>              Lorem ipsum dolor sit amet consectetur adipisicing elit. Enim,</t>
+  </si>
+  <si>
+    <t>              laborum minima atque esse saepe odio consequuntur qui soluta</t>
+  </si>
+  <si>
+    <t>              similique iste?</t>
+  </si>
+  <si>
+    <t>            &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div class="post-author"&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;img</t>
+  </si>
+  <si>
+    <t>                src="./images/photo-1612831199117-a3aa88c5badc.avif"</t>
+  </si>
+  <si>
+    <t>                alt=""</t>
+  </si>
+  <si>
+    <t>                class="author-image"</t>
+  </si>
+  <si>
+    <t>              /&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;div class="author-info"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;p&gt;Linh Nguyen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;p&gt;Dev&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;span class="post-time"&gt;8 Apr&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>                Cumque, tempore.&lt;/a</t>
+  </si>
+  <si>
+    <t>              &lt;a href="#"&gt;Lorem ipsum dolor sit amet consectetur.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>flexbox\4.Exercises\4.Blog-Posts\css\style.css</t>
+  </si>
+  <si>
+    <t>:root {</t>
+  </si>
+  <si>
+    <t>    --margin-20: 20px;</t>
+  </si>
+  <si>
+    <t>    --transition: 0.4s linear;</t>
+  </si>
+  <si>
+    <t>    max-width: 100%;</t>
+  </si>
+  <si>
+    <t>    margin: 20px auto;</t>
+  </si>
+  <si>
+    <t>    padding: 15px;</t>
+  </si>
+  <si>
+    <t>.posts {</t>
+  </si>
+  <si>
+    <t>    flex-wrap: wrap;</t>
+  </si>
+  <si>
+    <t>.post-item {</t>
+  </si>
+  <si>
+    <t>    margin-left: var(--margin-20);</t>
+  </si>
+  <si>
+    <t>    box-shadow: 2px 4px 10px rgba(0, 0, 0, 0.3);</t>
+  </si>
+  <si>
+    <t>    border-radius: 6px;</t>
+  </si>
+  <si>
+    <t>    overflow: hidden;</t>
+  </si>
+  <si>
+    <t>    transition: var(--transition);</t>
+  </si>
+  <si>
+    <t>    flex-direction: column;</t>
+  </si>
+  <si>
+    <t>    margin-bottom: var(--margin-20);</t>
+  </si>
+  <si>
+    <t>.post-item:hover {</t>
+  </si>
+  <si>
+    <t>    transform: scale(1.02);</t>
+  </si>
+  <si>
+    <t>.post-image {</t>
+  </si>
+  <si>
+    <t>    height: 230px;</t>
+  </si>
+  <si>
+    <t>.post-image img {</t>
+  </si>
+  <si>
+    <t>    object-fit: cover;</t>
+  </si>
+  <si>
+    <t>.post-image:hover img {</t>
+  </si>
+  <si>
+    <t>    transform: scale(1.2);</t>
+  </si>
+  <si>
+    <t>.post-content {</t>
+  </si>
+  <si>
+    <t>    flex-grow: 1;</t>
+  </si>
+  <si>
+    <t>.post-title,</t>
+  </si>
+  <si>
+    <t>.post-description {</t>
+  </si>
+  <si>
+    <t>    margin-bottom: 15px;</t>
+  </si>
+  <si>
+    <t>.post-author {</t>
+  </si>
+  <si>
+    <t>    margin-top: auto;</t>
+  </si>
+  <si>
+    <t>.author-image {</t>
+  </si>
+  <si>
+    <t>    width: 50px;</t>
+  </si>
+  <si>
+    <t>    height: 50px;</t>
+  </si>
+  <si>
+    <t>    border-radius: 50%;</t>
+  </si>
+  <si>
+    <t>    box-shadow: 1px 2px 4px rgba(0, 0, 0, 0.3);</t>
+  </si>
+  <si>
+    <t>.author-info {</t>
+  </si>
+  <si>
+    <t>    margin-left: 15px;</t>
+  </si>
+  <si>
+    <t>.author-info p:first-child {</t>
+  </si>
+  <si>
+    <t>.post-time {</t>
+  </si>
+  <si>
+    <t>    margin-left: auto;</t>
+  </si>
+  <si>
+    <t>@media screen and (max-width: 992px) {</t>
+  </si>
+  <si>
+    <t>    .post-item {</t>
+  </si>
+  <si>
+    <t>@media screen and (max-width: 576px) {</t>
+  </si>
+  <si>
+    <t>    width: calc(100% / 3 - 2*var(--margin-20)/3);</t>
+  </si>
+  <si>
+    <t>.post-item:first-child {</t>
+  </si>
+  <si>
+    <t>    margin-left: 0px;</t>
+  </si>
+  <si>
+    <t>    .post-item:nth-child(odd) {</t>
+  </si>
+  <si>
+    <t>        margin-left: 0px;</t>
+  </si>
+  <si>
+    <t>Định nghĩa các biến số để sử dụng</t>
+  </si>
+  <si>
+    <t>Chiều rộng của mỗi bài viết chiếm 1/3. Phần tử thứ 2 và thứ 3 có margin-left, phần tử đầu ko có</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phần phía trên là hình ảnh sẽ bị chèn ra ngoài phần border-radius nên để nhìn thấy bo trong chỗ </t>
+  </si>
+  <si>
+    <t>này thì phải dùng overflow: hidden;</t>
+  </si>
+  <si>
+    <t>Khi hover vào thì sẽ zoom(scale) lên</t>
+  </si>
+  <si>
+    <t>Khi hover vào có transition thì nhìn scale sẽ mượt hơn</t>
+  </si>
+  <si>
+    <t>Khi hover vào ảnh thì ảnh cũng được zoom(scale) lên</t>
+  </si>
+  <si>
+    <t>Nó là thẻ a nên set display: block để set chiều cao cho nó</t>
+  </si>
+  <si>
+    <t>Để khi hover vào hình ảnh được zoom(scale) to lên nó sẽ ko đè lên che mất chữ của content</t>
+  </si>
+  <si>
+    <t>Để hình ảnh nằm nguyên bên trong a.post-image thì set height và width cho img là 100%</t>
+  </si>
+  <si>
+    <t>Scales và cropped chiều rộng và cao của hình ảnh sao cho phù hợp khi height và width là 100%</t>
+  </si>
+  <si>
+    <t>phần tử item ở vị trí đầu tiên thì ko cần set margin-left</t>
+  </si>
+  <si>
+    <t>Phần author cho nó nằm trên cùng 1 dòng</t>
+  </si>
+  <si>
+    <t>width và height của nó bằng nhau nên để nó bo tròn được thì set border-radius: 50%</t>
+  </si>
+  <si>
+    <t>Scales và cropped chiều rộng và cao của hình ảnh sao cho phù hợp khi height và width đều được set là 50px</t>
+  </si>
+  <si>
+    <t>box-shadow để hình ảnh nhìn hơi nổi lên phía trên</t>
+  </si>
+  <si>
+    <t>Để nó nằm ở vị trí bên phải</t>
+  </si>
+  <si>
+    <t>Để các nội dung author bên trong sẽ nằm chính giữa theo trục nằm ngang</t>
+  </si>
+  <si>
+    <t>Đưa 3 bài viết nằm trên 1 dòng. Lúc này mặc định align-items: stretch nên chiều cao của các flex item(div.post-item) là bằng nhau</t>
+  </si>
+  <si>
+    <t>Khi độ dài tiêu đề(h3.post-title) hay mô tả bài viết(p.post-description) của mỗi bài viết thay đổi khác nhau dẫn đến phần hiển thị bài viết div.post-content(flex</t>
+  </si>
+  <si>
+    <t>container) ko full đến dưới cùng, nội dung có bao nhiêu thì chiều cao của nó chiếm đến đó thôi.</t>
+  </si>
+  <si>
+    <t>Phần hình ảnh nằm trong a.post-image(flex item) thì đã được fix chiều cao cố định 230px nên chỉ cần thiết lập flex-grow cho div.post-content(flex item) là 1 thì</t>
+  </si>
+  <si>
+    <t>div.post-content sẽ chiếm full phần còn lại nên chiều cao của các khối div.post-content sẽ như nhau</t>
+  </si>
+  <si>
+    <t>Đẩy phần hiển thị author(div.author-info) xuống phía dưới để thấy các phần hiển thị author này cùng ở vị trí cao như nhau</t>
+  </si>
+  <si>
+    <t>Cho xuống dòng đối với các màn hình 992px và 576px</t>
+  </si>
+  <si>
+    <t>Do 2 phần tử trên 1 dòng nên các phần tử lẻ sẽ đứng đầu của mỗi dòng, do đó cần set margin-left: 0px cho các phần tử đó</t>
+  </si>
+  <si>
+    <t>        width: calc(100% / 2 - var(--margin-20)/2);</t>
+  </si>
+  <si>
+    <t>margin-left nên chiều rộng được tính theo công thức (100%-2*var(--margin-20))/3</t>
+  </si>
+  <si>
+    <t>Màn hình nhỏ hơn 992px thì chỉ có 2 bài viết trên 1 dòng. Nhưng do phần tử 1 và 3 đã được set margin-left là 0px nên chỉ còn phần tử 2 còn margin-left</t>
+  </si>
+  <si>
+    <t>nên công thức tính sẽ là (100%-var(--margin-20))/2</t>
+  </si>
+  <si>
+    <t>Mỗi dòng có 1 phần tử nên set  margin-left: 0px cho tất cả các phần tử nên width mỗi phần tử sẽ là 100%</t>
+  </si>
+  <si>
+    <t>Tên biến phải có "--" ở trước</t>
   </si>
 </sst>
 </file>
@@ -972,7 +1333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1140,11 +1501,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1177,6 +1575,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3616,6 +4018,1652 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FEE625-001A-E466-3C28-3A8EDC0D9608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="25298400"/>
+          <a:ext cx="1447800" cy="6619875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139E2DE1-94D2-1C30-D40C-D22E16AC39B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1762125" y="31984950"/>
+          <a:ext cx="8886825" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D70EE4C-9E28-7B06-0839-F14452F3C69B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2495550" y="31965900"/>
+          <a:ext cx="5991225" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF20860-6DCB-A0CE-D095-BBC530BE54E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1819275" y="32575500"/>
+          <a:ext cx="4286250" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D260F238-FE36-849B-13B3-A8FE423AE82B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1219200" y="32908875"/>
+          <a:ext cx="38100" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089E0220-0C8B-814D-ABB3-3657EFE13336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1581150" y="35756850"/>
+          <a:ext cx="7029450" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A368EF-70F0-FCA5-BBC8-35340966A0EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2390775" y="36014025"/>
+          <a:ext cx="3648075" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49785EAC-FDA2-4689-9879-9039ECF1843E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2190750" y="18440400"/>
+          <a:ext cx="6248400" cy="18383250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F336ACD8-E9AE-AE20-15F7-5EF683376FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="42491025"/>
+          <a:ext cx="10553700" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45175</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>248631</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>66033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C3AFC3-902A-7767-9EF4-DDAC9C34B25C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12351475" y="32461200"/>
+          <a:ext cx="11176256" cy="5133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E6B7DB-B25F-5B35-83C4-AF2137C60B67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706225" y="32546925"/>
+          <a:ext cx="847725" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E5E300-560B-67ED-DD1A-50AA09581504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11496675" y="35080575"/>
+          <a:ext cx="1323975" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BB240F-A42A-7336-B80D-7D173D8DEE1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8572500" y="36642675"/>
+          <a:ext cx="6038850" cy="4600575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBA710E-21C6-B1B3-12BA-DD25C18CDFFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9096375" y="37090350"/>
+          <a:ext cx="7572375" cy="6076950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1770A31D-9104-36E4-CF56-6F802CE92706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7734300" y="36957000"/>
+          <a:ext cx="11591925" cy="8477250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7558EA91-FDFC-12DE-E5C3-66CE8D18D05D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10372725" y="36909375"/>
+          <a:ext cx="7829550" cy="4524375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>146903</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B356674-FD99-379F-A1B1-91E65DD96433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13677900" y="31041975"/>
+          <a:ext cx="4261703" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F047B853-E002-6E14-2138-7D3909BD16A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13668375" y="30984825"/>
+          <a:ext cx="885825" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BE9402-4EC3-B572-14C1-BE789D476B60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="30984825"/>
+          <a:ext cx="8410575" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268706E9-E124-2CB9-C296-98E4E322028A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2457450" y="28555950"/>
+          <a:ext cx="9858375" cy="4581525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E2A134-E5E0-1049-91BF-D06BDAD32326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2438400" y="28555950"/>
+          <a:ext cx="9867900" cy="10591800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Arrow Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762F0AED-2A83-1099-8EEC-B561B15CBDAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6162675" y="28555950"/>
+          <a:ext cx="6162675" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71277F59-E177-835F-8648-3CEC69E15825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16583025" y="29356050"/>
+          <a:ext cx="3162300" cy="5410200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F42DF6F-31AB-006F-674D-154C3719D40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1343025" y="41300400"/>
+          <a:ext cx="9525" cy="4095750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Straight Arrow Connector 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DD0DCC-9370-A0CF-4DA0-309C6416C43D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="39633525"/>
+          <a:ext cx="419100" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Straight Arrow Connector 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2899CA-6067-C847-0860-E4AFDF1C1AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1781175" y="30089475"/>
+          <a:ext cx="10534650" cy="11544300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="Straight Arrow Connector 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745E9E27-9F23-F89A-02F6-050E736511B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13677900" y="29375100"/>
+          <a:ext cx="9525" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Straight Arrow Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC5C2F4-AB84-620F-5155-606604279045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="30089475"/>
+          <a:ext cx="942975" cy="6457950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Arrow Connector 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E77A41-67E8-A453-0DD7-729CF578BDB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="31213425"/>
+          <a:ext cx="57150" cy="14706600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="Straight Arrow Connector 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5688DACF-D29B-AA80-EB91-BF876DB5B855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2371725" y="46462950"/>
+          <a:ext cx="8162925" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="Straight Arrow Connector 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648DC0AD-4AFB-94DF-88EB-D241EEDE8E96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1866900" y="48196500"/>
+          <a:ext cx="6305550" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14636,8 +16684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3AF68A-7D63-42C0-9AFE-A6BC2C607C52}">
   <dimension ref="A2:T171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17265,4 +19313,3232 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F8268F-9D06-4C73-A743-1280B17283C4}">
+  <dimension ref="A5:AJ259"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="H236" sqref="H236"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="5"/>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="5"/>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="5"/>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="5"/>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="10"/>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="10"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="5"/>
+      <c r="J132" t="s">
+        <v>4</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="3"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="5"/>
+      <c r="K133" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="10"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="5"/>
+      <c r="U151" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="V151" s="2"/>
+      <c r="W151" s="2"/>
+      <c r="X151" s="2"/>
+      <c r="Y151" s="2"/>
+      <c r="Z151" s="2"/>
+      <c r="AA151" s="2"/>
+      <c r="AB151" s="2"/>
+      <c r="AC151" s="2"/>
+      <c r="AD151" s="2"/>
+      <c r="AE151" s="2"/>
+      <c r="AF151" s="2"/>
+      <c r="AG151" s="2"/>
+      <c r="AH151" s="2"/>
+      <c r="AI151" s="2"/>
+      <c r="AJ151" s="3"/>
+    </row>
+    <row r="152" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="5"/>
+      <c r="U152" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="V152" s="12"/>
+      <c r="W152" s="12"/>
+      <c r="X152" s="12"/>
+      <c r="Y152" s="12"/>
+      <c r="Z152" s="12"/>
+      <c r="AA152" s="12"/>
+      <c r="AB152" s="12"/>
+      <c r="AC152" s="12"/>
+      <c r="AD152" s="12"/>
+      <c r="AE152" s="12"/>
+      <c r="AF152" s="12"/>
+      <c r="AG152" s="12"/>
+      <c r="AH152" s="12"/>
+      <c r="AI152" s="12"/>
+      <c r="AJ152" s="5"/>
+    </row>
+    <row r="153" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="5"/>
+      <c r="U153" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="V153" s="12"/>
+      <c r="W153" s="12"/>
+      <c r="X153" s="12"/>
+      <c r="Y153" s="12"/>
+      <c r="Z153" s="12"/>
+      <c r="AA153" s="12"/>
+      <c r="AB153" s="12"/>
+      <c r="AC153" s="12"/>
+      <c r="AD153" s="12"/>
+      <c r="AE153" s="12"/>
+      <c r="AF153" s="12"/>
+      <c r="AG153" s="12"/>
+      <c r="AH153" s="12"/>
+      <c r="AI153" s="12"/>
+      <c r="AJ153" s="5"/>
+    </row>
+    <row r="154" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="5"/>
+      <c r="U154" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="V154" s="8"/>
+      <c r="W154" s="8"/>
+      <c r="X154" s="8"/>
+      <c r="Y154" s="8"/>
+      <c r="Z154" s="8"/>
+      <c r="AA154" s="8"/>
+      <c r="AB154" s="8"/>
+      <c r="AC154" s="8"/>
+      <c r="AD154" s="8"/>
+      <c r="AE154" s="8"/>
+      <c r="AF154" s="8"/>
+      <c r="AG154" s="8"/>
+      <c r="AH154" s="8"/>
+      <c r="AI154" s="8"/>
+      <c r="AJ154" s="10"/>
+    </row>
+    <row r="155" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B156" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B158" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="5"/>
+      <c r="U158" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="V158" s="34"/>
+      <c r="W158" s="34"/>
+      <c r="X158" s="34"/>
+      <c r="Y158" s="34"/>
+      <c r="Z158" s="34"/>
+      <c r="AA158" s="34"/>
+      <c r="AB158" s="34"/>
+      <c r="AC158" s="34"/>
+      <c r="AD158" s="34"/>
+      <c r="AE158" s="34"/>
+      <c r="AF158" s="35"/>
+    </row>
+    <row r="159" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="5"/>
+    </row>
+    <row r="160" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="5"/>
+    </row>
+    <row r="161" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="5"/>
+    </row>
+    <row r="162" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="5"/>
+      <c r="J163" t="s">
+        <v>4</v>
+      </c>
+      <c r="K163" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="5"/>
+      <c r="J164" t="s">
+        <v>4</v>
+      </c>
+      <c r="K164" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="165" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B165" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="5"/>
+      <c r="J168" t="s">
+        <v>4</v>
+      </c>
+      <c r="K168" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="5"/>
+      <c r="K169" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="170" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="5"/>
+      <c r="K171" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="3"/>
+    </row>
+    <row r="172" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="5"/>
+      <c r="K172" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L172" s="8"/>
+      <c r="M172" s="8"/>
+      <c r="N172" s="8"/>
+      <c r="O172" s="8"/>
+      <c r="P172" s="8"/>
+      <c r="Q172" s="8"/>
+      <c r="R172" s="8"/>
+      <c r="S172" s="10"/>
+    </row>
+    <row r="173" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B173" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="5"/>
+      <c r="J173" t="s">
+        <v>4</v>
+      </c>
+      <c r="K173" s="32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="174" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B175" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C175" s="8"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="4"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="5"/>
+      <c r="J180" t="s">
+        <v>4</v>
+      </c>
+      <c r="K180" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B182" s="4"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B184" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="5"/>
+      <c r="J184" t="s">
+        <v>4</v>
+      </c>
+      <c r="K184" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" s="4"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B188" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="5"/>
+      <c r="J188" t="s">
+        <v>4</v>
+      </c>
+      <c r="K188" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="5"/>
+      <c r="J189" t="s">
+        <v>4</v>
+      </c>
+      <c r="K189" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="4"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B193" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B194" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="5"/>
+      <c r="J194" t="s">
+        <v>4</v>
+      </c>
+      <c r="K194" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B195" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B196" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="5"/>
+      <c r="J196" t="s">
+        <v>4</v>
+      </c>
+      <c r="K196" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B197" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="5"/>
+      <c r="J197" t="s">
+        <v>4</v>
+      </c>
+      <c r="K197" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B198" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B199" s="4"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B202" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B203" s="4"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B204" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B205" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B206" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C206" s="34"/>
+      <c r="D206" s="35"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B208" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C208" s="8"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B210" s="4"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B211" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B212" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B213" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B214" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B215" s="4"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B216" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B217" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="5"/>
+      <c r="J217" t="s">
+        <v>4</v>
+      </c>
+      <c r="K217" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B218" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="5"/>
+      <c r="J218" t="s">
+        <v>4</v>
+      </c>
+      <c r="K218" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B219" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B220" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B221" s="4"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="5"/>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B222" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="5"/>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B223" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="5"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B224" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="5"/>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B225" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="5"/>
+      <c r="J225" t="s">
+        <v>4</v>
+      </c>
+      <c r="K225" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B226" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="5"/>
+      <c r="J226" t="s">
+        <v>4</v>
+      </c>
+      <c r="K226" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B227" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="5"/>
+      <c r="J227" t="s">
+        <v>4</v>
+      </c>
+      <c r="K227" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B228" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="5"/>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B229" s="4"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="5"/>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B230" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="5"/>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B231" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="5"/>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B232" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="5"/>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B233" s="4"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="12"/>
+      <c r="H233" s="12"/>
+      <c r="I233" s="5"/>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B234" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C234" s="12"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="12"/>
+      <c r="I234" s="5"/>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B235" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="5"/>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B236" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="5"/>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B237" s="4"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="12"/>
+      <c r="H237" s="12"/>
+      <c r="I237" s="5"/>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B238" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="5"/>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B239" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C239" s="35"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="5"/>
+      <c r="J239" t="s">
+        <v>4</v>
+      </c>
+      <c r="K239" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B240" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="5"/>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B241" s="4"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="5"/>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="3"/>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B243" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="5"/>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B244" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="5"/>
+      <c r="J244" t="s">
+        <v>4</v>
+      </c>
+      <c r="K244" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B245" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C245" s="12"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12"/>
+      <c r="G245" s="12"/>
+      <c r="H245" s="12"/>
+      <c r="I245" s="5"/>
+      <c r="K245" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B246" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12"/>
+      <c r="G246" s="12"/>
+      <c r="H246" s="12"/>
+      <c r="I246" s="5"/>
+      <c r="J246" t="s">
+        <v>4</v>
+      </c>
+      <c r="K246" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B247" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="12"/>
+      <c r="I247" s="5"/>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B248" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C248" s="12"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="12"/>
+      <c r="I248" s="5"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B249" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="12"/>
+      <c r="I249" s="5"/>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B250" s="4"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12"/>
+      <c r="G250" s="12"/>
+      <c r="H250" s="12"/>
+      <c r="I250" s="5"/>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B251" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12"/>
+      <c r="G251" s="12"/>
+      <c r="H251" s="12"/>
+      <c r="I251" s="5"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B252" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12"/>
+      <c r="G252" s="12"/>
+      <c r="H252" s="12"/>
+      <c r="I252" s="5"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B253" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12"/>
+      <c r="G253" s="12"/>
+      <c r="H253" s="12"/>
+      <c r="I253" s="5"/>
+      <c r="J253" t="s">
+        <v>4</v>
+      </c>
+      <c r="K253" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B254" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
+      <c r="G254" s="12"/>
+      <c r="H254" s="12"/>
+      <c r="I254" s="5"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B255" s="4"/>
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12"/>
+      <c r="G255" s="12"/>
+      <c r="H255" s="12"/>
+      <c r="I255" s="5"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B256" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12"/>
+      <c r="G256" s="12"/>
+      <c r="H256" s="12"/>
+      <c r="I256" s="5"/>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B257" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
+      <c r="G257" s="12"/>
+      <c r="H257" s="12"/>
+      <c r="I257" s="5"/>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B258" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C258" s="12"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12"/>
+      <c r="G258" s="12"/>
+      <c r="H258" s="12"/>
+      <c r="I258" s="5"/>
+    </row>
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B259" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="8"/>
+      <c r="I259" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>